--- a/data/231024/kC/kC-viscoelasticRecovery-2.xlsx
+++ b/data/231024/kC/kC-viscoelasticRecovery-2.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="kC_viscoelasticRecovery_2.rwd"/>
   </sheets>
   <definedNames>
-    <definedName name="kC_viscoelasticRecovery_2.rwd">'kC_viscoelasticRecovery_2.rwd'!$A$1:$E$207</definedName>
+    <definedName name="kC_viscoelasticRecovery_2.rwd">'kC_viscoelasticRecovery_2.rwd'!$A$1:$Q$207</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:Q207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -364,17 +364,77 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
+          <t>|G*| in Pa</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>G' in Pa</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>G" in Pa</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>f in Hz</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>ω in rad/s</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>tan(δ) in -</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>τ in Pa</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>ɣ in %</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>ɣ̇ in 1/s</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Fn in N</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>h in mm</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>|η*| in mPas</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>η in mPas</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>T in °C</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
           <t>t_seg in s</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>τ in Pa</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>T in °C</t>
         </is>
       </c>
     </row>
@@ -387,14 +447,29 @@
       <c r="B2" s="0">
         <v>13.2760000228882</v>
       </c>
-      <c r="C2" s="0">
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>-0.263510714285076</v>
+      </c>
+      <c r="K2" s="0">
+        <v>-1.02417696325574E-04</v>
+      </c>
+      <c r="L2" s="0">
+        <v>2.68498552031815E-03</v>
+      </c>
+      <c r="M2" s="0">
+        <v>72.0148384571075</v>
+      </c>
+      <c r="O2" s="0">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0">
+        <v>37.0002990722656</v>
+      </c>
+      <c r="Q2" s="0">
         <v>5.10999965667725</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0">
-        <v>37.0002990722656</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
@@ -406,14 +481,29 @@
       <c r="B3" s="0">
         <v>18.3810005187988</v>
       </c>
-      <c r="C3" s="0">
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>-0.328503339551389</v>
+      </c>
+      <c r="K3" s="0">
+        <v>-1.42020042403601E-04</v>
+      </c>
+      <c r="L3" s="0">
+        <v>2.74901604279876E-03</v>
+      </c>
+      <c r="M3" s="0">
+        <v>69.4687962532043</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0">
+        <v>37.0002380371094</v>
+      </c>
+      <c r="Q3" s="0">
         <v>10.2150001525879</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>37.0002380371094</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
@@ -425,14 +515,29 @@
       <c r="B4" s="0">
         <v>23.4860000610352</v>
       </c>
-      <c r="C4" s="0">
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>-0.394543260335922</v>
+      </c>
+      <c r="K4" s="0">
+        <v>-1.17075091111474E-04</v>
+      </c>
+      <c r="L4" s="0">
+        <v>1.33244087919593E-03</v>
+      </c>
+      <c r="M4" s="0">
+        <v>66.9309943914413</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0">
+        <v>37.0002990722656</v>
+      </c>
+      <c r="Q4" s="0">
         <v>15.3199996948242</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0">
-        <v>37.0002990722656</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
@@ -444,14 +549,29 @@
       <c r="B5" s="0">
         <v>28.5960006713867</v>
       </c>
-      <c r="C5" s="0">
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>-0.461719045415521</v>
+      </c>
+      <c r="K5" s="0">
+        <v>-1.68173515703529E-04</v>
+      </c>
+      <c r="L5" s="0">
+        <v>1.82860426139086E-03</v>
+      </c>
+      <c r="M5" s="0">
+        <v>64.3853917717934</v>
+      </c>
+      <c r="O5" s="0">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0">
+        <v>37.000146484375</v>
+      </c>
+      <c r="Q5" s="0">
         <v>20.4300003051758</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0">
-        <v>37.000146484375</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
@@ -463,14 +583,29 @@
       <c r="B6" s="0">
         <v>33.701000213623</v>
       </c>
-      <c r="C6" s="0">
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>-0.530841900035739</v>
+      </c>
+      <c r="K6" s="0">
+        <v>-9.2448724899441E-05</v>
+      </c>
+      <c r="L6" s="0">
+        <v>1.32331857457757E-03</v>
+      </c>
+      <c r="M6" s="0">
+        <v>61.8436932563782</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0">
+        <v>37.000146484375</v>
+      </c>
+      <c r="Q6" s="0">
         <v>25.5349998474121</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0">
-        <v>37.000146484375</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
@@ -482,14 +617,29 @@
       <c r="B7" s="0">
         <v>38.8059997558594</v>
       </c>
-      <c r="C7" s="0">
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>-0.603770557790995</v>
+      </c>
+      <c r="K7" s="0">
+        <v>-1.89957383554429E-04</v>
+      </c>
+      <c r="L7" s="0">
+        <v>7.6287342235446E-03</v>
+      </c>
+      <c r="M7" s="0">
+        <v>59.3000426888466</v>
+      </c>
+      <c r="O7" s="0">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q7" s="0">
         <v>30.6399993896484</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
@@ -501,14 +651,29 @@
       <c r="B8" s="0">
         <v>43.9160003662109</v>
       </c>
-      <c r="C8" s="0">
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>-0.678897043690085</v>
+      </c>
+      <c r="K8" s="0">
+        <v>-1.58459122758359E-04</v>
+      </c>
+      <c r="L8" s="0">
+        <v>2.32960470020771E-03</v>
+      </c>
+      <c r="M8" s="0">
+        <v>56.7544475197792</v>
+      </c>
+      <c r="O8" s="0">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q8" s="0">
         <v>35.75</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
@@ -520,14 +685,29 @@
       <c r="B9" s="0">
         <v>49.0209999084473</v>
       </c>
-      <c r="C9" s="0">
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>-0.75470213778317</v>
+      </c>
+      <c r="K9" s="0">
+        <v>-1.54714725795202E-04</v>
+      </c>
+      <c r="L9" s="0">
+        <v>5.17225172370672E-03</v>
+      </c>
+      <c r="M9" s="0">
+        <v>54.2161986231804</v>
+      </c>
+      <c r="O9" s="0">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q9" s="0">
         <v>40.8549995422363</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
@@ -539,14 +719,29 @@
       <c r="B10" s="0">
         <v>54.1259994506836</v>
       </c>
-      <c r="C10" s="0">
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>-0.844712276011705</v>
+      </c>
+      <c r="K10" s="0">
+        <v>-1.75826193299145E-04</v>
+      </c>
+      <c r="L10" s="0">
+        <v>9.40428674221039E-03</v>
+      </c>
+      <c r="M10" s="0">
+        <v>51.6700968146324</v>
+      </c>
+      <c r="O10" s="0">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q10" s="0">
         <v>45.9599990844727</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
@@ -558,14 +753,29 @@
       <c r="B11" s="0">
         <v>59.2309989929199</v>
       </c>
-      <c r="C11" s="0">
+      <c r="I11" s="0">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0">
+        <v>-0.933173671364784</v>
+      </c>
+      <c r="K11" s="0">
+        <v>-2.24891002289951E-04</v>
+      </c>
+      <c r="L11" s="0">
+        <v>8.58688075095415E-03</v>
+      </c>
+      <c r="M11" s="0">
+        <v>49.1306930780411</v>
+      </c>
+      <c r="O11" s="0">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0">
+        <v>37.0000854492188</v>
+      </c>
+      <c r="Q11" s="0">
         <v>51.064998626709</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0">
-        <v>37.0000854492188</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
@@ -577,14 +787,29 @@
       <c r="B12" s="0">
         <v>64.3410034179688</v>
       </c>
-      <c r="C12" s="0">
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>-1.02448193356395</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-2.00480659259483E-04</v>
+      </c>
+      <c r="L12" s="0">
+        <v>6.14611897617579E-03</v>
+      </c>
+      <c r="M12" s="0">
+        <v>46.5855933725834</v>
+      </c>
+      <c r="O12" s="0">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q12" s="0">
         <v>56.1750030517578</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
@@ -596,14 +821,29 @@
       <c r="B13" s="0">
         <v>69.4459991455078</v>
       </c>
-      <c r="C13" s="0">
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>-1.12251667305827</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-1.64413839229383E-04</v>
+      </c>
+      <c r="L13" s="0">
+        <v>0.005316321272403</v>
+      </c>
+      <c r="M13" s="0">
+        <v>44.041994959116</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q13" s="0">
         <v>61.2799987792969</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
@@ -615,14 +855,29 @@
       <c r="B14" s="0">
         <v>74.552001953125</v>
       </c>
-      <c r="C14" s="0">
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>-1.22776459902525</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-1.99243673705496E-04</v>
+      </c>
+      <c r="L14" s="0">
+        <v>1.11217433586717E-02</v>
+      </c>
+      <c r="M14" s="0">
+        <v>41.503794491291</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0</v>
+      </c>
+      <c r="P14" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q14" s="0">
         <v>66.3860015869141</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
@@ -634,14 +889,29 @@
       <c r="B15" s="0">
         <v>79.6569976806641</v>
       </c>
-      <c r="C15" s="0">
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>-1.34895835071802</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-2.75804137345403E-04</v>
+      </c>
+      <c r="L15" s="0">
+        <v>6.52293767780066E-03</v>
+      </c>
+      <c r="M15" s="0">
+        <v>38.9596931636333</v>
+      </c>
+      <c r="O15" s="0">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q15" s="0">
         <v>71.4909973144531</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
@@ -653,14 +923,29 @@
       <c r="B16" s="0">
         <v>84.7620010375977</v>
       </c>
-      <c r="C16" s="0">
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>-1.48245422169566</v>
+      </c>
+      <c r="K16" s="0">
+        <v>-2.60081986198202E-04</v>
+      </c>
+      <c r="L16" s="0">
+        <v>3.85186797939241E-03</v>
+      </c>
+      <c r="M16" s="0">
+        <v>36.4205427467823</v>
+      </c>
+      <c r="O16" s="0">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q16" s="0">
         <v>76.5960006713867</v>
-      </c>
-      <c r="D16" s="0">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
@@ -672,14 +957,29 @@
       <c r="B17" s="0">
         <v>89.8720016479492</v>
       </c>
-      <c r="C17" s="0">
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>-1.62875410169363</v>
+      </c>
+      <c r="K17" s="0">
+        <v>-3.18443810101599E-04</v>
+      </c>
+      <c r="L17" s="0">
+        <v>4.58360183984041E-03</v>
+      </c>
+      <c r="M17" s="0">
+        <v>33.8749475777149</v>
+      </c>
+      <c r="O17" s="0">
+        <v>0</v>
+      </c>
+      <c r="P17" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q17" s="0">
         <v>81.7060012817383</v>
-      </c>
-      <c r="D17" s="0">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
@@ -691,14 +991,29 @@
       <c r="B18" s="0">
         <v>94.9769973754883</v>
       </c>
-      <c r="C18" s="0">
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>-1.80054344236851</v>
+      </c>
+      <c r="K18" s="0">
+        <v>-3.89504071790725E-04</v>
+      </c>
+      <c r="L18" s="0">
+        <v>7.09028169512749E-03</v>
+      </c>
+      <c r="M18" s="0">
+        <v>31.3342958688736</v>
+      </c>
+      <c r="O18" s="0">
+        <v>0</v>
+      </c>
+      <c r="P18" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q18" s="0">
         <v>86.8109970092773</v>
-      </c>
-      <c r="D18" s="0">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
@@ -710,14 +1025,29 @@
       <c r="B19" s="0">
         <v>100.082000732422</v>
       </c>
-      <c r="C19" s="0">
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>-2.00286731123924</v>
+      </c>
+      <c r="K19" s="0">
+        <v>-4.26520593464375E-04</v>
+      </c>
+      <c r="L19" s="0">
+        <v>1.27066522836685E-02</v>
+      </c>
+      <c r="M19" s="0">
+        <v>28.7962444126606</v>
+      </c>
+      <c r="O19" s="0">
+        <v>0</v>
+      </c>
+      <c r="P19" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q19" s="0">
         <v>91.9160003662109</v>
-      </c>
-      <c r="D19" s="0">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
@@ -729,14 +1059,29 @@
       <c r="B20" s="0">
         <v>105.186996459961</v>
       </c>
-      <c r="C20" s="0">
+      <c r="I20" s="0">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0">
+        <v>-2.25935652852058</v>
+      </c>
+      <c r="K20" s="0">
+        <v>-5.53470512386411E-04</v>
+      </c>
+      <c r="L20" s="0">
+        <v>1.04867964982986E-02</v>
+      </c>
+      <c r="M20" s="0">
+        <v>26.2513440102339</v>
+      </c>
+      <c r="O20" s="0">
+        <v>0</v>
+      </c>
+      <c r="P20" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q20" s="0">
         <v>97.02099609375</v>
-      </c>
-      <c r="D20" s="0">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
@@ -748,14 +1093,29 @@
       <c r="B21" s="0">
         <v>110.296997070313</v>
       </c>
-      <c r="C21" s="0">
+      <c r="I21" s="0">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0">
+        <v>-2.56568919867277</v>
+      </c>
+      <c r="K21" s="0">
+        <v>-6.11695286352187E-04</v>
+      </c>
+      <c r="L21" s="0">
+        <v>1.18871526792645E-02</v>
+      </c>
+      <c r="M21" s="0">
+        <v>23.7105935811996</v>
+      </c>
+      <c r="O21" s="0">
+        <v>0</v>
+      </c>
+      <c r="P21" s="0">
+        <v>37.0000854492188</v>
+      </c>
+      <c r="Q21" s="0">
         <v>102.130996704102</v>
-      </c>
-      <c r="D21" s="0">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0">
-        <v>37.0000854492188</v>
       </c>
     </row>
     <row outlineLevel="0" r="22">
@@ -767,14 +1127,29 @@
       <c r="B22" s="0">
         <v>115.402000427246</v>
       </c>
-      <c r="C22" s="0">
+      <c r="I22" s="0">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0">
+        <v>-2.93545071035624</v>
+      </c>
+      <c r="K22" s="0">
+        <v>-8.11024336144328E-04</v>
+      </c>
+      <c r="L22" s="0">
+        <v>1.51563081890345E-02</v>
+      </c>
+      <c r="M22" s="0">
+        <v>21.1648419499397</v>
+      </c>
+      <c r="O22" s="0">
+        <v>0</v>
+      </c>
+      <c r="P22" s="0">
+        <v>37.0001159667969</v>
+      </c>
+      <c r="Q22" s="0">
         <v>107.236000061035</v>
-      </c>
-      <c r="D22" s="0">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0">
-        <v>37.0001159667969</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
@@ -786,14 +1161,29 @@
       <c r="B23" s="0">
         <v>120.50700378418</v>
       </c>
-      <c r="C23" s="0">
+      <c r="I23" s="0">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0">
+        <v>-3.37401106953621</v>
+      </c>
+      <c r="K23" s="0">
+        <v>-9.16749064344913E-04</v>
+      </c>
+      <c r="L23" s="0">
+        <v>1.66075769811869E-02</v>
+      </c>
+      <c r="M23" s="0">
+        <v>18.6271946877241</v>
+      </c>
+      <c r="O23" s="0">
+        <v>0</v>
+      </c>
+      <c r="P23" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q23" s="0">
         <v>112.341003417969</v>
-      </c>
-      <c r="D23" s="0">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
@@ -805,14 +1195,29 @@
       <c r="B24" s="0">
         <v>125.616996765137</v>
       </c>
-      <c r="C24" s="0">
+      <c r="I24" s="0">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0">
+        <v>-3.87318283319473</v>
+      </c>
+      <c r="K24" s="0">
+        <v>-9.90102533251047E-04</v>
+      </c>
+      <c r="L24" s="0">
+        <v>1.94476526230574E-02</v>
+      </c>
+      <c r="M24" s="0">
+        <v>16.0815957933664</v>
+      </c>
+      <c r="O24" s="0">
+        <v>0</v>
+      </c>
+      <c r="P24" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q24" s="0">
         <v>117.450996398926</v>
-      </c>
-      <c r="D24" s="0">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
@@ -824,14 +1229,29 @@
       <c r="B25" s="0">
         <v>130.72200012207</v>
       </c>
-      <c r="C25" s="0">
+      <c r="I25" s="0">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0">
+        <v>-4.40198890864849</v>
+      </c>
+      <c r="K25" s="0">
+        <v>-1.09173974487931E-03</v>
+      </c>
+      <c r="L25" s="0">
+        <v>1.73891745507717E-02</v>
+      </c>
+      <c r="M25" s="0">
+        <v>13.5406451299787</v>
+      </c>
+      <c r="O25" s="0">
+        <v>0</v>
+      </c>
+      <c r="P25" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q25" s="0">
         <v>122.555999755859</v>
-      </c>
-      <c r="D25" s="0">
-        <v>0</v>
-      </c>
-      <c r="E25" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
@@ -843,14 +1263,29 @@
       <c r="B26" s="0">
         <v>135.826995849609</v>
       </c>
-      <c r="C26" s="0">
+      <c r="I26" s="0">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0">
+        <v>-4.96684685349464</v>
+      </c>
+      <c r="K26" s="0">
+        <v>-1.14441174082458E-03</v>
+      </c>
+      <c r="L26" s="0">
+        <v>1.11005119979382E-02</v>
+      </c>
+      <c r="M26" s="0">
+        <v>10.9945954754949</v>
+      </c>
+      <c r="O26" s="0">
+        <v>0</v>
+      </c>
+      <c r="P26" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q26" s="0">
         <v>127.660995483398</v>
-      </c>
-      <c r="D26" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="27">
@@ -862,14 +1297,29 @@
       <c r="B27" s="0">
         <v>140.932006835938</v>
       </c>
-      <c r="C27" s="0">
+      <c r="I27" s="0">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0">
+        <v>-5.54403588175774</v>
+      </c>
+      <c r="K27" s="0">
+        <v>-0.001094427308999</v>
+      </c>
+      <c r="L27" s="0">
+        <v>0.013949777930975</v>
+      </c>
+      <c r="M27" s="0">
+        <v>8.4566455334425</v>
+      </c>
+      <c r="O27" s="0">
+        <v>0</v>
+      </c>
+      <c r="P27" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q27" s="0">
         <v>132.766006469727</v>
-      </c>
-      <c r="D27" s="0">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
@@ -881,14 +1331,29 @@
       <c r="B28" s="0">
         <v>146.042007446289</v>
       </c>
-      <c r="C28" s="0">
+      <c r="I28" s="0">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0">
+        <v>-6.09617829322815</v>
+      </c>
+      <c r="K28" s="0">
+        <v>-1.00658554583788E-03</v>
+      </c>
+      <c r="L28" s="0">
+        <v>1.41713470220566E-02</v>
+      </c>
+      <c r="M28" s="0">
+        <v>5.911894608289</v>
+      </c>
+      <c r="O28" s="0">
+        <v>0</v>
+      </c>
+      <c r="P28" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q28" s="0">
         <v>137.876007080078</v>
-      </c>
-      <c r="D28" s="0">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="29">
@@ -900,14 +1365,29 @@
       <c r="B29" s="0">
         <v>151.147003173828</v>
       </c>
-      <c r="C29" s="0">
+      <c r="I29" s="0">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0">
+        <v>-6.56680688261986</v>
+      </c>
+      <c r="K29" s="0">
+        <v>-8.59351886902004E-04</v>
+      </c>
+      <c r="L29" s="0">
+        <v>1.35954841971397E-02</v>
+      </c>
+      <c r="M29" s="0">
+        <v>3.36859398521483</v>
+      </c>
+      <c r="O29" s="0">
+        <v>0</v>
+      </c>
+      <c r="P29" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q29" s="0">
         <v>142.981002807617</v>
-      </c>
-      <c r="D29" s="0">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="30">
@@ -919,14 +1399,29 @@
       <c r="B30" s="0">
         <v>156.251998901367</v>
       </c>
-      <c r="C30" s="0">
+      <c r="I30" s="0">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0">
+        <v>-6.91504627466202</v>
+      </c>
+      <c r="K30" s="0">
+        <v>1.39778794255108E-03</v>
+      </c>
+      <c r="L30" s="0">
+        <v>-2.18536406755447E-02</v>
+      </c>
+      <c r="M30" s="0">
+        <v>0.825444411020726</v>
+      </c>
+      <c r="O30" s="0">
+        <v>0</v>
+      </c>
+      <c r="P30" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q30" s="0">
         <v>148.085998535156</v>
-      </c>
-      <c r="D30" s="0">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="31">
@@ -939,13 +1434,46 @@
         <v>286.401000976563</v>
       </c>
       <c r="C31" s="0">
+        <v>0.622019827365875</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.322916954755783</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.531632661819458</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0.628318548202515</v>
+      </c>
+      <c r="H31" s="0">
+        <v>1.64705383777618</v>
+      </c>
+      <c r="I31" s="0">
+        <v>4.99998950958252</v>
+      </c>
+      <c r="J31" s="0">
+        <v>704.280138015747</v>
+      </c>
+      <c r="K31" s="0">
+        <v>4.42512273788452</v>
+      </c>
+      <c r="L31" s="0">
+        <v>-1.44189866259694E-02</v>
+      </c>
+      <c r="M31" s="0">
+        <v>0.805240124464035</v>
+      </c>
+      <c r="N31" s="0">
+        <v>989.975273609161</v>
+      </c>
+      <c r="P31" s="0">
+        <v>36.9998718261719</v>
+      </c>
+      <c r="Q31" s="0">
         <v>59.9909973144531</v>
-      </c>
-      <c r="D31" s="0">
-        <v>4.99998950958252</v>
-      </c>
-      <c r="E31" s="0">
-        <v>36.9998718261719</v>
       </c>
     </row>
     <row outlineLevel="0" r="32">
@@ -958,13 +1486,46 @@
         <v>334.048004150391</v>
       </c>
       <c r="C32" s="0">
+        <v>0.546902537345886</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.24911268055439</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.486872911453247</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.125892549753189</v>
+      </c>
+      <c r="G32" s="0">
+        <v>0.791006207466125</v>
+      </c>
+      <c r="H32" s="0">
+        <v>1.95468997955322</v>
+      </c>
+      <c r="I32" s="0">
+        <v>5.00011348724365</v>
+      </c>
+      <c r="J32" s="0">
+        <v>742.529439926147</v>
+      </c>
+      <c r="K32" s="0">
+        <v>5.87345409393311</v>
+      </c>
+      <c r="L32" s="0">
+        <v>-1.95001164684072E-04</v>
+      </c>
+      <c r="M32" s="0">
+        <v>0.805195770226419</v>
+      </c>
+      <c r="N32" s="0">
+        <v>691.401064395905</v>
+      </c>
+      <c r="P32" s="0">
+        <v>36.9985900878906</v>
+      </c>
+      <c r="Q32" s="0">
         <v>107.638000488281</v>
-      </c>
-      <c r="D32" s="0">
-        <v>5.00011348724365</v>
-      </c>
-      <c r="E32" s="0">
-        <v>36.9985900878906</v>
       </c>
     </row>
     <row outlineLevel="0" r="33">
@@ -977,13 +1538,46 @@
         <v>371.894989013672</v>
       </c>
       <c r="C33" s="0">
+        <v>0.566056370735168</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.260254144668579</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.502680420875549</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.158489316701889</v>
+      </c>
+      <c r="G33" s="0">
+        <v>0.995817720890045</v>
+      </c>
+      <c r="H33" s="0">
+        <v>1.93156206607819</v>
+      </c>
+      <c r="I33" s="0">
+        <v>5.00009489059448</v>
+      </c>
+      <c r="J33" s="0">
+        <v>683.938789367676</v>
+      </c>
+      <c r="K33" s="0">
+        <v>6.81078386306763</v>
+      </c>
+      <c r="L33" s="0">
+        <v>-1.73916039057076E-03</v>
+      </c>
+      <c r="M33" s="0">
+        <v>0.805179355666041</v>
+      </c>
+      <c r="N33" s="0">
+        <v>568.43376159668</v>
+      </c>
+      <c r="P33" s="0">
+        <v>37.0006652832031</v>
+      </c>
+      <c r="Q33" s="0">
         <v>145.484985351563</v>
-      </c>
-      <c r="D33" s="0">
-        <v>5.00009489059448</v>
-      </c>
-      <c r="E33" s="0">
-        <v>37.0006652832031</v>
       </c>
     </row>
     <row outlineLevel="0" r="34">
@@ -996,13 +1590,46 @@
         <v>401.955993652344</v>
       </c>
       <c r="C34" s="0">
+        <v>0.623981714248657</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.304862350225449</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.544437408447266</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.199526235461235</v>
+      </c>
+      <c r="G34" s="0">
+        <v>1.25366032123566</v>
+      </c>
+      <c r="H34" s="0">
+        <v>1.78588247299194</v>
+      </c>
+      <c r="I34" s="0">
+        <v>4.99992084503174</v>
+      </c>
+      <c r="J34" s="0">
+        <v>595.566606521606</v>
+      </c>
+      <c r="K34" s="0">
+        <v>7.46638202667236</v>
+      </c>
+      <c r="L34" s="0">
+        <v>3.48778115585446E-03</v>
+      </c>
+      <c r="M34" s="0">
+        <v>0.805140763986856</v>
+      </c>
+      <c r="N34" s="0">
+        <v>497.727870941162</v>
+      </c>
+      <c r="P34" s="0">
+        <v>37.0014587402344</v>
+      </c>
+      <c r="Q34" s="0">
         <v>175.545989990234</v>
-      </c>
-      <c r="D34" s="0">
-        <v>4.99992084503174</v>
-      </c>
-      <c r="E34" s="0">
-        <v>37.0014587402344</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
@@ -1015,13 +1642,46 @@
         <v>425.8330078125</v>
       </c>
       <c r="C35" s="0">
+        <v>0.714877605438232</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.379805773496628</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.605638146400452</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.251188635826111</v>
+      </c>
+      <c r="G35" s="0">
+        <v>1.57826471328735</v>
+      </c>
+      <c r="H35" s="0">
+        <v>1.59465253353119</v>
+      </c>
+      <c r="I35" s="0">
+        <v>4.99999666213989</v>
+      </c>
+      <c r="J35" s="0">
+        <v>496.141147613525</v>
+      </c>
+      <c r="K35" s="0">
+        <v>7.83042049407959</v>
+      </c>
+      <c r="L35" s="0">
+        <v>3.74166178517044E-03</v>
+      </c>
+      <c r="M35" s="0">
+        <v>0.805143034085631</v>
+      </c>
+      <c r="N35" s="0">
+        <v>452.951639890671</v>
+      </c>
+      <c r="P35" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q35" s="0">
         <v>199.423004150391</v>
-      </c>
-      <c r="D35" s="0">
-        <v>4.99999666213989</v>
-      </c>
-      <c r="E35" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
@@ -1034,13 +1694,46 @@
         <v>444.795013427734</v>
       </c>
       <c r="C36" s="0">
+        <v>0.835175096988678</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.486975580453873</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.678507328033447</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.31622776389122</v>
+      </c>
+      <c r="G36" s="0">
+        <v>1.98691761493683</v>
+      </c>
+      <c r="H36" s="0">
+        <v>1.39331901073456</v>
+      </c>
+      <c r="I36" s="0">
+        <v>4.99981451034546</v>
+      </c>
+      <c r="J36" s="0">
+        <v>395.066165924072</v>
+      </c>
+      <c r="K36" s="0">
+        <v>7.84963941574097</v>
+      </c>
+      <c r="L36" s="0">
+        <v>2.58953357115388E-03</v>
+      </c>
+      <c r="M36" s="0">
+        <v>0.805143848992884</v>
+      </c>
+      <c r="N36" s="0">
+        <v>420.337051153183</v>
+      </c>
+      <c r="P36" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q36" s="0">
         <v>218.385009765625</v>
-      </c>
-      <c r="D36" s="0">
-        <v>4.99981451034546</v>
-      </c>
-      <c r="E36" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
@@ -1053,13 +1746,46 @@
         <v>459.855987548828</v>
       </c>
       <c r="C37" s="0">
+        <v>0.979711532592773</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.621030867099762</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.7577303647995</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.398107200860977</v>
+      </c>
+      <c r="G37" s="0">
+        <v>2.50138139724731</v>
+      </c>
+      <c r="H37" s="0">
+        <v>1.2201281785965</v>
+      </c>
+      <c r="I37" s="0">
+        <v>4.99996566772461</v>
+      </c>
+      <c r="J37" s="0">
+        <v>295.888328552246</v>
+      </c>
+      <c r="K37" s="0">
+        <v>7.40129566192627</v>
+      </c>
+      <c r="L37" s="0">
+        <v>-4.84587112441659E-03</v>
+      </c>
+      <c r="M37" s="0">
+        <v>0.805143848992884</v>
+      </c>
+      <c r="N37" s="0">
+        <v>391.668170690537</v>
+      </c>
+      <c r="P37" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q37" s="0">
         <v>233.445983886719</v>
-      </c>
-      <c r="D37" s="0">
-        <v>4.99996566772461</v>
-      </c>
-      <c r="E37" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
@@ -1072,13 +1798,46 @@
         <v>491.77099609375</v>
       </c>
       <c r="C38" s="0">
+        <v>1.167072057724</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.805584847927094</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.844446778297424</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0.501187205314636</v>
+      </c>
+      <c r="G38" s="0">
+        <v>3.14905214309692</v>
+      </c>
+      <c r="H38" s="0">
+        <v>1.04823875427246</v>
+      </c>
+      <c r="I38" s="0">
+        <v>4.99974155426025</v>
+      </c>
+      <c r="J38" s="0">
+        <v>207.676076889038</v>
+      </c>
+      <c r="K38" s="0">
+        <v>6.53982782363892</v>
+      </c>
+      <c r="L38" s="0">
+        <v>-4.55442070960999E-03</v>
+      </c>
+      <c r="M38" s="0">
+        <v>0.805143441539258</v>
+      </c>
+      <c r="N38" s="0">
+        <v>370.610594749451</v>
+      </c>
+      <c r="P38" s="0">
+        <v>37.0002990722656</v>
+      </c>
+      <c r="Q38" s="0">
         <v>265.360992431641</v>
-      </c>
-      <c r="D38" s="0">
-        <v>4.99974155426025</v>
-      </c>
-      <c r="E38" s="0">
-        <v>37.0002990722656</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
@@ -1091,13 +1850,46 @@
         <v>517.117004394531</v>
       </c>
       <c r="C39" s="0">
+        <v>1.39123582839966</v>
+      </c>
+      <c r="D39" s="0">
+        <v>1.02939593791962</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.9358851313591</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.630957365036011</v>
+      </c>
+      <c r="G39" s="0">
+        <v>3.96442198753357</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.909161925315857</v>
+      </c>
+      <c r="I39" s="0">
+        <v>4.99998664855957</v>
+      </c>
+      <c r="J39" s="0">
+        <v>137.139368057251</v>
+      </c>
+      <c r="K39" s="0">
+        <v>5.43678331375122</v>
+      </c>
+      <c r="L39" s="0">
+        <v>-5.93170523643494E-03</v>
+      </c>
+      <c r="M39" s="0">
+        <v>0.805098447017372</v>
+      </c>
+      <c r="N39" s="0">
+        <v>350.93030333519</v>
+      </c>
+      <c r="P39" s="0">
+        <v>37.0011840820313</v>
+      </c>
+      <c r="Q39" s="0">
         <v>290.707000732422</v>
-      </c>
-      <c r="D39" s="0">
-        <v>4.99998664855957</v>
-      </c>
-      <c r="E39" s="0">
-        <v>37.0011840820313</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">
@@ -1110,13 +1902,46 @@
         <v>537.25</v>
       </c>
       <c r="C40" s="0">
+        <v>1.64454197883606</v>
+      </c>
+      <c r="D40" s="0">
+        <v>1.28083682060242</v>
+      </c>
+      <c r="E40" s="0">
+        <v>1.0314918756485</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.794328331947327</v>
+      </c>
+      <c r="G40" s="0">
+        <v>4.99091196060181</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.805324792861938</v>
+      </c>
+      <c r="I40" s="0">
+        <v>5.00016117095947</v>
+      </c>
+      <c r="J40" s="0">
+        <v>86.790144443512</v>
+      </c>
+      <c r="K40" s="0">
+        <v>4.33161973953247</v>
+      </c>
+      <c r="L40" s="0">
+        <v>-7.59623711928725E-03</v>
+      </c>
+      <c r="M40" s="0">
+        <v>0.805094605311751</v>
+      </c>
+      <c r="N40" s="0">
+        <v>329.507321119308</v>
+      </c>
+      <c r="P40" s="0">
+        <v>36.9982543945313</v>
+      </c>
+      <c r="Q40" s="0">
         <v>310.839996337891</v>
-      </c>
-      <c r="D40" s="0">
-        <v>5.00016117095947</v>
-      </c>
-      <c r="E40" s="0">
-        <v>36.9982543945313</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
@@ -1129,13 +1954,46 @@
         <v>553.239990234375</v>
       </c>
       <c r="C41" s="0">
+        <v>1.90217709541321</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1.53080451488495</v>
+      </c>
+      <c r="E41" s="0">
+        <v>1.12912154197693</v>
+      </c>
+      <c r="F41" s="0">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0">
+        <v>6.28318548202515</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.73760312795639</v>
+      </c>
+      <c r="I41" s="0">
+        <v>4.99958610534668</v>
+      </c>
+      <c r="J41" s="0">
+        <v>53.6709249019623</v>
+      </c>
+      <c r="K41" s="0">
+        <v>3.37224364280701</v>
+      </c>
+      <c r="L41" s="0">
+        <v>-1.28102244343609E-03</v>
+      </c>
+      <c r="M41" s="0">
+        <v>0.8050951291807</v>
+      </c>
+      <c r="N41" s="0">
+        <v>302.740901708603</v>
+      </c>
+      <c r="P41" s="0">
+        <v>36.99892578125</v>
+      </c>
+      <c r="Q41" s="0">
         <v>326.829986572266</v>
-      </c>
-      <c r="D41" s="0">
-        <v>4.99958610534668</v>
-      </c>
-      <c r="E41" s="0">
-        <v>36.99892578125</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
@@ -1148,13 +2006,46 @@
         <v>565.939025878906</v>
       </c>
       <c r="C42" s="0">
+        <v>2.16044020652771</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1.77593505382538</v>
+      </c>
+      <c r="E42" s="0">
+        <v>1.23026704788208</v>
+      </c>
+      <c r="F42" s="0">
+        <v>1.25892543792725</v>
+      </c>
+      <c r="G42" s="0">
+        <v>7.91006183624268</v>
+      </c>
+      <c r="H42" s="0">
+        <v>0.692744433879852</v>
+      </c>
+      <c r="I42" s="0">
+        <v>4.99937343597412</v>
+      </c>
+      <c r="J42" s="0">
+        <v>32.9993814229965</v>
+      </c>
+      <c r="K42" s="0">
+        <v>2.61027145385742</v>
+      </c>
+      <c r="L42" s="0">
+        <v>-2.41331453435123E-03</v>
+      </c>
+      <c r="M42" s="0">
+        <v>0.805095070973039</v>
+      </c>
+      <c r="N42" s="0">
+        <v>273.12558889389</v>
+      </c>
+      <c r="P42" s="0">
+        <v>37.0018859863281</v>
+      </c>
+      <c r="Q42" s="0">
         <v>339.529022216797</v>
-      </c>
-      <c r="D42" s="0">
-        <v>4.99937343597412</v>
-      </c>
-      <c r="E42" s="0">
-        <v>37.0018859863281</v>
       </c>
     </row>
     <row outlineLevel="0" r="43">
@@ -1167,13 +2058,46 @@
         <v>576.023010253906</v>
       </c>
       <c r="C43" s="0">
+        <v>2.44888806343079</v>
+      </c>
+      <c r="D43" s="0">
+        <v>2.05369806289673</v>
+      </c>
+      <c r="E43" s="0">
+        <v>1.33393311500549</v>
+      </c>
+      <c r="F43" s="0">
+        <v>1.58489334583282</v>
+      </c>
+      <c r="G43" s="0">
+        <v>9.95817852020264</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.649539589881897</v>
+      </c>
+      <c r="I43" s="0">
+        <v>5.00001192092896</v>
+      </c>
+      <c r="J43" s="0">
+        <v>20.3665941953659</v>
+      </c>
+      <c r="K43" s="0">
+        <v>2.02814173698425</v>
+      </c>
+      <c r="L43" s="0">
+        <v>-3.52465850301087E-03</v>
+      </c>
+      <c r="M43" s="0">
+        <v>0.80509454710409</v>
+      </c>
+      <c r="N43" s="0">
+        <v>245.917275547981</v>
+      </c>
+      <c r="P43" s="0">
+        <v>36.9997192382813</v>
+      </c>
+      <c r="Q43" s="0">
         <v>349.613006591797</v>
-      </c>
-      <c r="D43" s="0">
-        <v>5.00001192092896</v>
-      </c>
-      <c r="E43" s="0">
-        <v>36.9997192382813</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
@@ -1186,13 +2110,46 @@
         <v>584.031005859375</v>
       </c>
       <c r="C44" s="0">
+        <v>2.73347568511963</v>
+      </c>
+      <c r="D44" s="0">
+        <v>2.33258008956909</v>
+      </c>
+      <c r="E44" s="0">
+        <v>1.42511713504791</v>
+      </c>
+      <c r="F44" s="0">
+        <v>1.99526262283325</v>
+      </c>
+      <c r="G44" s="0">
+        <v>12.5366048812866</v>
+      </c>
+      <c r="H44" s="0">
+        <v>0.610974609851837</v>
+      </c>
+      <c r="I44" s="0">
+        <v>4.99906778335571</v>
+      </c>
+      <c r="J44" s="0">
+        <v>12.610912322998</v>
+      </c>
+      <c r="K44" s="0">
+        <v>1.58098030090332</v>
+      </c>
+      <c r="L44" s="0">
+        <v>-2.85723200067878E-03</v>
+      </c>
+      <c r="M44" s="0">
+        <v>0.805094779934734</v>
+      </c>
+      <c r="N44" s="0">
+        <v>218.0395424366</v>
+      </c>
+      <c r="P44" s="0">
+        <v>37.0018249511719</v>
+      </c>
+      <c r="Q44" s="0">
         <v>357.621002197266</v>
-      </c>
-      <c r="D44" s="0">
-        <v>4.99906778335571</v>
-      </c>
-      <c r="E44" s="0">
-        <v>37.0018249511719</v>
       </c>
     </row>
     <row outlineLevel="0" r="45">
@@ -1205,13 +2162,46 @@
         <v>590.390991210938</v>
       </c>
       <c r="C45" s="0">
+        <v>3.05363535881042</v>
+      </c>
+      <c r="D45" s="0">
+        <v>2.65992665290833</v>
+      </c>
+      <c r="E45" s="0">
+        <v>1.49982631206512</v>
+      </c>
+      <c r="F45" s="0">
+        <v>2.51188635826111</v>
+      </c>
+      <c r="G45" s="0">
+        <v>15.7826471328735</v>
+      </c>
+      <c r="H45" s="0">
+        <v>0.563945293426514</v>
+      </c>
+      <c r="I45" s="0">
+        <v>4.99874067306519</v>
+      </c>
+      <c r="J45" s="0">
+        <v>7.84748271107674</v>
+      </c>
+      <c r="K45" s="0">
+        <v>1.23854053020477</v>
+      </c>
+      <c r="L45" s="0">
+        <v>-2.40216427482665E-03</v>
+      </c>
+      <c r="M45" s="0">
+        <v>0.80509454710409</v>
+      </c>
+      <c r="N45" s="0">
+        <v>193.480551242828</v>
+      </c>
+      <c r="P45" s="0">
+        <v>37.0008483886719</v>
+      </c>
+      <c r="Q45" s="0">
         <v>363.980987548828</v>
-      </c>
-      <c r="D45" s="0">
-        <v>4.99874067306519</v>
-      </c>
-      <c r="E45" s="0">
-        <v>37.0008483886719</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
@@ -1224,13 +2214,46 @@
         <v>595.440002441406</v>
       </c>
       <c r="C46" s="0">
+        <v>3.49387001991272</v>
+      </c>
+      <c r="D46" s="0">
+        <v>3.13868451118469</v>
+      </c>
+      <c r="E46" s="0">
+        <v>1.5348573923111</v>
+      </c>
+      <c r="F46" s="0">
+        <v>3.16227769851685</v>
+      </c>
+      <c r="G46" s="0">
+        <v>19.869176864624</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.488451540470123</v>
+      </c>
+      <c r="I46" s="0">
+        <v>4.99849605560303</v>
+      </c>
+      <c r="J46" s="0">
+        <v>4.90585565567017</v>
+      </c>
+      <c r="K46" s="0">
+        <v>0.974753141403198</v>
+      </c>
+      <c r="L46" s="0">
+        <v>-1.01485312916338E-03</v>
+      </c>
+      <c r="M46" s="0">
+        <v>0.805094779934734</v>
+      </c>
+      <c r="N46" s="0">
+        <v>175.843730568886</v>
+      </c>
+      <c r="P46" s="0">
+        <v>37.0003295898438</v>
+      </c>
+      <c r="Q46" s="0">
         <v>369.029998779297</v>
-      </c>
-      <c r="D46" s="0">
-        <v>4.99849605560303</v>
-      </c>
-      <c r="E46" s="0">
-        <v>37.0003295898438</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
@@ -1243,13 +2266,46 @@
         <v>599.447998046875</v>
       </c>
       <c r="C47" s="0">
+        <v>4.20551013946533</v>
+      </c>
+      <c r="D47" s="0">
+        <v>3.8157947063446</v>
+      </c>
+      <c r="E47" s="0">
+        <v>1.76805686950684</v>
+      </c>
+      <c r="F47" s="0">
+        <v>3.98107194900513</v>
+      </c>
+      <c r="G47" s="0">
+        <v>25.0138130187988</v>
+      </c>
+      <c r="H47" s="0">
+        <v>0.446658670902252</v>
+      </c>
+      <c r="I47" s="0">
+        <v>4.99806451797485</v>
+      </c>
+      <c r="J47" s="0">
+        <v>3.07522490620613</v>
+      </c>
+      <c r="K47" s="0">
+        <v>0.769231021404266</v>
+      </c>
+      <c r="L47" s="0">
+        <v>-1.05617637746036E-03</v>
+      </c>
+      <c r="M47" s="0">
+        <v>0.805094721727073</v>
+      </c>
+      <c r="N47" s="0">
+        <v>168.127506971359</v>
+      </c>
+      <c r="P47" s="0">
+        <v>37.00185546875</v>
+      </c>
+      <c r="Q47" s="0">
         <v>373.037994384766</v>
-      </c>
-      <c r="D47" s="0">
-        <v>4.99806451797485</v>
-      </c>
-      <c r="E47" s="0">
-        <v>37.00185546875</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
@@ -1262,13 +2318,46 @@
         <v>606.820007324219</v>
       </c>
       <c r="C48" s="0">
+        <v>3.27901434898376</v>
+      </c>
+      <c r="D48" s="0">
+        <v>3.16684317588806</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0.850317537784576</v>
+      </c>
+      <c r="F48" s="0">
+        <v>5.0118727684021</v>
+      </c>
+      <c r="G48" s="0">
+        <v>31.4905261993408</v>
+      </c>
+      <c r="H48" s="0">
+        <v>0.273742139339447</v>
+      </c>
+      <c r="I48" s="0">
+        <v>4.99756383895874</v>
+      </c>
+      <c r="J48" s="0">
+        <v>1.91980674862862</v>
+      </c>
+      <c r="K48" s="0">
+        <v>0.604557275772095</v>
+      </c>
+      <c r="L48" s="0">
+        <v>-1.00456723885145E-04</v>
+      </c>
+      <c r="M48" s="0">
+        <v>0.80509454710409</v>
+      </c>
+      <c r="N48" s="0">
+        <v>104.127012193203</v>
+      </c>
+      <c r="P48" s="0">
+        <v>36.9997802734375</v>
+      </c>
+      <c r="Q48" s="0">
         <v>380.410003662109</v>
-      </c>
-      <c r="D48" s="0">
-        <v>4.99756383895874</v>
-      </c>
-      <c r="E48" s="0">
-        <v>36.9997802734375</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
@@ -1281,13 +2370,46 @@
         <v>612.674011230469</v>
       </c>
       <c r="C49" s="0">
+        <v>4.38538360595703</v>
+      </c>
+      <c r="D49" s="0">
+        <v>4.33816528320313</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0.641803741455078</v>
+      </c>
+      <c r="F49" s="0">
+        <v>6.30957460403442</v>
+      </c>
+      <c r="G49" s="0">
+        <v>39.6442260742188</v>
+      </c>
+      <c r="H49" s="0">
+        <v>9.30808410048485E-02</v>
+      </c>
+      <c r="I49" s="0">
+        <v>4.99689292907715</v>
+      </c>
+      <c r="J49" s="0">
+        <v>1.20942033827305</v>
+      </c>
+      <c r="K49" s="0">
+        <v>0.479465335607529</v>
+      </c>
+      <c r="L49" s="0">
+        <v>-1.08569662552327E-03</v>
+      </c>
+      <c r="M49" s="0">
+        <v>0.805094779934734</v>
+      </c>
+      <c r="N49" s="0">
+        <v>110.618472099304</v>
+      </c>
+      <c r="P49" s="0">
+        <v>37.0009094238281</v>
+      </c>
+      <c r="Q49" s="0">
         <v>386.264007568359</v>
-      </c>
-      <c r="D49" s="0">
-        <v>4.99689292907715</v>
-      </c>
-      <c r="E49" s="0">
-        <v>37.0009094238281</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
@@ -1300,13 +2422,46 @@
         <v>617.322021484375</v>
       </c>
       <c r="C50" s="0">
+        <v>7.68210029602051</v>
+      </c>
+      <c r="D50" s="0">
+        <v>7.11259651184082</v>
+      </c>
+      <c r="E50" s="0">
+        <v>2.90269494056702</v>
+      </c>
+      <c r="F50" s="0">
+        <v>7.94328212738037</v>
+      </c>
+      <c r="G50" s="0">
+        <v>49.9091148376465</v>
+      </c>
+      <c r="H50" s="0">
+        <v>0.216214045882225</v>
+      </c>
+      <c r="I50" s="0">
+        <v>4.99598693847656</v>
+      </c>
+      <c r="J50" s="0">
+        <v>0.763264065608382</v>
+      </c>
+      <c r="K50" s="0">
+        <v>0.380938351154327</v>
+      </c>
+      <c r="L50" s="0">
+        <v>5.69352356251329E-04</v>
+      </c>
+      <c r="M50" s="0">
+        <v>0.805094721727073</v>
+      </c>
+      <c r="N50" s="0">
+        <v>153.921782970428</v>
+      </c>
+      <c r="P50" s="0">
+        <v>37.0009704589844</v>
+      </c>
+      <c r="Q50" s="0">
         <v>390.912017822266</v>
-      </c>
-      <c r="D50" s="0">
-        <v>4.99598693847656</v>
-      </c>
-      <c r="E50" s="0">
-        <v>37.0009704589844</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
@@ -1319,13 +2474,46 @@
         <v>621.012023925781</v>
       </c>
       <c r="C51" s="0">
+        <v>13.8491296768188</v>
+      </c>
+      <c r="D51" s="0">
+        <v>11.2159843444824</v>
+      </c>
+      <c r="E51" s="0">
+        <v>8.12404441833496</v>
+      </c>
+      <c r="F51" s="0">
+        <v>10</v>
+      </c>
+      <c r="G51" s="0">
+        <v>62.8318519592285</v>
+      </c>
+      <c r="H51" s="0">
+        <v>0.345568716526031</v>
+      </c>
+      <c r="I51" s="0">
+        <v>4.99501037597656</v>
+      </c>
+      <c r="J51" s="0">
+        <v>0.481461407616735</v>
+      </c>
+      <c r="K51" s="0">
+        <v>0.302511125802994</v>
+      </c>
+      <c r="L51" s="0">
+        <v>3.45899583771825E-03</v>
+      </c>
+      <c r="M51" s="0">
+        <v>0.805094721727073</v>
+      </c>
+      <c r="N51" s="0">
+        <v>220.415756106377</v>
+      </c>
+      <c r="P51" s="0">
+        <v>37.0009704589844</v>
+      </c>
+      <c r="Q51" s="0">
         <v>394.602020263672</v>
-      </c>
-      <c r="D51" s="0">
-        <v>4.99501037597656</v>
-      </c>
-      <c r="E51" s="0">
-        <v>37.0009704589844</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
@@ -1338,13 +2526,46 @@
         <v>623.940002441406</v>
       </c>
       <c r="C52" s="0">
+        <v>28.5199565887451</v>
+      </c>
+      <c r="D52" s="0">
+        <v>22.1640586853027</v>
+      </c>
+      <c r="E52" s="0">
+        <v>17.9483280181885</v>
+      </c>
+      <c r="F52" s="0">
+        <v>12.5892581939697</v>
+      </c>
+      <c r="G52" s="0">
+        <v>79.1006393432617</v>
+      </c>
+      <c r="H52" s="0">
+        <v>0.607449173927307</v>
+      </c>
+      <c r="I52" s="0">
+        <v>4.99361324310303</v>
+      </c>
+      <c r="J52" s="0">
+        <v>0.304445251822472</v>
+      </c>
+      <c r="K52" s="0">
+        <v>0.24081814289093</v>
+      </c>
+      <c r="L52" s="0">
+        <v>1.78781745489687E-03</v>
+      </c>
+      <c r="M52" s="0">
+        <v>0.805094779934734</v>
+      </c>
+      <c r="N52" s="0">
+        <v>360.552817583084</v>
+      </c>
+      <c r="P52" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q52" s="0">
         <v>397.529998779297</v>
-      </c>
-      <c r="D52" s="0">
-        <v>4.99361324310303</v>
-      </c>
-      <c r="E52" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="53">
@@ -1357,13 +2578,46 @@
         <v>626.265014648438</v>
       </c>
       <c r="C53" s="0">
+        <v>34.2560272216797</v>
+      </c>
+      <c r="D53" s="0">
+        <v>14.9321508407593</v>
+      </c>
+      <c r="E53" s="0">
+        <v>30.8302822113037</v>
+      </c>
+      <c r="F53" s="0">
+        <v>15.8489332199097</v>
+      </c>
+      <c r="G53" s="0">
+        <v>99.581787109375</v>
+      </c>
+      <c r="H53" s="0">
+        <v>1.10590541362762</v>
+      </c>
+      <c r="I53" s="0">
+        <v>4.99193000793457</v>
+      </c>
+      <c r="J53" s="0">
+        <v>0.190531357657164</v>
+      </c>
+      <c r="K53" s="0">
+        <v>0.189734533429146</v>
+      </c>
+      <c r="L53" s="0">
+        <v>9.70254259300418E-05</v>
+      </c>
+      <c r="M53" s="0">
+        <v>0.805094896350056</v>
+      </c>
+      <c r="N53" s="0">
+        <v>343.998938798904</v>
+      </c>
+      <c r="P53" s="0">
+        <v>36.9981323242188</v>
+      </c>
+      <c r="Q53" s="0">
         <v>399.855010986328</v>
-      </c>
-      <c r="D53" s="0">
-        <v>4.99193000793457</v>
-      </c>
-      <c r="E53" s="0">
-        <v>36.9981323242188</v>
       </c>
     </row>
     <row outlineLevel="0" r="54">
@@ -1376,13 +2630,46 @@
         <v>628.109008789063</v>
       </c>
       <c r="C54" s="0">
+        <v>76.7224731445313</v>
+      </c>
+      <c r="D54" s="0">
+        <v>56.3327445983887</v>
+      </c>
+      <c r="E54" s="0">
+        <v>52.0860786437988</v>
+      </c>
+      <c r="F54" s="0">
+        <v>19.9526214599609</v>
+      </c>
+      <c r="G54" s="0">
+        <v>125.366020202637</v>
+      </c>
+      <c r="H54" s="0">
+        <v>0.896416068077087</v>
+      </c>
+      <c r="I54" s="0">
+        <v>4.98980093002319</v>
+      </c>
+      <c r="J54" s="0">
+        <v>0.121087010484189</v>
+      </c>
+      <c r="K54" s="0">
+        <v>0.151801958680153</v>
+      </c>
+      <c r="L54" s="0">
+        <v>-5.27329335454851E-04</v>
+      </c>
+      <c r="M54" s="0">
+        <v>0.80509576946497</v>
+      </c>
+      <c r="N54" s="0">
+        <v>611.987769603729</v>
+      </c>
+      <c r="P54" s="0">
+        <v>36.9993530273438</v>
+      </c>
+      <c r="Q54" s="0">
         <v>401.699005126953</v>
-      </c>
-      <c r="D54" s="0">
-        <v>4.98980093002319</v>
-      </c>
-      <c r="E54" s="0">
-        <v>36.9993530273438</v>
       </c>
     </row>
     <row outlineLevel="0" r="55">
@@ -1395,13 +2682,46 @@
         <v>630.885009765625</v>
       </c>
       <c r="C55" s="0">
+        <v>19.8344230651855</v>
+      </c>
+      <c r="D55" s="0">
+        <v>19.7335319519043</v>
+      </c>
+      <c r="E55" s="0">
+        <v>1.99801874160767</v>
+      </c>
+      <c r="F55" s="0">
+        <v>25.1188697814941</v>
+      </c>
+      <c r="G55" s="0">
+        <v>157.826507568359</v>
+      </c>
+      <c r="H55" s="0">
+        <v>0.789995551109314</v>
+      </c>
+      <c r="I55" s="0">
+        <v>4.98705387115479</v>
+      </c>
+      <c r="J55" s="0">
+        <v>7.54745968151838E-02</v>
+      </c>
+      <c r="K55" s="0">
+        <v>0.119118921458721</v>
+      </c>
+      <c r="L55" s="0">
+        <v>-4.65182820335031E-05</v>
+      </c>
+      <c r="M55" s="0">
+        <v>0.805095012765378</v>
+      </c>
+      <c r="N55" s="0">
+        <v>125.672325491905</v>
+      </c>
+      <c r="P55" s="0">
+        <v>36.9994750976563</v>
+      </c>
+      <c r="Q55" s="0">
         <v>404.475006103516</v>
-      </c>
-      <c r="D55" s="0">
-        <v>4.98705387115479</v>
-      </c>
-      <c r="E55" s="0">
-        <v>36.9994750976563</v>
       </c>
     </row>
     <row outlineLevel="0" r="56">
@@ -1414,13 +2734,46 @@
         <v>633.088989257813</v>
       </c>
       <c r="C56" s="0">
+        <v>65.0092849731445</v>
+      </c>
+      <c r="D56" s="0">
+        <v>4.06317710876465</v>
+      </c>
+      <c r="E56" s="0">
+        <v>64.8821868896484</v>
+      </c>
+      <c r="F56" s="0">
+        <v>31.6227760314941</v>
+      </c>
+      <c r="G56" s="0">
+        <v>198.691757202148</v>
+      </c>
+      <c r="H56" s="0">
+        <v>25.5446338653564</v>
+      </c>
+      <c r="I56" s="0">
+        <v>4.98358106613159</v>
+      </c>
+      <c r="J56" s="0">
+        <v>4.68894257210195E-02</v>
+      </c>
+      <c r="K56" s="0">
+        <v>9.31654274463654E-02</v>
+      </c>
+      <c r="L56" s="0">
+        <v>-4.76775894640014E-04</v>
+      </c>
+      <c r="M56" s="0">
+        <v>0.805094896350056</v>
+      </c>
+      <c r="N56" s="0">
+        <v>327.186644077301</v>
+      </c>
+      <c r="P56" s="0">
+        <v>36.9995056152344</v>
+      </c>
+      <c r="Q56" s="0">
         <v>406.678985595703</v>
-      </c>
-      <c r="D56" s="0">
-        <v>4.98358106613159</v>
-      </c>
-      <c r="E56" s="0">
-        <v>36.9995056152344</v>
       </c>
     </row>
     <row outlineLevel="0" r="57">
@@ -1433,13 +2786,46 @@
         <v>634.836975097656</v>
       </c>
       <c r="C57" s="0">
+        <v>786.942504882813</v>
+      </c>
+      <c r="D57" s="0">
+        <v>301.685211181641</v>
+      </c>
+      <c r="E57" s="0">
+        <v>726.818115234375</v>
+      </c>
+      <c r="F57" s="0">
+        <v>39.8107299804688</v>
+      </c>
+      <c r="G57" s="0">
+        <v>250.138198852539</v>
+      </c>
+      <c r="H57" s="0">
+        <v>1.34021019935608</v>
+      </c>
+      <c r="I57" s="0">
+        <v>4.97900438308716</v>
+      </c>
+      <c r="J57" s="0">
+        <v>3.04410379612818E-02</v>
+      </c>
+      <c r="K57" s="0">
+        <v>0.07614466547966</v>
+      </c>
+      <c r="L57" s="0">
+        <v>2.71259853616357E-03</v>
+      </c>
+      <c r="M57" s="0">
+        <v>0.805095303803682</v>
+      </c>
+      <c r="N57" s="0">
+        <v>3146.03090286255</v>
+      </c>
+      <c r="P57" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q57" s="0">
         <v>408.426971435547</v>
-      </c>
-      <c r="D57" s="0">
-        <v>4.97900438308716</v>
-      </c>
-      <c r="E57" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="58">
@@ -1452,13 +2838,46 @@
         <v>636.223022460938</v>
       </c>
       <c r="C58" s="0">
+        <v>2983.52954101563</v>
+      </c>
+      <c r="D58" s="0">
+        <v>1027.9912109375</v>
+      </c>
+      <c r="E58" s="0">
+        <v>2800.83618164063</v>
+      </c>
+      <c r="F58" s="0">
+        <v>50.1187286376953</v>
+      </c>
+      <c r="G58" s="0">
+        <v>314.9052734375</v>
+      </c>
+      <c r="H58" s="0">
+        <v>2.88100266456604</v>
+      </c>
+      <c r="I58" s="0">
+        <v>4.97308683395386</v>
+      </c>
+      <c r="J58" s="0">
+        <v>1.95193366380408E-02</v>
+      </c>
+      <c r="K58" s="0">
+        <v>0.061467420309782</v>
+      </c>
+      <c r="L58" s="0">
+        <v>3.4143861848861E-03</v>
+      </c>
+      <c r="M58" s="0">
+        <v>0.805094896350056</v>
+      </c>
+      <c r="N58" s="0">
+        <v>9474.37191009521</v>
+      </c>
+      <c r="P58" s="0">
+        <v>36.9990478515625</v>
+      </c>
+      <c r="Q58" s="0">
         <v>409.813018798828</v>
-      </c>
-      <c r="D58" s="0">
-        <v>4.97308683395386</v>
-      </c>
-      <c r="E58" s="0">
-        <v>36.9990478515625</v>
       </c>
     </row>
     <row outlineLevel="0" r="59">
@@ -1471,13 +2890,46 @@
         <v>637.320983886719</v>
       </c>
       <c r="C59" s="0">
+        <v>11875.53125</v>
+      </c>
+      <c r="D59" s="0">
+        <v>7593.3525390625</v>
+      </c>
+      <c r="E59" s="0">
+        <v>9130.67578125</v>
+      </c>
+      <c r="F59" s="0">
+        <v>63.0957260131836</v>
+      </c>
+      <c r="G59" s="0">
+        <v>396.442138671875</v>
+      </c>
+      <c r="H59" s="0">
+        <v>1.19231510162354</v>
+      </c>
+      <c r="I59" s="0">
+        <v>4.96582555770874</v>
+      </c>
+      <c r="J59" s="0">
+        <v>1.39835887239315E-02</v>
+      </c>
+      <c r="K59" s="0">
+        <v>5.54368384182453E-02</v>
+      </c>
+      <c r="L59" s="0">
+        <v>1.20790756773204E-03</v>
+      </c>
+      <c r="M59" s="0">
+        <v>0.805095594841987</v>
+      </c>
+      <c r="N59" s="0">
+        <v>29955.2707672119</v>
+      </c>
+      <c r="P59" s="0">
+        <v>36.9985290527344</v>
+      </c>
+      <c r="Q59" s="0">
         <v>410.910980224609</v>
-      </c>
-      <c r="D59" s="0">
-        <v>4.96582555770874</v>
-      </c>
-      <c r="E59" s="0">
-        <v>36.9985290527344</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
@@ -1490,13 +2942,46 @@
         <v>638.190979003906</v>
       </c>
       <c r="C60" s="0">
+        <v>38977.3359375</v>
+      </c>
+      <c r="D60" s="0">
+        <v>33134.640625</v>
+      </c>
+      <c r="E60" s="0">
+        <v>20526.28515625</v>
+      </c>
+      <c r="F60" s="0">
+        <v>79.4328384399414</v>
+      </c>
+      <c r="G60" s="0">
+        <v>499.091247558594</v>
+      </c>
+      <c r="H60" s="0">
+        <v>0.633799016475677</v>
+      </c>
+      <c r="I60" s="0">
+        <v>4.95589399337769</v>
+      </c>
+      <c r="J60" s="0">
+        <v>1.26569662825204E-02</v>
+      </c>
+      <c r="K60" s="0">
+        <v>0.063169814646244</v>
+      </c>
+      <c r="L60" s="0">
+        <v>1.24427687842399E-03</v>
+      </c>
+      <c r="M60" s="0">
+        <v>0.805095944087952</v>
+      </c>
+      <c r="N60" s="0">
+        <v>78096.6186523438</v>
+      </c>
+      <c r="P60" s="0">
+        <v>36.9986206054688</v>
+      </c>
+      <c r="Q60" s="0">
         <v>411.780975341797</v>
-      </c>
-      <c r="D60" s="0">
-        <v>4.95589399337769</v>
-      </c>
-      <c r="E60" s="0">
-        <v>36.9986206054688</v>
       </c>
     </row>
     <row outlineLevel="0" r="61">
@@ -1509,13 +2994,46 @@
         <v>638.880981445313</v>
       </c>
       <c r="C61" s="0">
+        <v>82379.4765625</v>
+      </c>
+      <c r="D61" s="0">
+        <v>78775.2734375</v>
+      </c>
+      <c r="E61" s="0">
+        <v>24100.494140625</v>
+      </c>
+      <c r="F61" s="0">
+        <v>100</v>
+      </c>
+      <c r="G61" s="0">
+        <v>628.318542480469</v>
+      </c>
+      <c r="H61" s="0">
+        <v>0.306485593318939</v>
+      </c>
+      <c r="I61" s="0">
+        <v>4.94437408447266</v>
+      </c>
+      <c r="J61" s="0">
+        <v>1.30010754219256E-02</v>
+      </c>
+      <c r="K61" s="0">
+        <v>8.16881656646729E-02</v>
+      </c>
+      <c r="L61" s="0">
+        <v>3.15279606729746E-03</v>
+      </c>
+      <c r="M61" s="0">
+        <v>0.805096176918596</v>
+      </c>
+      <c r="N61" s="0">
+        <v>131111.00769043</v>
+      </c>
+      <c r="P61" s="0">
+        <v>36.9992309570313</v>
+      </c>
+      <c r="Q61" s="0">
         <v>412.470977783203</v>
-      </c>
-      <c r="D61" s="0">
-        <v>4.94437408447266</v>
-      </c>
-      <c r="E61" s="0">
-        <v>36.9992309570313</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
@@ -1527,14 +3045,29 @@
       <c r="B62" s="0">
         <v>644.127990722656</v>
       </c>
-      <c r="C62" s="0">
+      <c r="I62" s="0">
+        <v>10.5374326705933</v>
+      </c>
+      <c r="J62" s="0">
+        <v>50633.7310791016</v>
+      </c>
+      <c r="K62" s="0">
+        <v>300.002593994141</v>
+      </c>
+      <c r="L62" s="0">
+        <v>-1.80234992876649E-03</v>
+      </c>
+      <c r="M62" s="0">
+        <v>0.805095362011343</v>
+      </c>
+      <c r="O62" s="0">
+        <v>35.1244732737541</v>
+      </c>
+      <c r="P62" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q62" s="0">
         <v>2.0050048828125</v>
-      </c>
-      <c r="D62" s="0">
-        <v>10.5374326705933</v>
-      </c>
-      <c r="E62" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="63">
@@ -1546,14 +3079,29 @@
       <c r="B63" s="0">
         <v>646.127990722656</v>
       </c>
-      <c r="C63" s="0">
+      <c r="I63" s="0">
+        <v>9.71248054504395</v>
+      </c>
+      <c r="J63" s="0">
+        <v>110663.891601563</v>
+      </c>
+      <c r="K63" s="0">
+        <v>299.998474121094</v>
+      </c>
+      <c r="L63" s="0">
+        <v>-3.93055519089103E-03</v>
+      </c>
+      <c r="M63" s="0">
+        <v>0.805095536634326</v>
+      </c>
+      <c r="O63" s="0">
+        <v>32.3751010000706</v>
+      </c>
+      <c r="P63" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q63" s="0">
         <v>4.0050048828125</v>
-      </c>
-      <c r="D63" s="0">
-        <v>9.71248054504395</v>
-      </c>
-      <c r="E63" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="64">
@@ -1565,14 +3113,29 @@
       <c r="B64" s="0">
         <v>648.127990722656</v>
       </c>
-      <c r="C64" s="0">
+      <c r="I64" s="0">
+        <v>9.38816070556641</v>
+      </c>
+      <c r="J64" s="0">
+        <v>170694.702148438</v>
+      </c>
+      <c r="K64" s="0">
+        <v>300.003051757813</v>
+      </c>
+      <c r="L64" s="0">
+        <v>-7.6193530112505E-03</v>
+      </c>
+      <c r="M64" s="0">
+        <v>0.805095070973039</v>
+      </c>
+      <c r="O64" s="0">
+        <v>31.2935523688793</v>
+      </c>
+      <c r="P64" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q64" s="0">
         <v>6.0050048828125</v>
-      </c>
-      <c r="D64" s="0">
-        <v>9.38816070556641</v>
-      </c>
-      <c r="E64" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="65">
@@ -1584,14 +3147,29 @@
       <c r="B65" s="0">
         <v>650.127990722656</v>
       </c>
-      <c r="C65" s="0">
+      <c r="I65" s="0">
+        <v>9.35786437988281</v>
+      </c>
+      <c r="J65" s="0">
+        <v>230730.37109375</v>
+      </c>
+      <c r="K65" s="0">
+        <v>299.998870849609</v>
+      </c>
+      <c r="L65" s="0">
+        <v>-4.77070920169353E-03</v>
+      </c>
+      <c r="M65" s="0">
+        <v>0.805094779934734</v>
+      </c>
+      <c r="O65" s="0">
+        <v>31.1929993331432</v>
+      </c>
+      <c r="P65" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q65" s="0">
         <v>8.0050048828125</v>
-      </c>
-      <c r="D65" s="0">
-        <v>9.35786437988281</v>
-      </c>
-      <c r="E65" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
@@ -1603,14 +3181,29 @@
       <c r="B66" s="0">
         <v>652.127990722656</v>
       </c>
-      <c r="C66" s="0">
+      <c r="I66" s="0">
+        <v>9.23792457580566</v>
+      </c>
+      <c r="J66" s="0">
+        <v>290760.034179688</v>
+      </c>
+      <c r="K66" s="0">
+        <v>299.998626708984</v>
+      </c>
+      <c r="L66" s="0">
+        <v>-9.69521142542362E-03</v>
+      </c>
+      <c r="M66" s="0">
+        <v>0.805096351541579</v>
+      </c>
+      <c r="O66" s="0">
+        <v>30.7932235300541</v>
+      </c>
+      <c r="P66" s="0">
+        <v>36.9999328613281</v>
+      </c>
+      <c r="Q66" s="0">
         <v>10.0050048828125</v>
-      </c>
-      <c r="D66" s="0">
-        <v>9.23792457580566</v>
-      </c>
-      <c r="E66" s="0">
-        <v>36.9999328613281</v>
       </c>
     </row>
     <row outlineLevel="0" r="67">
@@ -1622,14 +3215,29 @@
       <c r="B67" s="0">
         <v>654.127990722656</v>
       </c>
-      <c r="C67" s="0">
+      <c r="I67" s="0">
+        <v>9.10056781768799</v>
+      </c>
+      <c r="J67" s="0">
+        <v>350790.380859375</v>
+      </c>
+      <c r="K67" s="0">
+        <v>299.999420166016</v>
+      </c>
+      <c r="L67" s="0">
+        <v>-1.37671818956733E-02</v>
+      </c>
+      <c r="M67" s="0">
+        <v>0.805095536634326</v>
+      </c>
+      <c r="O67" s="0">
+        <v>30.3352847695351</v>
+      </c>
+      <c r="P67" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q67" s="0">
         <v>12.0050048828125</v>
-      </c>
-      <c r="D67" s="0">
-        <v>9.10056781768799</v>
-      </c>
-      <c r="E67" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
@@ -1641,14 +3249,29 @@
       <c r="B68" s="0">
         <v>656.127990722656</v>
       </c>
-      <c r="C68" s="0">
+      <c r="I68" s="0">
+        <v>8.99337959289551</v>
+      </c>
+      <c r="J68" s="0">
+        <v>410820.703125</v>
+      </c>
+      <c r="K68" s="0">
+        <v>300.000122070313</v>
+      </c>
+      <c r="L68" s="0">
+        <v>-1.03561822324991E-02</v>
+      </c>
+      <c r="M68" s="0">
+        <v>0.805095187388361</v>
+      </c>
+      <c r="O68" s="0">
+        <v>29.9779195338488</v>
+      </c>
+      <c r="P68" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q68" s="0">
         <v>14.0050048828125</v>
-      </c>
-      <c r="D68" s="0">
-        <v>8.99337959289551</v>
-      </c>
-      <c r="E68" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="69">
@@ -1660,14 +3283,29 @@
       <c r="B69" s="0">
         <v>658.127990722656</v>
       </c>
-      <c r="C69" s="0">
+      <c r="I69" s="0">
+        <v>8.93958759307861</v>
+      </c>
+      <c r="J69" s="0">
+        <v>470850.439453125</v>
+      </c>
+      <c r="K69" s="0">
+        <v>300.000793457031</v>
+      </c>
+      <c r="L69" s="0">
+        <v>-1.21676502749324E-02</v>
+      </c>
+      <c r="M69" s="0">
+        <v>0.80509576946497</v>
+      </c>
+      <c r="O69" s="0">
+        <v>29.7985468059778</v>
+      </c>
+      <c r="P69" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q69" s="0">
         <v>16.0050048828125</v>
-      </c>
-      <c r="D69" s="0">
-        <v>8.93958759307861</v>
-      </c>
-      <c r="E69" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
@@ -1679,14 +3317,29 @@
       <c r="B70" s="0">
         <v>660.127990722656</v>
       </c>
-      <c r="C70" s="0">
+      <c r="I70" s="0">
+        <v>8.82910251617432</v>
+      </c>
+      <c r="J70" s="0">
+        <v>530881.0546875</v>
+      </c>
+      <c r="K70" s="0">
+        <v>299.999206542969</v>
+      </c>
+      <c r="L70" s="0">
+        <v>-1.11017283052206E-02</v>
+      </c>
+      <c r="M70" s="0">
+        <v>0.805095012765378</v>
+      </c>
+      <c r="O70" s="0">
+        <v>29.4304192066193</v>
+      </c>
+      <c r="P70" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q70" s="0">
         <v>18.0050048828125</v>
-      </c>
-      <c r="D70" s="0">
-        <v>8.82910251617432</v>
-      </c>
-      <c r="E70" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="71">
@@ -1698,14 +3351,29 @@
       <c r="B71" s="0">
         <v>662.127990722656</v>
       </c>
-      <c r="C71" s="0">
+      <c r="I71" s="0">
+        <v>8.87453746795654</v>
+      </c>
+      <c r="J71" s="0">
+        <v>590948.583984375</v>
+      </c>
+      <c r="K71" s="0">
+        <v>300.018981933594</v>
+      </c>
+      <c r="L71" s="0">
+        <v>-1.05464216321707E-02</v>
+      </c>
+      <c r="M71" s="0">
+        <v>0.805044139269739</v>
+      </c>
+      <c r="O71" s="0">
+        <v>29.579920694232</v>
+      </c>
+      <c r="P71" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q71" s="0">
         <v>20.0050048828125</v>
-      </c>
-      <c r="D71" s="0">
-        <v>8.87453746795654</v>
-      </c>
-      <c r="E71" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
@@ -1717,14 +3385,29 @@
       <c r="B72" s="0">
         <v>664.127990722656</v>
       </c>
-      <c r="C72" s="0">
+      <c r="I72" s="0">
+        <v>8.80074691772461</v>
+      </c>
+      <c r="J72" s="0">
+        <v>650982.373046875</v>
+      </c>
+      <c r="K72" s="0">
+        <v>300.020324707031</v>
+      </c>
+      <c r="L72" s="0">
+        <v>-1.19639355689287E-02</v>
+      </c>
+      <c r="M72" s="0">
+        <v>0.805044255685061</v>
+      </c>
+      <c r="O72" s="0">
+        <v>29.3338354676962</v>
+      </c>
+      <c r="P72" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q72" s="0">
         <v>22.0050048828125</v>
-      </c>
-      <c r="D72" s="0">
-        <v>8.80074691772461</v>
-      </c>
-      <c r="E72" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="73">
@@ -1736,14 +3419,29 @@
       <c r="B73" s="0">
         <v>666.127990722656</v>
       </c>
-      <c r="C73" s="0">
+      <c r="I73" s="0">
+        <v>8.76228046417236</v>
+      </c>
+      <c r="J73" s="0">
+        <v>711016.30859375</v>
+      </c>
+      <c r="K73" s="0">
+        <v>300.017395019531</v>
+      </c>
+      <c r="L73" s="0">
+        <v>-9.53697226941586E-03</v>
+      </c>
+      <c r="M73" s="0">
+        <v>0.8050441974774</v>
+      </c>
+      <c r="O73" s="0">
+        <v>29.205908998847</v>
+      </c>
+      <c r="P73" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q73" s="0">
         <v>24.0050048828125</v>
-      </c>
-      <c r="D73" s="0">
-        <v>8.76228046417236</v>
-      </c>
-      <c r="E73" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
@@ -1755,14 +3453,29 @@
       <c r="B74" s="0">
         <v>668.127990722656</v>
       </c>
-      <c r="C74" s="0">
+      <c r="I74" s="0">
+        <v>8.78472805023193</v>
+      </c>
+      <c r="J74" s="0">
+        <v>771051.46484375</v>
+      </c>
+      <c r="K74" s="0">
+        <v>300.020599365234</v>
+      </c>
+      <c r="L74" s="0">
+        <v>-7.41209136322141E-03</v>
+      </c>
+      <c r="M74" s="0">
+        <v>0.805042858701199</v>
+      </c>
+      <c r="O74" s="0">
+        <v>29.2804166674614</v>
+      </c>
+      <c r="P74" s="0">
+        <v>37.0000854492188</v>
+      </c>
+      <c r="Q74" s="0">
         <v>26.0050048828125</v>
-      </c>
-      <c r="D74" s="0">
-        <v>8.78472805023193</v>
-      </c>
-      <c r="E74" s="0">
-        <v>37.0000854492188</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
@@ -1774,14 +3487,29 @@
       <c r="B75" s="0">
         <v>670.127990722656</v>
       </c>
-      <c r="C75" s="0">
+      <c r="I75" s="0">
+        <v>8.72273349761963</v>
+      </c>
+      <c r="J75" s="0">
+        <v>831084.86328125</v>
+      </c>
+      <c r="K75" s="0">
+        <v>300.022827148438</v>
+      </c>
+      <c r="L75" s="0">
+        <v>-4.43665310740471E-03</v>
+      </c>
+      <c r="M75" s="0">
+        <v>0.80504355719313</v>
+      </c>
+      <c r="O75" s="0">
+        <v>29.073566198349</v>
+      </c>
+      <c r="P75" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q75" s="0">
         <v>28.0050048828125</v>
-      </c>
-      <c r="D75" s="0">
-        <v>8.72273349761963</v>
-      </c>
-      <c r="E75" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="76">
@@ -1793,14 +3521,29 @@
       <c r="B76" s="0">
         <v>672.127990722656</v>
       </c>
-      <c r="C76" s="0">
+      <c r="I76" s="0">
+        <v>8.65010643005371</v>
+      </c>
+      <c r="J76" s="0">
+        <v>891119.43359375</v>
+      </c>
+      <c r="K76" s="0">
+        <v>300.020477294922</v>
+      </c>
+      <c r="L76" s="0">
+        <v>-3.76571784727275E-03</v>
+      </c>
+      <c r="M76" s="0">
+        <v>0.805042975116521</v>
+      </c>
+      <c r="O76" s="0">
+        <v>28.8317203521729</v>
+      </c>
+      <c r="P76" s="0">
+        <v>37.0000854492188</v>
+      </c>
+      <c r="Q76" s="0">
         <v>30.0050048828125</v>
-      </c>
-      <c r="D76" s="0">
-        <v>8.65010643005371</v>
-      </c>
-      <c r="E76" s="0">
-        <v>37.0000854492188</v>
       </c>
     </row>
     <row outlineLevel="0" r="77">
@@ -1812,14 +3555,29 @@
       <c r="B77" s="0">
         <v>674.127990722656</v>
       </c>
-      <c r="C77" s="0">
+      <c r="I77" s="0">
+        <v>8.66896057128906</v>
+      </c>
+      <c r="J77" s="0">
+        <v>951152.05078125</v>
+      </c>
+      <c r="K77" s="0">
+        <v>300.019561767578</v>
+      </c>
+      <c r="L77" s="0">
+        <v>-4.77838749065995E-03</v>
+      </c>
+      <c r="M77" s="0">
+        <v>0.805044255685061</v>
+      </c>
+      <c r="O77" s="0">
+        <v>28.8946516811848</v>
+      </c>
+      <c r="P77" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q77" s="0">
         <v>32.0050048828125</v>
-      </c>
-      <c r="D77" s="0">
-        <v>8.66896057128906</v>
-      </c>
-      <c r="E77" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="78">
@@ -1831,14 +3589,29 @@
       <c r="B78" s="0">
         <v>676.127990722656</v>
       </c>
-      <c r="C78" s="0">
+      <c r="I78" s="0">
+        <v>8.59045028686523</v>
+      </c>
+      <c r="J78" s="0">
+        <v>1011183.30078125</v>
+      </c>
+      <c r="K78" s="0">
+        <v>300.017303466797</v>
+      </c>
+      <c r="L78" s="0">
+        <v>6.27644010819495E-04</v>
+      </c>
+      <c r="M78" s="0">
+        <v>0.805046292953193</v>
+      </c>
+      <c r="O78" s="0">
+        <v>28.6331828683615</v>
+      </c>
+      <c r="P78" s="0">
+        <v>36.9999328613281</v>
+      </c>
+      <c r="Q78" s="0">
         <v>34.0050048828125</v>
-      </c>
-      <c r="D78" s="0">
-        <v>8.59045028686523</v>
-      </c>
-      <c r="E78" s="0">
-        <v>36.9999328613281</v>
       </c>
     </row>
     <row outlineLevel="0" r="79">
@@ -1850,14 +3623,29 @@
       <c r="B79" s="0">
         <v>678.127990722656</v>
       </c>
-      <c r="C79" s="0">
+      <c r="I79" s="0">
+        <v>8.65278148651123</v>
+      </c>
+      <c r="J79" s="0">
+        <v>1071215.33203125</v>
+      </c>
+      <c r="K79" s="0">
+        <v>300.019317626953</v>
+      </c>
+      <c r="L79" s="0">
+        <v>-1.40771735459566E-03</v>
+      </c>
+      <c r="M79" s="0">
+        <v>0.805047631729394</v>
+      </c>
+      <c r="O79" s="0">
+        <v>28.8407485932112</v>
+      </c>
+      <c r="P79" s="0">
+        <v>36.9998718261719</v>
+      </c>
+      <c r="Q79" s="0">
         <v>36.0050048828125</v>
-      </c>
-      <c r="D79" s="0">
-        <v>8.65278148651123</v>
-      </c>
-      <c r="E79" s="0">
-        <v>36.9998718261719</v>
       </c>
     </row>
     <row outlineLevel="0" r="80">
@@ -1869,14 +3657,29 @@
       <c r="B80" s="0">
         <v>680.127990722656</v>
       </c>
-      <c r="C80" s="0">
+      <c r="I80" s="0">
+        <v>8.56779003143311</v>
+      </c>
+      <c r="J80" s="0">
+        <v>1131256.25</v>
+      </c>
+      <c r="K80" s="0">
+        <v>300.019653320313</v>
+      </c>
+      <c r="L80" s="0">
+        <v>-7.62943527661264E-04</v>
+      </c>
+      <c r="M80" s="0">
+        <v>0.805046351160854</v>
+      </c>
+      <c r="O80" s="0">
+        <v>28.5574290901423</v>
+      </c>
+      <c r="P80" s="0">
+        <v>36.9999328613281</v>
+      </c>
+      <c r="Q80" s="0">
         <v>38.0050048828125</v>
-      </c>
-      <c r="D80" s="0">
-        <v>8.56779003143311</v>
-      </c>
-      <c r="E80" s="0">
-        <v>36.9999328613281</v>
       </c>
     </row>
     <row outlineLevel="0" r="81">
@@ -1888,14 +3691,29 @@
       <c r="B81" s="0">
         <v>682.127990722656</v>
       </c>
-      <c r="C81" s="0">
+      <c r="I81" s="0">
+        <v>8.6465015411377</v>
+      </c>
+      <c r="J81" s="0">
+        <v>1191217.1875</v>
+      </c>
+      <c r="K81" s="0">
+        <v>299.999237060547</v>
+      </c>
+      <c r="L81" s="0">
+        <v>-3.27666173689067E-03</v>
+      </c>
+      <c r="M81" s="0">
+        <v>0.805095827672631</v>
+      </c>
+      <c r="O81" s="0">
+        <v>28.8217458873987</v>
+      </c>
+      <c r="P81" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q81" s="0">
         <v>40.0050048828125</v>
-      </c>
-      <c r="D81" s="0">
-        <v>8.6465015411377</v>
-      </c>
-      <c r="E81" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="82">
@@ -1907,14 +3725,29 @@
       <c r="B82" s="0">
         <v>684.127990722656</v>
       </c>
-      <c r="C82" s="0">
+      <c r="I82" s="0">
+        <v>8.53222560882568</v>
+      </c>
+      <c r="J82" s="0">
+        <v>1251247.65625</v>
+      </c>
+      <c r="K82" s="0">
+        <v>300.000549316406</v>
+      </c>
+      <c r="L82" s="0">
+        <v>-9.22326371073723E-03</v>
+      </c>
+      <c r="M82" s="0">
+        <v>0.805095594841987</v>
+      </c>
+      <c r="O82" s="0">
+        <v>28.4407008439302</v>
+      </c>
+      <c r="P82" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q82" s="0">
         <v>42.0050048828125</v>
-      </c>
-      <c r="D82" s="0">
-        <v>8.53222560882568</v>
-      </c>
-      <c r="E82" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
@@ -1926,14 +3759,29 @@
       <c r="B83" s="0">
         <v>686.127990722656</v>
       </c>
-      <c r="C83" s="0">
+      <c r="I83" s="0">
+        <v>8.50890731811523</v>
+      </c>
+      <c r="J83" s="0">
+        <v>1311276.953125</v>
+      </c>
+      <c r="K83" s="0">
+        <v>299.999908447266</v>
+      </c>
+      <c r="L83" s="0">
+        <v>-5.35930041223764E-03</v>
+      </c>
+      <c r="M83" s="0">
+        <v>0.805096118710935</v>
+      </c>
+      <c r="O83" s="0">
+        <v>28.3630322664976</v>
+      </c>
+      <c r="P83" s="0">
+        <v>36.9999328613281</v>
+      </c>
+      <c r="Q83" s="0">
         <v>44.0050048828125</v>
-      </c>
-      <c r="D83" s="0">
-        <v>8.50890731811523</v>
-      </c>
-      <c r="E83" s="0">
-        <v>36.9999328613281</v>
       </c>
     </row>
     <row outlineLevel="0" r="84">
@@ -1945,14 +3793,29 @@
       <c r="B84" s="0">
         <v>688.127990722656</v>
       </c>
-      <c r="C84" s="0">
+      <c r="I84" s="0">
+        <v>8.46053600311279</v>
+      </c>
+      <c r="J84" s="0">
+        <v>1371307.12890625</v>
+      </c>
+      <c r="K84" s="0">
+        <v>299.999847412109</v>
+      </c>
+      <c r="L84" s="0">
+        <v>-7.69062759354711E-03</v>
+      </c>
+      <c r="M84" s="0">
+        <v>0.805096002295613</v>
+      </c>
+      <c r="O84" s="0">
+        <v>28.2018017023802</v>
+      </c>
+      <c r="P84" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q84" s="0">
         <v>46.0050048828125</v>
-      </c>
-      <c r="D84" s="0">
-        <v>8.46053600311279</v>
-      </c>
-      <c r="E84" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="85">
@@ -1964,14 +3827,29 @@
       <c r="B85" s="0">
         <v>690.127990722656</v>
       </c>
-      <c r="C85" s="0">
+      <c r="I85" s="0">
+        <v>8.4826192855835</v>
+      </c>
+      <c r="J85" s="0">
+        <v>1431336.62109375</v>
+      </c>
+      <c r="K85" s="0">
+        <v>300.000549316406</v>
+      </c>
+      <c r="L85" s="0">
+        <v>-4.20454144477844E-03</v>
+      </c>
+      <c r="M85" s="0">
+        <v>0.80509640974924</v>
+      </c>
+      <c r="O85" s="0">
+        <v>28.2753463834524</v>
+      </c>
+      <c r="P85" s="0">
+        <v>36.9999328613281</v>
+      </c>
+      <c r="Q85" s="0">
         <v>48.0050048828125</v>
-      </c>
-      <c r="D85" s="0">
-        <v>8.4826192855835</v>
-      </c>
-      <c r="E85" s="0">
-        <v>36.9999328613281</v>
       </c>
     </row>
     <row outlineLevel="0" r="86">
@@ -1983,14 +3861,29 @@
       <c r="B86" s="0">
         <v>692.127990722656</v>
       </c>
-      <c r="C86" s="0">
+      <c r="I86" s="0">
+        <v>8.43499565124512</v>
+      </c>
+      <c r="J86" s="0">
+        <v>1491365.4296875</v>
+      </c>
+      <c r="K86" s="0">
+        <v>299.99853515625</v>
+      </c>
+      <c r="L86" s="0">
+        <v>-4.88188583403826E-03</v>
+      </c>
+      <c r="M86" s="0">
+        <v>0.805096991825849</v>
+      </c>
+      <c r="O86" s="0">
+        <v>28.1167887151241</v>
+      </c>
+      <c r="P86" s="0">
+        <v>36.99990234375</v>
+      </c>
+      <c r="Q86" s="0">
         <v>50.0050048828125</v>
-      </c>
-      <c r="D86" s="0">
-        <v>8.43499565124512</v>
-      </c>
-      <c r="E86" s="0">
-        <v>36.99990234375</v>
       </c>
     </row>
     <row outlineLevel="0" r="87">
@@ -2002,14 +3895,29 @@
       <c r="B87" s="0">
         <v>694.127990722656</v>
       </c>
-      <c r="C87" s="0">
+      <c r="I87" s="0">
+        <v>8.43149089813232</v>
+      </c>
+      <c r="J87" s="0">
+        <v>1551397.65625</v>
+      </c>
+      <c r="K87" s="0">
+        <v>300.002044677734</v>
+      </c>
+      <c r="L87" s="0">
+        <v>-2.99763563089073E-03</v>
+      </c>
+      <c r="M87" s="0">
+        <v>0.80509576946497</v>
+      </c>
+      <c r="O87" s="0">
+        <v>28.1047783792019</v>
+      </c>
+      <c r="P87" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q87" s="0">
         <v>52.0050048828125</v>
-      </c>
-      <c r="D87" s="0">
-        <v>8.43149089813232</v>
-      </c>
-      <c r="E87" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="88">
@@ -2021,14 +3929,29 @@
       <c r="B88" s="0">
         <v>696.127990722656</v>
       </c>
-      <c r="C88" s="0">
+      <c r="I88" s="0">
+        <v>8.38714790344238</v>
+      </c>
+      <c r="J88" s="0">
+        <v>1611429.00390625</v>
+      </c>
+      <c r="K88" s="0">
+        <v>299.999114990234</v>
+      </c>
+      <c r="L88" s="0">
+        <v>-1.81333068758249E-03</v>
+      </c>
+      <c r="M88" s="0">
+        <v>0.8050951291807</v>
+      </c>
+      <c r="O88" s="0">
+        <v>27.9572419822216</v>
+      </c>
+      <c r="P88" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q88" s="0">
         <v>54.0050048828125</v>
-      </c>
-      <c r="D88" s="0">
-        <v>8.38714790344238</v>
-      </c>
-      <c r="E88" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="89">
@@ -2040,14 +3963,29 @@
       <c r="B89" s="0">
         <v>698.127990722656</v>
       </c>
-      <c r="C89" s="0">
+      <c r="I89" s="0">
+        <v>8.57532691955566</v>
+      </c>
+      <c r="J89" s="0">
+        <v>1671456.8359375</v>
+      </c>
+      <c r="K89" s="0">
+        <v>300.003173828125</v>
+      </c>
+      <c r="L89" s="0">
+        <v>-3.68925789371133E-03</v>
+      </c>
+      <c r="M89" s="0">
+        <v>0.805096293333918</v>
+      </c>
+      <c r="O89" s="0">
+        <v>28.5841207951307</v>
+      </c>
+      <c r="P89" s="0">
+        <v>36.9999328613281</v>
+      </c>
+      <c r="Q89" s="0">
         <v>56.0050048828125</v>
-      </c>
-      <c r="D89" s="0">
-        <v>8.57532691955566</v>
-      </c>
-      <c r="E89" s="0">
-        <v>36.9999328613281</v>
       </c>
     </row>
     <row outlineLevel="0" r="90">
@@ -2059,14 +3997,29 @@
       <c r="B90" s="0">
         <v>700.127990722656</v>
       </c>
-      <c r="C90" s="0">
+      <c r="I90" s="0">
+        <v>8.42202854156494</v>
+      </c>
+      <c r="J90" s="0">
+        <v>1731487.6953125</v>
+      </c>
+      <c r="K90" s="0">
+        <v>300.001434326172</v>
+      </c>
+      <c r="L90" s="0">
+        <v>-6.04906759690493E-04</v>
+      </c>
+      <c r="M90" s="0">
+        <v>0.805095827672631</v>
+      </c>
+      <c r="O90" s="0">
+        <v>28.0732940882444</v>
+      </c>
+      <c r="P90" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q90" s="0">
         <v>58.0050048828125</v>
-      </c>
-      <c r="D90" s="0">
-        <v>8.42202854156494</v>
-      </c>
-      <c r="E90" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="91">
@@ -2078,14 +4031,29 @@
       <c r="B91" s="0">
         <v>702.127990722656</v>
       </c>
-      <c r="C91" s="0">
+      <c r="I91" s="0">
+        <v>8.35960292816162</v>
+      </c>
+      <c r="J91" s="0">
+        <v>1791519.3359375</v>
+      </c>
+      <c r="K91" s="0">
+        <v>299.998962402344</v>
+      </c>
+      <c r="L91" s="0">
+        <v>1.96134205907583E-03</v>
+      </c>
+      <c r="M91" s="0">
+        <v>0.8050951291807</v>
+      </c>
+      <c r="O91" s="0">
+        <v>27.8654396533966</v>
+      </c>
+      <c r="P91" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q91" s="0">
         <v>60.0050048828125</v>
-      </c>
-      <c r="D91" s="0">
-        <v>8.35960292816162</v>
-      </c>
-      <c r="E91" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="92">
@@ -2097,14 +4065,29 @@
       <c r="B92" s="0">
         <v>704.127990722656</v>
       </c>
-      <c r="C92" s="0">
+      <c r="I92" s="0">
+        <v>8.50821590423584</v>
+      </c>
+      <c r="J92" s="0">
+        <v>1851551.5625</v>
+      </c>
+      <c r="K92" s="0">
+        <v>300.001831054688</v>
+      </c>
+      <c r="L92" s="0">
+        <v>3.75114940106869E-03</v>
+      </c>
+      <c r="M92" s="0">
+        <v>0.805094256065786</v>
+      </c>
+      <c r="O92" s="0">
+        <v>28.3605474978685</v>
+      </c>
+      <c r="P92" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q92" s="0">
         <v>62.0050048828125</v>
-      </c>
-      <c r="D92" s="0">
-        <v>8.50821590423584</v>
-      </c>
-      <c r="E92" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="93">
@@ -2116,14 +4099,29 @@
       <c r="B93" s="0">
         <v>706.127990722656</v>
       </c>
-      <c r="C93" s="0">
+      <c r="I93" s="0">
+        <v>8.39747142791748</v>
+      </c>
+      <c r="J93" s="0">
+        <v>1911582.2265625</v>
+      </c>
+      <c r="K93" s="0">
+        <v>299.998229980469</v>
+      </c>
+      <c r="L93" s="0">
+        <v>7.5244652107358E-03</v>
+      </c>
+      <c r="M93" s="0">
+        <v>0.805094139650464</v>
+      </c>
+      <c r="O93" s="0">
+        <v>27.9917363077402</v>
+      </c>
+      <c r="P93" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q93" s="0">
         <v>64.0050048828125</v>
-      </c>
-      <c r="D93" s="0">
-        <v>8.39747142791748</v>
-      </c>
-      <c r="E93" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="94">
@@ -2135,14 +4133,29 @@
       <c r="B94" s="0">
         <v>708.127990722656</v>
       </c>
-      <c r="C94" s="0">
+      <c r="I94" s="0">
+        <v>8.32390785217285</v>
+      </c>
+      <c r="J94" s="0">
+        <v>1971736.1328125</v>
+      </c>
+      <c r="K94" s="0">
+        <v>300.017913818359</v>
+      </c>
+      <c r="L94" s="0">
+        <v>3.14716133289039E-03</v>
+      </c>
+      <c r="M94" s="0">
+        <v>0.805043498985469</v>
+      </c>
+      <c r="O94" s="0">
+        <v>27.7447029948235</v>
+      </c>
+      <c r="P94" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q94" s="0">
         <v>66.0050048828125</v>
-      </c>
-      <c r="D94" s="0">
-        <v>8.32390785217285</v>
-      </c>
-      <c r="E94" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="95">
@@ -2154,14 +4167,29 @@
       <c r="B95" s="0">
         <v>710.127990722656</v>
       </c>
-      <c r="C95" s="0">
+      <c r="I95" s="0">
+        <v>8.44784545898438</v>
+      </c>
+      <c r="J95" s="0">
+        <v>2031774.8046875</v>
+      </c>
+      <c r="K95" s="0">
+        <v>300.021697998047</v>
+      </c>
+      <c r="L95" s="0">
+        <v>4.46714926511049E-03</v>
+      </c>
+      <c r="M95" s="0">
+        <v>0.805043848231435</v>
+      </c>
+      <c r="O95" s="0">
+        <v>28.1574483960867</v>
+      </c>
+      <c r="P95" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q95" s="0">
         <v>68.0050048828125</v>
-      </c>
-      <c r="D95" s="0">
-        <v>8.44784545898438</v>
-      </c>
-      <c r="E95" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="96">
@@ -2173,14 +4201,29 @@
       <c r="B96" s="0">
         <v>712.1240234375</v>
       </c>
-      <c r="C96" s="0">
+      <c r="I96" s="0">
+        <v>8.31736183166504</v>
+      </c>
+      <c r="J96" s="0">
+        <v>2091656.4453125</v>
+      </c>
+      <c r="K96" s="0">
+        <v>300.017395019531</v>
+      </c>
+      <c r="L96" s="0">
+        <v>2.39768624305725E-03</v>
+      </c>
+      <c r="M96" s="0">
+        <v>0.805044954176992</v>
+      </c>
+      <c r="O96" s="0">
+        <v>27.7229323983192</v>
+      </c>
+      <c r="P96" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q96" s="0">
         <v>70.0010375976563</v>
-      </c>
-      <c r="D96" s="0">
-        <v>8.31736183166504</v>
-      </c>
-      <c r="E96" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="97">
@@ -2192,14 +4235,29 @@
       <c r="B97" s="0">
         <v>714.1240234375</v>
       </c>
-      <c r="C97" s="0">
+      <c r="I97" s="0">
+        <v>8.32210445404053</v>
+      </c>
+      <c r="J97" s="0">
+        <v>2151559.9609375</v>
+      </c>
+      <c r="K97" s="0">
+        <v>300.003356933594</v>
+      </c>
+      <c r="L97" s="0">
+        <v>-1.18594779632986E-03</v>
+      </c>
+      <c r="M97" s="0">
+        <v>0.805093732196838</v>
+      </c>
+      <c r="O97" s="0">
+        <v>27.7400370687246</v>
+      </c>
+      <c r="P97" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q97" s="0">
         <v>72.0010375976563</v>
-      </c>
-      <c r="D97" s="0">
-        <v>8.32210445404053</v>
-      </c>
-      <c r="E97" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="98">
@@ -2211,14 +4269,29 @@
       <c r="B98" s="0">
         <v>716.1240234375</v>
       </c>
-      <c r="C98" s="0">
+      <c r="I98" s="0">
+        <v>8.38606739044189</v>
+      </c>
+      <c r="J98" s="0">
+        <v>2211590.4296875</v>
+      </c>
+      <c r="K98" s="0">
+        <v>300.000854492188</v>
+      </c>
+      <c r="L98" s="0">
+        <v>-5.37610985338688E-03</v>
+      </c>
+      <c r="M98" s="0">
+        <v>0.805093499366194</v>
+      </c>
+      <c r="O98" s="0">
+        <v>27.953477576375</v>
+      </c>
+      <c r="P98" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q98" s="0">
         <v>74.0010375976563</v>
-      </c>
-      <c r="D98" s="0">
-        <v>8.38606739044189</v>
-      </c>
-      <c r="E98" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="99">
@@ -2230,14 +4303,29 @@
       <c r="B99" s="0">
         <v>718.1240234375</v>
       </c>
-      <c r="C99" s="0">
+      <c r="I99" s="0">
+        <v>8.29346466064453</v>
+      </c>
+      <c r="J99" s="0">
+        <v>2271619.3359375</v>
+      </c>
+      <c r="K99" s="0">
+        <v>299.998840332031</v>
+      </c>
+      <c r="L99" s="0">
+        <v>-3.88243864290416E-03</v>
+      </c>
+      <c r="M99" s="0">
+        <v>0.805094139650464</v>
+      </c>
+      <c r="O99" s="0">
+        <v>27.6449881494045</v>
+      </c>
+      <c r="P99" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q99" s="0">
         <v>76.0010375976563</v>
-      </c>
-      <c r="D99" s="0">
-        <v>8.29346466064453</v>
-      </c>
-      <c r="E99" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="100">
@@ -2249,14 +4337,29 @@
       <c r="B100" s="0">
         <v>720.1240234375</v>
       </c>
-      <c r="C100" s="0">
+      <c r="I100" s="0">
+        <v>8.25715065002441</v>
+      </c>
+      <c r="J100" s="0">
+        <v>2331650.5859375</v>
+      </c>
+      <c r="K100" s="0">
+        <v>300.000640869141</v>
+      </c>
+      <c r="L100" s="0">
+        <v>-7.48980790376663E-03</v>
+      </c>
+      <c r="M100" s="0">
+        <v>0.805093732196838</v>
+      </c>
+      <c r="O100" s="0">
+        <v>27.5237765163183</v>
+      </c>
+      <c r="P100" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q100" s="0">
         <v>78.0010375976563</v>
-      </c>
-      <c r="D100" s="0">
-        <v>8.25715065002441</v>
-      </c>
-      <c r="E100" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="101">
@@ -2268,14 +4371,29 @@
       <c r="B101" s="0">
         <v>722.1240234375</v>
       </c>
-      <c r="C101" s="0">
+      <c r="I101" s="0">
+        <v>8.39295101165771</v>
+      </c>
+      <c r="J101" s="0">
+        <v>2391683.0078125</v>
+      </c>
+      <c r="K101" s="0">
+        <v>299.998748779297</v>
+      </c>
+      <c r="L101" s="0">
+        <v>-8.63933097571135E-03</v>
+      </c>
+      <c r="M101" s="0">
+        <v>0.805092975497246</v>
+      </c>
+      <c r="O101" s="0">
+        <v>27.9766209423542</v>
+      </c>
+      <c r="P101" s="0">
+        <v>37.0000854492188</v>
+      </c>
+      <c r="Q101" s="0">
         <v>80.0010375976563</v>
-      </c>
-      <c r="D101" s="0">
-        <v>8.39295101165771</v>
-      </c>
-      <c r="E101" s="0">
-        <v>37.0000854492188</v>
       </c>
     </row>
     <row outlineLevel="0" r="102">
@@ -2287,14 +4405,29 @@
       <c r="B102" s="0">
         <v>724.1240234375</v>
       </c>
-      <c r="C102" s="0">
+      <c r="I102" s="0">
+        <v>8.20294189453125</v>
+      </c>
+      <c r="J102" s="0">
+        <v>2451711.9140625</v>
+      </c>
+      <c r="K102" s="0">
+        <v>300.001678466797</v>
+      </c>
+      <c r="L102" s="0">
+        <v>-9.30189993232489E-03</v>
+      </c>
+      <c r="M102" s="0">
+        <v>0.805093382950872</v>
+      </c>
+      <c r="O102" s="0">
+        <v>27.3429863154888</v>
+      </c>
+      <c r="P102" s="0">
+        <v>37.0000854492188</v>
+      </c>
+      <c r="Q102" s="0">
         <v>82.0010375976563</v>
-      </c>
-      <c r="D102" s="0">
-        <v>8.20294189453125</v>
-      </c>
-      <c r="E102" s="0">
-        <v>37.0000854492188</v>
       </c>
     </row>
     <row outlineLevel="0" r="103">
@@ -2306,14 +4439,29 @@
       <c r="B103" s="0">
         <v>726.1240234375</v>
       </c>
-      <c r="C103" s="0">
+      <c r="I103" s="0">
+        <v>8.23134994506836</v>
+      </c>
+      <c r="J103" s="0">
+        <v>2511736.71875</v>
+      </c>
+      <c r="K103" s="0">
+        <v>299.998992919922</v>
+      </c>
+      <c r="L103" s="0">
+        <v>-7.26811913773417E-03</v>
+      </c>
+      <c r="M103" s="0">
+        <v>0.805095070973039</v>
+      </c>
+      <c r="O103" s="0">
+        <v>27.4379253387451</v>
+      </c>
+      <c r="P103" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q103" s="0">
         <v>84.0010375976563</v>
-      </c>
-      <c r="D103" s="0">
-        <v>8.23134994506836</v>
-      </c>
-      <c r="E103" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
@@ -2325,14 +4473,29 @@
       <c r="B104" s="0">
         <v>728.1240234375</v>
       </c>
-      <c r="C104" s="0">
+      <c r="I104" s="0">
+        <v>8.45985698699951</v>
+      </c>
+      <c r="J104" s="0">
+        <v>2571764.6484375</v>
+      </c>
+      <c r="K104" s="0">
+        <v>299.999572753906</v>
+      </c>
+      <c r="L104" s="0">
+        <v>-8.39936640113592E-03</v>
+      </c>
+      <c r="M104" s="0">
+        <v>0.805095827672631</v>
+      </c>
+      <c r="O104" s="0">
+        <v>28.1995628029108</v>
+      </c>
+      <c r="P104" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q104" s="0">
         <v>86.0010375976563</v>
-      </c>
-      <c r="D104" s="0">
-        <v>8.45985698699951</v>
-      </c>
-      <c r="E104" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
@@ -2344,14 +4507,29 @@
       <c r="B105" s="0">
         <v>730.1240234375</v>
       </c>
-      <c r="C105" s="0">
+      <c r="I105" s="0">
+        <v>8.09184837341309</v>
+      </c>
+      <c r="J105" s="0">
+        <v>2631799.609375</v>
+      </c>
+      <c r="K105" s="0">
+        <v>300.002044677734</v>
+      </c>
+      <c r="L105" s="0">
+        <v>-9.4227334484458E-03</v>
+      </c>
+      <c r="M105" s="0">
+        <v>0.805094372481108</v>
+      </c>
+      <c r="O105" s="0">
+        <v>26.9726440310478</v>
+      </c>
+      <c r="P105" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q105" s="0">
         <v>88.0010375976563</v>
-      </c>
-      <c r="D105" s="0">
-        <v>8.09184837341309</v>
-      </c>
-      <c r="E105" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
@@ -2363,14 +4541,29 @@
       <c r="B106" s="0">
         <v>732.1240234375</v>
       </c>
-      <c r="C106" s="0">
+      <c r="I106" s="0">
+        <v>8.21584701538086</v>
+      </c>
+      <c r="J106" s="0">
+        <v>2691826.7578125</v>
+      </c>
+      <c r="K106" s="0">
+        <v>299.998016357422</v>
+      </c>
+      <c r="L106" s="0">
+        <v>-7.81082641333342E-03</v>
+      </c>
+      <c r="M106" s="0">
+        <v>0.805095245596021</v>
+      </c>
+      <c r="O106" s="0">
+        <v>27.386337518692</v>
+      </c>
+      <c r="P106" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q106" s="0">
         <v>90.0010375976563</v>
-      </c>
-      <c r="D106" s="0">
-        <v>8.21584701538086</v>
-      </c>
-      <c r="E106" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="107">
@@ -2382,14 +4575,29 @@
       <c r="B107" s="0">
         <v>734.1240234375</v>
       </c>
-      <c r="C107" s="0">
+      <c r="I107" s="0">
+        <v>8.25338172912598</v>
+      </c>
+      <c r="J107" s="0">
+        <v>2752026.3671875</v>
+      </c>
+      <c r="K107" s="0">
+        <v>300.01953125</v>
+      </c>
+      <c r="L107" s="0">
+        <v>-5.79826068133116E-03</v>
+      </c>
+      <c r="M107" s="0">
+        <v>0.805045652668923</v>
+      </c>
+      <c r="O107" s="0">
+        <v>27.509480714798</v>
+      </c>
+      <c r="P107" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q107" s="0">
         <v>92.0010375976563</v>
-      </c>
-      <c r="D107" s="0">
-        <v>8.25338172912598</v>
-      </c>
-      <c r="E107" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="108">
@@ -2401,14 +4609,29 @@
       <c r="B108" s="0">
         <v>736.1240234375</v>
       </c>
-      <c r="C108" s="0">
+      <c r="I108" s="0">
+        <v>8.07773876190186</v>
+      </c>
+      <c r="J108" s="0">
+        <v>2812061.328125</v>
+      </c>
+      <c r="K108" s="0">
+        <v>300.018463134766</v>
+      </c>
+      <c r="L108" s="0">
+        <v>-1.28668849356472E-03</v>
+      </c>
+      <c r="M108" s="0">
+        <v>0.805045361630619</v>
+      </c>
+      <c r="O108" s="0">
+        <v>26.9241388887167</v>
+      </c>
+      <c r="P108" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q108" s="0">
         <v>94.0010375976563</v>
-      </c>
-      <c r="D108" s="0">
-        <v>8.07773876190186</v>
-      </c>
-      <c r="E108" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="109">
@@ -2420,14 +4643,29 @@
       <c r="B109" s="0">
         <v>738.1240234375</v>
       </c>
-      <c r="C109" s="0">
+      <c r="I109" s="0">
+        <v>8.12897682189941</v>
+      </c>
+      <c r="J109" s="0">
+        <v>2872098.2421875</v>
+      </c>
+      <c r="K109" s="0">
+        <v>300.019348144531</v>
+      </c>
+      <c r="L109" s="0">
+        <v>-1.66234606876969E-03</v>
+      </c>
+      <c r="M109" s="0">
+        <v>0.805044488515705</v>
+      </c>
+      <c r="O109" s="0">
+        <v>27.0948428660631</v>
+      </c>
+      <c r="P109" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q109" s="0">
         <v>96.0010375976563</v>
-      </c>
-      <c r="D109" s="0">
-        <v>8.12897682189941</v>
-      </c>
-      <c r="E109" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="110">
@@ -2439,14 +4677,29 @@
       <c r="B110" s="0">
         <v>740.1240234375</v>
       </c>
-      <c r="C110" s="0">
+      <c r="I110" s="0">
+        <v>8.22777080535889</v>
+      </c>
+      <c r="J110" s="0">
+        <v>2932130.859375</v>
+      </c>
+      <c r="K110" s="0">
+        <v>300.020874023438</v>
+      </c>
+      <c r="L110" s="0">
+        <v>-2.42898310534656E-03</v>
+      </c>
+      <c r="M110" s="0">
+        <v>0.805044895969331</v>
+      </c>
+      <c r="O110" s="0">
+        <v>27.423994615674</v>
+      </c>
+      <c r="P110" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q110" s="0">
         <v>98.0010375976563</v>
-      </c>
-      <c r="D110" s="0">
-        <v>8.22777080535889</v>
-      </c>
-      <c r="E110" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="111">
@@ -2458,14 +4711,29 @@
       <c r="B111" s="0">
         <v>742.1240234375</v>
       </c>
-      <c r="C111" s="0">
+      <c r="I111" s="0">
+        <v>8.4123477935791</v>
+      </c>
+      <c r="J111" s="0">
+        <v>2992167.578125</v>
+      </c>
+      <c r="K111" s="0">
+        <v>300.019378662109</v>
+      </c>
+      <c r="L111" s="0">
+        <v>-2.15168693102896E-03</v>
+      </c>
+      <c r="M111" s="0">
+        <v>0.80504547804594</v>
+      </c>
+      <c r="O111" s="0">
+        <v>28.0393473803997</v>
+      </c>
+      <c r="P111" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q111" s="0">
         <v>100.001037597656</v>
-      </c>
-      <c r="D111" s="0">
-        <v>8.4123477935791</v>
-      </c>
-      <c r="E111" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="112">
@@ -2477,14 +4745,29 @@
       <c r="B112" s="0">
         <v>744.1240234375</v>
       </c>
-      <c r="C112" s="0">
+      <c r="I112" s="0">
+        <v>8.16085529327393</v>
+      </c>
+      <c r="J112" s="0">
+        <v>3052201.7578125</v>
+      </c>
+      <c r="K112" s="0">
+        <v>300.017211914063</v>
+      </c>
+      <c r="L112" s="0">
+        <v>8.15795967355371E-04</v>
+      </c>
+      <c r="M112" s="0">
+        <v>0.805045594461262</v>
+      </c>
+      <c r="O112" s="0">
+        <v>27.2012911736965</v>
+      </c>
+      <c r="P112" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q112" s="0">
         <v>102.001037597656</v>
-      </c>
-      <c r="D112" s="0">
-        <v>8.16085529327393</v>
-      </c>
-      <c r="E112" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="113">
@@ -2496,14 +4779,29 @@
       <c r="B113" s="0">
         <v>746.1240234375</v>
       </c>
-      <c r="C113" s="0">
+      <c r="I113" s="0">
+        <v>8.182785987854</v>
+      </c>
+      <c r="J113" s="0">
+        <v>3112237.6953125</v>
+      </c>
+      <c r="K113" s="0">
+        <v>300.019165039063</v>
+      </c>
+      <c r="L113" s="0">
+        <v>1.75120920175686E-04</v>
+      </c>
+      <c r="M113" s="0">
+        <v>0.805045012384653</v>
+      </c>
+      <c r="O113" s="0">
+        <v>27.2742100059986</v>
+      </c>
+      <c r="P113" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q113" s="0">
         <v>104.001037597656</v>
-      </c>
-      <c r="D113" s="0">
-        <v>8.182785987854</v>
-      </c>
-      <c r="E113" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="114">
@@ -2515,14 +4813,29 @@
       <c r="B114" s="0">
         <v>748.1240234375</v>
       </c>
-      <c r="C114" s="0">
+      <c r="I114" s="0">
+        <v>8.32944011688232</v>
+      </c>
+      <c r="J114" s="0">
+        <v>3172270.5078125</v>
+      </c>
+      <c r="K114" s="0">
+        <v>300.018005371094</v>
+      </c>
+      <c r="L114" s="0">
+        <v>-2.2149805445224E-03</v>
+      </c>
+      <c r="M114" s="0">
+        <v>0.805045187007636</v>
+      </c>
+      <c r="O114" s="0">
+        <v>27.7631338685751</v>
+      </c>
+      <c r="P114" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q114" s="0">
         <v>106.001037597656</v>
-      </c>
-      <c r="D114" s="0">
-        <v>8.32944011688232</v>
-      </c>
-      <c r="E114" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="115">
@@ -2534,14 +4847,29 @@
       <c r="B115" s="0">
         <v>750.1240234375</v>
       </c>
-      <c r="C115" s="0">
+      <c r="I115" s="0">
+        <v>8.1719970703125</v>
+      </c>
+      <c r="J115" s="0">
+        <v>3232304.8828125</v>
+      </c>
+      <c r="K115" s="0">
+        <v>300.022125244141</v>
+      </c>
+      <c r="L115" s="0">
+        <v>-3.12751159071922E-03</v>
+      </c>
+      <c r="M115" s="0">
+        <v>0.805045128799975</v>
+      </c>
+      <c r="O115" s="0">
+        <v>27.2379815578461</v>
+      </c>
+      <c r="P115" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q115" s="0">
         <v>108.001037597656</v>
-      </c>
-      <c r="D115" s="0">
-        <v>8.1719970703125</v>
-      </c>
-      <c r="E115" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="116">
@@ -2553,14 +4881,29 @@
       <c r="B116" s="0">
         <v>752.1240234375</v>
       </c>
-      <c r="C116" s="0">
+      <c r="I116" s="0">
+        <v>8.12156009674072</v>
+      </c>
+      <c r="J116" s="0">
+        <v>3292340.234375</v>
+      </c>
+      <c r="K116" s="0">
+        <v>300.018707275391</v>
+      </c>
+      <c r="L116" s="0">
+        <v>-1.0141683742404E-03</v>
+      </c>
+      <c r="M116" s="0">
+        <v>0.80504483776167</v>
+      </c>
+      <c r="O116" s="0">
+        <v>27.0701795816422</v>
+      </c>
+      <c r="P116" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q116" s="0">
         <v>110.001037597656</v>
-      </c>
-      <c r="D116" s="0">
-        <v>8.12156009674072</v>
-      </c>
-      <c r="E116" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="117">
@@ -2572,14 +4915,29 @@
       <c r="B117" s="0">
         <v>754.1240234375</v>
       </c>
-      <c r="C117" s="0">
+      <c r="I117" s="0">
+        <v>8.16520595550537</v>
+      </c>
+      <c r="J117" s="0">
+        <v>3352372.265625</v>
+      </c>
+      <c r="K117" s="0">
+        <v>300.017211914063</v>
+      </c>
+      <c r="L117" s="0">
+        <v>-3.89923038892448E-03</v>
+      </c>
+      <c r="M117" s="0">
+        <v>0.805045245215297</v>
+      </c>
+      <c r="O117" s="0">
+        <v>27.2157918661833</v>
+      </c>
+      <c r="P117" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q117" s="0">
         <v>112.001037597656</v>
-      </c>
-      <c r="D117" s="0">
-        <v>8.16520595550537</v>
-      </c>
-      <c r="E117" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="118">
@@ -2591,14 +4949,29 @@
       <c r="B118" s="0">
         <v>756.1240234375</v>
       </c>
-      <c r="C118" s="0">
+      <c r="I118" s="0">
+        <v>8.10105609893799</v>
+      </c>
+      <c r="J118" s="0">
+        <v>3412407.421875</v>
+      </c>
+      <c r="K118" s="0">
+        <v>300.021453857422</v>
+      </c>
+      <c r="L118" s="0">
+        <v>-4.67977067455649E-03</v>
+      </c>
+      <c r="M118" s="0">
+        <v>0.805044895969331</v>
+      </c>
+      <c r="O118" s="0">
+        <v>27.0015895366669</v>
+      </c>
+      <c r="P118" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q118" s="0">
         <v>114.001037597656</v>
-      </c>
-      <c r="D118" s="0">
-        <v>8.10105609893799</v>
-      </c>
-      <c r="E118" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="119">
@@ -2610,14 +4983,29 @@
       <c r="B119" s="0">
         <v>758.1240234375</v>
       </c>
-      <c r="C119" s="0">
+      <c r="I119" s="0">
+        <v>8.06023025512695</v>
+      </c>
+      <c r="J119" s="0">
+        <v>3472440.234375</v>
+      </c>
+      <c r="K119" s="0">
+        <v>300.017852783203</v>
+      </c>
+      <c r="L119" s="0">
+        <v>-4.22221794724464E-03</v>
+      </c>
+      <c r="M119" s="0">
+        <v>0.805045128799975</v>
+      </c>
+      <c r="O119" s="0">
+        <v>26.8658362329006</v>
+      </c>
+      <c r="P119" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q119" s="0">
         <v>116.001037597656</v>
-      </c>
-      <c r="D119" s="0">
-        <v>8.06023025512695</v>
-      </c>
-      <c r="E119" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="120">
@@ -2629,14 +5017,29 @@
       <c r="B120" s="0">
         <v>760.1240234375</v>
       </c>
-      <c r="C120" s="0">
+      <c r="I120" s="0">
+        <v>8.34023094177246</v>
+      </c>
+      <c r="J120" s="0">
+        <v>3532473.828125</v>
+      </c>
+      <c r="K120" s="0">
+        <v>300.019683837891</v>
+      </c>
+      <c r="L120" s="0">
+        <v>-6.72563817352057E-03</v>
+      </c>
+      <c r="M120" s="0">
+        <v>0.805045128799975</v>
+      </c>
+      <c r="O120" s="0">
+        <v>27.7989450842142</v>
+      </c>
+      <c r="P120" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q120" s="0">
         <v>118.001037597656</v>
-      </c>
-      <c r="D120" s="0">
-        <v>8.34023094177246</v>
-      </c>
-      <c r="E120" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="121">
@@ -2648,14 +5051,29 @@
       <c r="B121" s="0">
         <v>762.1240234375</v>
       </c>
-      <c r="C121" s="0">
+      <c r="I121" s="0">
+        <v>8.19650077819824</v>
+      </c>
+      <c r="J121" s="0">
+        <v>3592507.03125</v>
+      </c>
+      <c r="K121" s="0">
+        <v>300.018890380859</v>
+      </c>
+      <c r="L121" s="0">
+        <v>-3.84575896896422E-03</v>
+      </c>
+      <c r="M121" s="0">
+        <v>0.805045303422958</v>
+      </c>
+      <c r="O121" s="0">
+        <v>27.3199491202831</v>
+      </c>
+      <c r="P121" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q121" s="0">
         <v>120.001037597656</v>
-      </c>
-      <c r="D121" s="0">
-        <v>8.19650077819824</v>
-      </c>
-      <c r="E121" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="122">
@@ -2667,14 +5085,29 @@
       <c r="B122" s="0">
         <v>764.1240234375</v>
       </c>
-      <c r="C122" s="0">
+      <c r="I122" s="0">
+        <v>8.15526962280273</v>
+      </c>
+      <c r="J122" s="0">
+        <v>3652538.671875</v>
+      </c>
+      <c r="K122" s="0">
+        <v>300.019500732422</v>
+      </c>
+      <c r="L122" s="0">
+        <v>-3.78570822067559E-03</v>
+      </c>
+      <c r="M122" s="0">
+        <v>0.805045827291906</v>
+      </c>
+      <c r="O122" s="0">
+        <v>27.1824654191732</v>
+      </c>
+      <c r="P122" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q122" s="0">
         <v>122.001037597656</v>
-      </c>
-      <c r="D122" s="0">
-        <v>8.15526962280273</v>
-      </c>
-      <c r="E122" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="123">
@@ -2686,14 +5119,29 @@
       <c r="B123" s="0">
         <v>766.1240234375</v>
       </c>
-      <c r="C123" s="0">
+      <c r="I123" s="0">
+        <v>8.15899753570557</v>
+      </c>
+      <c r="J123" s="0">
+        <v>3712578.90625</v>
+      </c>
+      <c r="K123" s="0">
+        <v>300.019714355469</v>
+      </c>
+      <c r="L123" s="0">
+        <v>-2.27411766536534E-03</v>
+      </c>
+      <c r="M123" s="0">
+        <v>0.805044430308044</v>
+      </c>
+      <c r="O123" s="0">
+        <v>27.1948706358671</v>
+      </c>
+      <c r="P123" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q123" s="0">
         <v>124.001037597656</v>
-      </c>
-      <c r="D123" s="0">
-        <v>8.15899753570557</v>
-      </c>
-      <c r="E123" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="124">
@@ -2705,14 +5153,29 @@
       <c r="B124" s="0">
         <v>768.1240234375</v>
       </c>
-      <c r="C124" s="0">
+      <c r="I124" s="0">
+        <v>8.12303352355957</v>
+      </c>
+      <c r="J124" s="0">
+        <v>3772610.9375</v>
+      </c>
+      <c r="K124" s="0">
+        <v>300.019927978516</v>
+      </c>
+      <c r="L124" s="0">
+        <v>4.84818010590971E-04</v>
+      </c>
+      <c r="M124" s="0">
+        <v>0.805044895969331</v>
+      </c>
+      <c r="O124" s="0">
+        <v>27.0749796181917</v>
+      </c>
+      <c r="P124" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q124" s="0">
         <v>126.001037597656</v>
-      </c>
-      <c r="D124" s="0">
-        <v>8.12303352355957</v>
-      </c>
-      <c r="E124" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="125">
@@ -2724,14 +5187,29 @@
       <c r="B125" s="0">
         <v>770.1240234375</v>
       </c>
-      <c r="C125" s="0">
+      <c r="I125" s="0">
+        <v>8.122483253479</v>
+      </c>
+      <c r="J125" s="0">
+        <v>3832644.140625</v>
+      </c>
+      <c r="K125" s="0">
+        <v>300.021575927734</v>
+      </c>
+      <c r="L125" s="0">
+        <v>-3.05764796212316E-03</v>
+      </c>
+      <c r="M125" s="0">
+        <v>0.805044954176992</v>
+      </c>
+      <c r="O125" s="0">
+        <v>27.0729977637529</v>
+      </c>
+      <c r="P125" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q125" s="0">
         <v>128.001037597656</v>
-      </c>
-      <c r="D125" s="0">
-        <v>8.122483253479</v>
-      </c>
-      <c r="E125" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="126">
@@ -2743,14 +5221,29 @@
       <c r="B126" s="0">
         <v>772.1240234375</v>
       </c>
-      <c r="C126" s="0">
+      <c r="I126" s="0">
+        <v>8.14784049987793</v>
+      </c>
+      <c r="J126" s="0">
+        <v>3892676.171875</v>
+      </c>
+      <c r="K126" s="0">
+        <v>300.017852783203</v>
+      </c>
+      <c r="L126" s="0">
+        <v>4.7577335499227E-04</v>
+      </c>
+      <c r="M126" s="0">
+        <v>0.805045419838279</v>
+      </c>
+      <c r="O126" s="0">
+        <v>27.1578524261713</v>
+      </c>
+      <c r="P126" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q126" s="0">
         <v>130.001037597656</v>
-      </c>
-      <c r="D126" s="0">
-        <v>8.14784049987793</v>
-      </c>
-      <c r="E126" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="127">
@@ -2762,14 +5255,29 @@
       <c r="B127" s="0">
         <v>774.1240234375</v>
       </c>
-      <c r="C127" s="0">
+      <c r="I127" s="0">
+        <v>8.23455905914307</v>
+      </c>
+      <c r="J127" s="0">
+        <v>3952717.578125</v>
+      </c>
+      <c r="K127" s="0">
+        <v>300.019226074219</v>
+      </c>
+      <c r="L127" s="0">
+        <v>2.54895747639239E-03</v>
+      </c>
+      <c r="M127" s="0">
+        <v>0.805045012384653</v>
+      </c>
+      <c r="O127" s="0">
+        <v>27.4467710405588</v>
+      </c>
+      <c r="P127" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q127" s="0">
         <v>132.001037597656</v>
-      </c>
-      <c r="D127" s="0">
-        <v>8.23455905914307</v>
-      </c>
-      <c r="E127" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="128">
@@ -2781,14 +5289,29 @@
       <c r="B128" s="0">
         <v>776.1240234375</v>
       </c>
-      <c r="C128" s="0">
+      <c r="I128" s="0">
+        <v>8.12892436981201</v>
+      </c>
+      <c r="J128" s="0">
+        <v>4012763.671875</v>
+      </c>
+      <c r="K128" s="0">
+        <v>300.019378662109</v>
+      </c>
+      <c r="L128" s="0">
+        <v>4.21178434044123E-03</v>
+      </c>
+      <c r="M128" s="0">
+        <v>0.805042509455234</v>
+      </c>
+      <c r="O128" s="0">
+        <v>27.0946640521288</v>
+      </c>
+      <c r="P128" s="0">
+        <v>37.0001159667969</v>
+      </c>
+      <c r="Q128" s="0">
         <v>134.001037597656</v>
-      </c>
-      <c r="D128" s="0">
-        <v>8.12892436981201</v>
-      </c>
-      <c r="E128" s="0">
-        <v>37.0001159667969</v>
       </c>
     </row>
     <row outlineLevel="0" r="129">
@@ -2800,14 +5323,29 @@
       <c r="B129" s="0">
         <v>778.1240234375</v>
       </c>
-      <c r="C129" s="0">
+      <c r="I129" s="0">
+        <v>8.14710330963135</v>
+      </c>
+      <c r="J129" s="0">
+        <v>4072795.3125</v>
+      </c>
+      <c r="K129" s="0">
+        <v>300.018096923828</v>
+      </c>
+      <c r="L129" s="0">
+        <v>4.61731338873506E-04</v>
+      </c>
+      <c r="M129" s="0">
+        <v>0.805043033324182</v>
+      </c>
+      <c r="O129" s="0">
+        <v>27.1553732454777</v>
+      </c>
+      <c r="P129" s="0">
+        <v>37.0000854492188</v>
+      </c>
+      <c r="Q129" s="0">
         <v>136.001037597656</v>
-      </c>
-      <c r="D129" s="0">
-        <v>8.14710330963135</v>
-      </c>
-      <c r="E129" s="0">
-        <v>37.0000854492188</v>
       </c>
     </row>
     <row outlineLevel="0" r="130">
@@ -2819,14 +5357,29 @@
       <c r="B130" s="0">
         <v>780.1240234375</v>
       </c>
-      <c r="C130" s="0">
+      <c r="I130" s="0">
+        <v>8.04535388946533</v>
+      </c>
+      <c r="J130" s="0">
+        <v>4132827.34375</v>
+      </c>
+      <c r="K130" s="0">
+        <v>300.020874023438</v>
+      </c>
+      <c r="L130" s="0">
+        <v>-2.26481643039733E-05</v>
+      </c>
+      <c r="M130" s="0">
+        <v>0.805043440777808</v>
+      </c>
+      <c r="O130" s="0">
+        <v>26.8159806728363</v>
+      </c>
+      <c r="P130" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q130" s="0">
         <v>138.001037597656</v>
-      </c>
-      <c r="D130" s="0">
-        <v>8.04535388946533</v>
-      </c>
-      <c r="E130" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="131">
@@ -2838,14 +5391,29 @@
       <c r="B131" s="0">
         <v>782.1240234375</v>
       </c>
-      <c r="C131" s="0">
+      <c r="I131" s="0">
+        <v>8.03217220306396</v>
+      </c>
+      <c r="J131" s="0">
+        <v>4192851.953125</v>
+      </c>
+      <c r="K131" s="0">
+        <v>300.01611328125</v>
+      </c>
+      <c r="L131" s="0">
+        <v>-9.89870633929968E-04</v>
+      </c>
+      <c r="M131" s="0">
+        <v>0.805045245215297</v>
+      </c>
+      <c r="O131" s="0">
+        <v>26.7724692821503</v>
+      </c>
+      <c r="P131" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q131" s="0">
         <v>140.001037597656</v>
-      </c>
-      <c r="D131" s="0">
-        <v>8.03217220306396</v>
-      </c>
-      <c r="E131" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="132">
@@ -2857,14 +5425,29 @@
       <c r="B132" s="0">
         <v>784.1240234375</v>
       </c>
-      <c r="C132" s="0">
+      <c r="I132" s="0">
+        <v>7.98306894302368</v>
+      </c>
+      <c r="J132" s="0">
+        <v>4252887.5</v>
+      </c>
+      <c r="K132" s="0">
+        <v>300.019317626953</v>
+      </c>
+      <c r="L132" s="0">
+        <v>3.4546825918369E-04</v>
+      </c>
+      <c r="M132" s="0">
+        <v>0.805044954176992</v>
+      </c>
+      <c r="O132" s="0">
+        <v>26.6085155308247</v>
+      </c>
+      <c r="P132" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q132" s="0">
         <v>142.001037597656</v>
-      </c>
-      <c r="D132" s="0">
-        <v>7.98306894302368</v>
-      </c>
-      <c r="E132" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="133">
@@ -2876,14 +5459,29 @@
       <c r="B133" s="0">
         <v>786.1240234375</v>
       </c>
-      <c r="C133" s="0">
+      <c r="I133" s="0">
+        <v>8.0369758605957</v>
+      </c>
+      <c r="J133" s="0">
+        <v>4312915.234375</v>
+      </c>
+      <c r="K133" s="0">
+        <v>300.020446777344</v>
+      </c>
+      <c r="L133" s="0">
+        <v>2.01814039610326E-03</v>
+      </c>
+      <c r="M133" s="0">
+        <v>0.805046001914889</v>
+      </c>
+      <c r="O133" s="0">
+        <v>26.788093149662</v>
+      </c>
+      <c r="P133" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q133" s="0">
         <v>144.001037597656</v>
-      </c>
-      <c r="D133" s="0">
-        <v>8.0369758605957</v>
-      </c>
-      <c r="E133" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="134">
@@ -2895,14 +5493,29 @@
       <c r="B134" s="0">
         <v>788.1240234375</v>
       </c>
-      <c r="C134" s="0">
+      <c r="I134" s="0">
+        <v>8.05321502685547</v>
+      </c>
+      <c r="J134" s="0">
+        <v>4372948.046875</v>
+      </c>
+      <c r="K134" s="0">
+        <v>300.015838623047</v>
+      </c>
+      <c r="L134" s="0">
+        <v>3.12645290978253E-03</v>
+      </c>
+      <c r="M134" s="0">
+        <v>0.805046176537871</v>
+      </c>
+      <c r="O134" s="0">
+        <v>26.8426332622766</v>
+      </c>
+      <c r="P134" s="0">
+        <v>36.9999328613281</v>
+      </c>
+      <c r="Q134" s="0">
         <v>146.001037597656</v>
-      </c>
-      <c r="D134" s="0">
-        <v>8.05321502685547</v>
-      </c>
-      <c r="E134" s="0">
-        <v>36.9999328613281</v>
       </c>
     </row>
     <row outlineLevel="0" r="135">
@@ -2914,14 +5527,29 @@
       <c r="B135" s="0">
         <v>790.1240234375</v>
       </c>
-      <c r="C135" s="0">
+      <c r="I135" s="0">
+        <v>7.99085283279419</v>
+      </c>
+      <c r="J135" s="0">
+        <v>4432993.75</v>
+      </c>
+      <c r="K135" s="0">
+        <v>300.020660400391</v>
+      </c>
+      <c r="L135" s="0">
+        <v>2.80793849378824E-03</v>
+      </c>
+      <c r="M135" s="0">
+        <v>0.805044022854418</v>
+      </c>
+      <c r="O135" s="0">
+        <v>26.6343411058187</v>
+      </c>
+      <c r="P135" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q135" s="0">
         <v>148.001037597656</v>
-      </c>
-      <c r="D135" s="0">
-        <v>7.99085283279419</v>
-      </c>
-      <c r="E135" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="136">
@@ -2933,14 +5561,29 @@
       <c r="B136" s="0">
         <v>792.1240234375</v>
       </c>
-      <c r="C136" s="0">
+      <c r="I136" s="0">
+        <v>8.04974174499512</v>
+      </c>
+      <c r="J136" s="0">
+        <v>4493023.828125</v>
+      </c>
+      <c r="K136" s="0">
+        <v>300.016571044922</v>
+      </c>
+      <c r="L136" s="0">
+        <v>-3.81378317251801E-03</v>
+      </c>
+      <c r="M136" s="0">
+        <v>0.805044721346349</v>
+      </c>
+      <c r="O136" s="0">
+        <v>26.8309898674488</v>
+      </c>
+      <c r="P136" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q136" s="0">
         <v>150.001037597656</v>
-      </c>
-      <c r="D136" s="0">
-        <v>8.04974174499512</v>
-      </c>
-      <c r="E136" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="137">
@@ -2952,14 +5595,29 @@
       <c r="B137" s="0">
         <v>794.1240234375</v>
       </c>
-      <c r="C137" s="0">
+      <c r="I137" s="0">
+        <v>8.07147598266602</v>
+      </c>
+      <c r="J137" s="0">
+        <v>4553055.46875</v>
+      </c>
+      <c r="K137" s="0">
+        <v>300.019256591797</v>
+      </c>
+      <c r="L137" s="0">
+        <v>-5.44422026723623E-03</v>
+      </c>
+      <c r="M137" s="0">
+        <v>0.805045128799975</v>
+      </c>
+      <c r="O137" s="0">
+        <v>26.9031934440136</v>
+      </c>
+      <c r="P137" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q137" s="0">
         <v>152.001037597656</v>
-      </c>
-      <c r="D137" s="0">
-        <v>8.07147598266602</v>
-      </c>
-      <c r="E137" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="138">
@@ -2971,14 +5629,29 @@
       <c r="B138" s="0">
         <v>796.1240234375</v>
       </c>
-      <c r="C138" s="0">
+      <c r="I138" s="0">
+        <v>7.9489164352417</v>
+      </c>
+      <c r="J138" s="0">
+        <v>4613088.671875</v>
+      </c>
+      <c r="K138" s="0">
+        <v>300.018707275391</v>
+      </c>
+      <c r="L138" s="0">
+        <v>-1.63969770073891E-03</v>
+      </c>
+      <c r="M138" s="0">
+        <v>0.805045303422958</v>
+      </c>
+      <c r="O138" s="0">
+        <v>26.4947358518839</v>
+      </c>
+      <c r="P138" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q138" s="0">
         <v>154.001037597656</v>
-      </c>
-      <c r="D138" s="0">
-        <v>7.9489164352417</v>
-      </c>
-      <c r="E138" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="139">
@@ -2990,14 +5663,29 @@
       <c r="B139" s="0">
         <v>798.125</v>
       </c>
-      <c r="C139" s="0">
+      <c r="I139" s="0">
+        <v>8.1125316619873</v>
+      </c>
+      <c r="J139" s="0">
+        <v>4673125.78125</v>
+      </c>
+      <c r="K139" s="0">
+        <v>300.017944335938</v>
+      </c>
+      <c r="L139" s="0">
+        <v>-2.90364166721702E-03</v>
+      </c>
+      <c r="M139" s="0">
+        <v>0.805044663138688</v>
+      </c>
+      <c r="O139" s="0">
+        <v>27.0401556044817</v>
+      </c>
+      <c r="P139" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q139" s="0">
         <v>156.002014160156</v>
-      </c>
-      <c r="D139" s="0">
-        <v>8.1125316619873</v>
-      </c>
-      <c r="E139" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="140">
@@ -3009,14 +5697,29 @@
       <c r="B140" s="0">
         <v>800.125</v>
       </c>
-      <c r="C140" s="0">
+      <c r="I140" s="0">
+        <v>7.96634149551392</v>
+      </c>
+      <c r="J140" s="0">
+        <v>4733160.546875</v>
+      </c>
+      <c r="K140" s="0">
+        <v>300.019104003906</v>
+      </c>
+      <c r="L140" s="0">
+        <v>-3.37870884686708E-03</v>
+      </c>
+      <c r="M140" s="0">
+        <v>0.805044546723366</v>
+      </c>
+      <c r="O140" s="0">
+        <v>26.5527814626694</v>
+      </c>
+      <c r="P140" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q140" s="0">
         <v>158.002014160156</v>
-      </c>
-      <c r="D140" s="0">
-        <v>7.96634149551392</v>
-      </c>
-      <c r="E140" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="141">
@@ -3028,14 +5731,29 @@
       <c r="B141" s="0">
         <v>802.125</v>
       </c>
-      <c r="C141" s="0">
+      <c r="I141" s="0">
+        <v>8.03314304351807</v>
+      </c>
+      <c r="J141" s="0">
+        <v>4793202.34375</v>
+      </c>
+      <c r="K141" s="0">
+        <v>300.01708984375</v>
+      </c>
+      <c r="L141" s="0">
+        <v>8.84468550793827E-04</v>
+      </c>
+      <c r="M141" s="0">
+        <v>0.805044255685061</v>
+      </c>
+      <c r="O141" s="0">
+        <v>26.7756190150976</v>
+      </c>
+      <c r="P141" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q141" s="0">
         <v>160.002014160156</v>
-      </c>
-      <c r="D141" s="0">
-        <v>8.03314304351807</v>
-      </c>
-      <c r="E141" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="142">
@@ -3047,14 +5765,29 @@
       <c r="B142" s="0">
         <v>804.125</v>
       </c>
-      <c r="C142" s="0">
+      <c r="I142" s="0">
+        <v>7.96415185928345</v>
+      </c>
+      <c r="J142" s="0">
+        <v>4853240.234375</v>
+      </c>
+      <c r="K142" s="0">
+        <v>300.018341064453</v>
+      </c>
+      <c r="L142" s="0">
+        <v>1.14376028068364E-03</v>
+      </c>
+      <c r="M142" s="0">
+        <v>0.80504355719313</v>
+      </c>
+      <c r="O142" s="0">
+        <v>26.5455506742001</v>
+      </c>
+      <c r="P142" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q142" s="0">
         <v>162.002014160156</v>
-      </c>
-      <c r="D142" s="0">
-        <v>7.96415185928345</v>
-      </c>
-      <c r="E142" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="143">
@@ -3066,14 +5799,29 @@
       <c r="B143" s="0">
         <v>806.125</v>
       </c>
-      <c r="C143" s="0">
+      <c r="I143" s="0">
+        <v>8.15082550048828</v>
+      </c>
+      <c r="J143" s="0">
+        <v>4913269.140625</v>
+      </c>
+      <c r="K143" s="0">
+        <v>300.022430419922</v>
+      </c>
+      <c r="L143" s="0">
+        <v>1.31990597583354E-03</v>
+      </c>
+      <c r="M143" s="0">
+        <v>0.805044430308044</v>
+      </c>
+      <c r="O143" s="0">
+        <v>27.1673873066902</v>
+      </c>
+      <c r="P143" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q143" s="0">
         <v>164.002014160156</v>
-      </c>
-      <c r="D143" s="0">
-        <v>8.15082550048828</v>
-      </c>
-      <c r="E143" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="144">
@@ -3085,14 +5833,29 @@
       <c r="B144" s="0">
         <v>808.125</v>
       </c>
-      <c r="C144" s="0">
+      <c r="I144" s="0">
+        <v>8.06775856018066</v>
+      </c>
+      <c r="J144" s="0">
+        <v>4973297.65625</v>
+      </c>
+      <c r="K144" s="0">
+        <v>300.018249511719</v>
+      </c>
+      <c r="L144" s="0">
+        <v>-4.89295925945044E-04</v>
+      </c>
+      <c r="M144" s="0">
+        <v>0.805045187007636</v>
+      </c>
+      <c r="O144" s="0">
+        <v>26.8908925354481</v>
+      </c>
+      <c r="P144" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q144" s="0">
         <v>166.002014160156</v>
-      </c>
-      <c r="D144" s="0">
-        <v>8.06775856018066</v>
-      </c>
-      <c r="E144" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="145">
@@ -3104,14 +5867,29 @@
       <c r="B145" s="0">
         <v>810.125</v>
       </c>
-      <c r="C145" s="0">
+      <c r="I145" s="0">
+        <v>7.83531713485718</v>
+      </c>
+      <c r="J145" s="0">
+        <v>5033331.640625</v>
+      </c>
+      <c r="K145" s="0">
+        <v>300.019500732422</v>
+      </c>
+      <c r="L145" s="0">
+        <v>1.11737241968513E-03</v>
+      </c>
+      <c r="M145" s="0">
+        <v>0.805045245215297</v>
+      </c>
+      <c r="O145" s="0">
+        <v>26.1160265654325</v>
+      </c>
+      <c r="P145" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q145" s="0">
         <v>168.002014160156</v>
-      </c>
-      <c r="D145" s="0">
-        <v>7.83531713485718</v>
-      </c>
-      <c r="E145" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="146">
@@ -3123,14 +5901,29 @@
       <c r="B146" s="0">
         <v>812.125</v>
       </c>
-      <c r="C146" s="0">
+      <c r="I146" s="0">
+        <v>7.90137529373169</v>
+      </c>
+      <c r="J146" s="0">
+        <v>5093365.234375</v>
+      </c>
+      <c r="K146" s="0">
+        <v>300.016235351563</v>
+      </c>
+      <c r="L146" s="0">
+        <v>-3.96478950278834E-04</v>
+      </c>
+      <c r="M146" s="0">
+        <v>0.805045303422958</v>
+      </c>
+      <c r="O146" s="0">
+        <v>26.3364929705858</v>
+      </c>
+      <c r="P146" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q146" s="0">
         <v>170.002014160156</v>
-      </c>
-      <c r="D146" s="0">
-        <v>7.90137529373169</v>
-      </c>
-      <c r="E146" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="147">
@@ -3142,14 +5935,29 @@
       <c r="B147" s="0">
         <v>814.125</v>
       </c>
-      <c r="C147" s="0">
+      <c r="I147" s="0">
+        <v>7.89947891235352</v>
+      </c>
+      <c r="J147" s="0">
+        <v>5153396.09375</v>
+      </c>
+      <c r="K147" s="0">
+        <v>300.019836425781</v>
+      </c>
+      <c r="L147" s="0">
+        <v>1.66193931363523E-03</v>
+      </c>
+      <c r="M147" s="0">
+        <v>0.805045710876584</v>
+      </c>
+      <c r="O147" s="0">
+        <v>26.329854503274</v>
+      </c>
+      <c r="P147" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q147" s="0">
         <v>172.002014160156</v>
-      </c>
-      <c r="D147" s="0">
-        <v>7.89947891235352</v>
-      </c>
-      <c r="E147" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="148">
@@ -3161,14 +5969,29 @@
       <c r="B148" s="0">
         <v>816.125</v>
       </c>
-      <c r="C148" s="0">
+      <c r="I148" s="0">
+        <v>8.20974254608154</v>
+      </c>
+      <c r="J148" s="0">
+        <v>5213430.859375</v>
+      </c>
+      <c r="K148" s="0">
+        <v>300.01904296875</v>
+      </c>
+      <c r="L148" s="0">
+        <v>-2.3767031962052E-04</v>
+      </c>
+      <c r="M148" s="0">
+        <v>0.805045536253601</v>
+      </c>
+      <c r="O148" s="0">
+        <v>27.3640714585781</v>
+      </c>
+      <c r="P148" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q148" s="0">
         <v>174.002014160156</v>
-      </c>
-      <c r="D148" s="0">
-        <v>8.20974254608154</v>
-      </c>
-      <c r="E148" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="149">
@@ -3180,14 +6003,29 @@
       <c r="B149" s="0">
         <v>818.125</v>
       </c>
-      <c r="C149" s="0">
+      <c r="I149" s="0">
+        <v>7.96197462081909</v>
+      </c>
+      <c r="J149" s="0">
+        <v>5273467.96875</v>
+      </c>
+      <c r="K149" s="0">
+        <v>300.018615722656</v>
+      </c>
+      <c r="L149" s="0">
+        <v>1.02782133035362E-03</v>
+      </c>
+      <c r="M149" s="0">
+        <v>0.805045070592314</v>
+      </c>
+      <c r="O149" s="0">
+        <v>26.5382677316666</v>
+      </c>
+      <c r="P149" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q149" s="0">
         <v>176.002014160156</v>
-      </c>
-      <c r="D149" s="0">
-        <v>7.96197462081909</v>
-      </c>
-      <c r="E149" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="150">
@@ -3199,14 +6037,29 @@
       <c r="B150" s="0">
         <v>820.125</v>
       </c>
-      <c r="C150" s="0">
+      <c r="I150" s="0">
+        <v>7.96995735168457</v>
+      </c>
+      <c r="J150" s="0">
+        <v>5333828.125</v>
+      </c>
+      <c r="K150" s="0">
+        <v>300.037811279297</v>
+      </c>
+      <c r="L150" s="0">
+        <v>3.94152040826157E-04</v>
+      </c>
+      <c r="M150" s="0">
+        <v>0.804995826911181</v>
+      </c>
+      <c r="O150" s="0">
+        <v>26.5631768852472</v>
+      </c>
+      <c r="P150" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q150" s="0">
         <v>178.002014160156</v>
-      </c>
-      <c r="D150" s="0">
-        <v>7.96995735168457</v>
-      </c>
-      <c r="E150" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="151">
@@ -3218,14 +6071,29 @@
       <c r="B151" s="0">
         <v>822.125</v>
       </c>
-      <c r="C151" s="0">
+      <c r="I151" s="0">
+        <v>7.93293380737305</v>
+      </c>
+      <c r="J151" s="0">
+        <v>5393865.234375</v>
+      </c>
+      <c r="K151" s="0">
+        <v>300.036468505859</v>
+      </c>
+      <c r="L151" s="0">
+        <v>1.4848232967779E-04</v>
+      </c>
+      <c r="M151" s="0">
+        <v>0.804995826911181</v>
+      </c>
+      <c r="O151" s="0">
+        <v>26.4398977160454</v>
+      </c>
+      <c r="P151" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q151" s="0">
         <v>180.002014160156</v>
-      </c>
-      <c r="D151" s="0">
-        <v>7.93293380737305</v>
-      </c>
-      <c r="E151" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="152">
@@ -3237,14 +6105,29 @@
       <c r="B152" s="0">
         <v>824.125</v>
       </c>
-      <c r="C152" s="0">
+      <c r="I152" s="0">
+        <v>8.1306676864624</v>
+      </c>
+      <c r="J152" s="0">
+        <v>5453910.546875</v>
+      </c>
+      <c r="K152" s="0">
+        <v>300.035278320313</v>
+      </c>
+      <c r="L152" s="0">
+        <v>1.74669525586069E-03</v>
+      </c>
+      <c r="M152" s="0">
+        <v>0.804994720965624</v>
+      </c>
+      <c r="O152" s="0">
+        <v>27.0990394055843</v>
+      </c>
+      <c r="P152" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q152" s="0">
         <v>182.002014160156</v>
-      </c>
-      <c r="D152" s="0">
-        <v>8.1306676864624</v>
-      </c>
-      <c r="E152" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="153">
@@ -3256,14 +6139,29 @@
       <c r="B153" s="0">
         <v>826.125</v>
       </c>
-      <c r="C153" s="0">
+      <c r="I153" s="0">
+        <v>7.93205547332764</v>
+      </c>
+      <c r="J153" s="0">
+        <v>5513955.859375</v>
+      </c>
+      <c r="K153" s="0">
+        <v>300.039672851563</v>
+      </c>
+      <c r="L153" s="0">
+        <v>-3.6710046697408E-03</v>
+      </c>
+      <c r="M153" s="0">
+        <v>0.804993615020067</v>
+      </c>
+      <c r="O153" s="0">
+        <v>26.4366883784533</v>
+      </c>
+      <c r="P153" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q153" s="0">
         <v>184.002014160156</v>
-      </c>
-      <c r="D153" s="0">
-        <v>7.93205547332764</v>
-      </c>
-      <c r="E153" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="154">
@@ -3275,14 +6173,29 @@
       <c r="B154" s="0">
         <v>828.125</v>
       </c>
-      <c r="C154" s="0">
+      <c r="I154" s="0">
+        <v>7.94377326965332</v>
+      </c>
+      <c r="J154" s="0">
+        <v>5573990.625</v>
+      </c>
+      <c r="K154" s="0">
+        <v>300.033996582031</v>
+      </c>
+      <c r="L154" s="0">
+        <v>-3.7020209711045E-03</v>
+      </c>
+      <c r="M154" s="0">
+        <v>0.804993964266032</v>
+      </c>
+      <c r="O154" s="0">
+        <v>26.4762435108423</v>
+      </c>
+      <c r="P154" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q154" s="0">
         <v>186.002014160156</v>
-      </c>
-      <c r="D154" s="0">
-        <v>7.94377326965332</v>
-      </c>
-      <c r="E154" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="155">
@@ -3294,14 +6207,29 @@
       <c r="B155" s="0">
         <v>830.125</v>
       </c>
-      <c r="C155" s="0">
+      <c r="I155" s="0">
+        <v>8.07647037506104</v>
+      </c>
+      <c r="J155" s="0">
+        <v>5634018.359375</v>
+      </c>
+      <c r="K155" s="0">
+        <v>300.040222167969</v>
+      </c>
+      <c r="L155" s="0">
+        <v>-5.56319719180465E-03</v>
+      </c>
+      <c r="M155" s="0">
+        <v>0.804995419457555</v>
+      </c>
+      <c r="O155" s="0">
+        <v>26.9179586321115</v>
+      </c>
+      <c r="P155" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q155" s="0">
         <v>188.002014160156</v>
-      </c>
-      <c r="D155" s="0">
-        <v>8.07647037506104</v>
-      </c>
-      <c r="E155" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="156">
@@ -3313,14 +6241,29 @@
       <c r="B156" s="0">
         <v>832.125</v>
       </c>
-      <c r="C156" s="0">
+      <c r="I156" s="0">
+        <v>7.92422008514404</v>
+      </c>
+      <c r="J156" s="0">
+        <v>5694063.671875</v>
+      </c>
+      <c r="K156" s="0">
+        <v>300.039581298828</v>
+      </c>
+      <c r="L156" s="0">
+        <v>-4.37122723087668E-03</v>
+      </c>
+      <c r="M156" s="0">
+        <v>0.804994371719658</v>
+      </c>
+      <c r="O156" s="0">
+        <v>26.4105815440416</v>
+      </c>
+      <c r="P156" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q156" s="0">
         <v>190.002014160156</v>
-      </c>
-      <c r="D156" s="0">
-        <v>7.92422008514404</v>
-      </c>
-      <c r="E156" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="157">
@@ -3332,14 +6275,29 @@
       <c r="B157" s="0">
         <v>834.125</v>
       </c>
-      <c r="C157" s="0">
+      <c r="I157" s="0">
+        <v>8.0749568939209</v>
+      </c>
+      <c r="J157" s="0">
+        <v>5754107.8125</v>
+      </c>
+      <c r="K157" s="0">
+        <v>300.038269042969</v>
+      </c>
+      <c r="L157" s="0">
+        <v>-3.32375871948898E-03</v>
+      </c>
+      <c r="M157" s="0">
+        <v>0.80499384785071</v>
+      </c>
+      <c r="O157" s="0">
+        <v>26.9130896776915</v>
+      </c>
+      <c r="P157" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q157" s="0">
         <v>192.002014160156</v>
-      </c>
-      <c r="D157" s="0">
-        <v>8.0749568939209</v>
-      </c>
-      <c r="E157" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="158">
@@ -3351,14 +6309,29 @@
       <c r="B158" s="0">
         <v>836.125</v>
       </c>
-      <c r="C158" s="0">
+      <c r="I158" s="0">
+        <v>7.91390180587769</v>
+      </c>
+      <c r="J158" s="0">
+        <v>5814147.265625</v>
+      </c>
+      <c r="K158" s="0">
+        <v>300.038421630859</v>
+      </c>
+      <c r="L158" s="0">
+        <v>2.60699703358114E-03</v>
+      </c>
+      <c r="M158" s="0">
+        <v>0.804994080681354</v>
+      </c>
+      <c r="O158" s="0">
+        <v>26.3762939721346</v>
+      </c>
+      <c r="P158" s="0">
+        <v>37.0000549316406</v>
+      </c>
+      <c r="Q158" s="0">
         <v>194.002014160156</v>
-      </c>
-      <c r="D158" s="0">
-        <v>7.91390180587769</v>
-      </c>
-      <c r="E158" s="0">
-        <v>37.0000549316406</v>
       </c>
     </row>
     <row outlineLevel="0" r="159">
@@ -3370,14 +6343,29 @@
       <c r="B159" s="0">
         <v>838.125</v>
       </c>
-      <c r="C159" s="0">
+      <c r="I159" s="0">
+        <v>7.97068071365356</v>
+      </c>
+      <c r="J159" s="0">
+        <v>5874180.859375</v>
+      </c>
+      <c r="K159" s="0">
+        <v>300.036529541016</v>
+      </c>
+      <c r="L159" s="0">
+        <v>3.50908283144236E-03</v>
+      </c>
+      <c r="M159" s="0">
+        <v>0.804994662757963</v>
+      </c>
+      <c r="O159" s="0">
+        <v>26.5657007694244</v>
+      </c>
+      <c r="P159" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q159" s="0">
         <v>196.002014160156</v>
-      </c>
-      <c r="D159" s="0">
-        <v>7.97068071365356</v>
-      </c>
-      <c r="E159" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="160">
@@ -3389,14 +6377,29 @@
       <c r="B160" s="0">
         <v>840.125</v>
       </c>
-      <c r="C160" s="0">
+      <c r="I160" s="0">
+        <v>8.0225830078125</v>
+      </c>
+      <c r="J160" s="0">
+        <v>5934209.765625</v>
+      </c>
+      <c r="K160" s="0">
+        <v>300.039276123047</v>
+      </c>
+      <c r="L160" s="0">
+        <v>5.22355257999152E-05</v>
+      </c>
+      <c r="M160" s="0">
+        <v>0.80499576870352</v>
+      </c>
+      <c r="O160" s="0">
+        <v>26.7384424805641</v>
+      </c>
+      <c r="P160" s="0">
+        <v>36.9999633789063</v>
+      </c>
+      <c r="Q160" s="0">
         <v>198.002014160156</v>
-      </c>
-      <c r="D160" s="0">
-        <v>8.0225830078125</v>
-      </c>
-      <c r="E160" s="0">
-        <v>36.9999633789063</v>
       </c>
     </row>
     <row outlineLevel="0" r="161">
@@ -3408,14 +6411,29 @@
       <c r="B161" s="0">
         <v>842.125</v>
       </c>
-      <c r="C161" s="0">
+      <c r="I161" s="0">
+        <v>7.83785247802734</v>
+      </c>
+      <c r="J161" s="0">
+        <v>5994258.59375</v>
+      </c>
+      <c r="K161" s="0">
+        <v>300.036407470703</v>
+      </c>
+      <c r="L161" s="0">
+        <v>-4.35932585969567E-03</v>
+      </c>
+      <c r="M161" s="0">
+        <v>0.804994313511997</v>
+      </c>
+      <c r="O161" s="0">
+        <v>26.1230040341616</v>
+      </c>
+      <c r="P161" s="0">
+        <v>37.0000244140625</v>
+      </c>
+      <c r="Q161" s="0">
         <v>200.002014160156</v>
-      </c>
-      <c r="D161" s="0">
-        <v>7.83785247802734</v>
-      </c>
-      <c r="E161" s="0">
-        <v>37.0000244140625</v>
       </c>
     </row>
     <row outlineLevel="0" r="162">
@@ -3427,14 +6445,29 @@
       <c r="B162" s="0">
         <v>875.835021972656</v>
       </c>
-      <c r="C162" s="0">
+      <c r="I162" s="0">
+        <v>7.92632150650024</v>
+      </c>
+      <c r="J162" s="0">
+        <v>6968593.75</v>
+      </c>
+      <c r="K162" s="0">
+        <v>300.038177490234</v>
+      </c>
+      <c r="L162" s="0">
+        <v>-1.45969947334379E-03</v>
+      </c>
+      <c r="M162" s="0">
+        <v>0.804990704637021</v>
+      </c>
+      <c r="O162" s="0">
+        <v>26.4177098870277</v>
+      </c>
+      <c r="P162" s="0">
+        <v>37.0010925292969</v>
+      </c>
+      <c r="Q162" s="0">
         <v>33.010009765625</v>
-      </c>
-      <c r="D162" s="0">
-        <v>7.92632150650024</v>
-      </c>
-      <c r="E162" s="0">
-        <v>37.0010925292969</v>
       </c>
     </row>
     <row outlineLevel="0" r="163">
@@ -3446,14 +6479,29 @@
       <c r="B163" s="0">
         <v>908.866027832031</v>
       </c>
-      <c r="C163" s="0">
+      <c r="I163" s="0">
+        <v>7.54133367538452</v>
+      </c>
+      <c r="J163" s="0">
+        <v>7892828.125</v>
+      </c>
+      <c r="K163" s="0">
+        <v>278.613891601563</v>
+      </c>
+      <c r="L163" s="0">
+        <v>3.35802370682359E-03</v>
+      </c>
+      <c r="M163" s="0">
+        <v>0.804991053882986</v>
+      </c>
+      <c r="O163" s="0">
+        <v>27.0673278719187</v>
+      </c>
+      <c r="P163" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q163" s="0">
         <v>66.041015625</v>
-      </c>
-      <c r="D163" s="0">
-        <v>7.54133367538452</v>
-      </c>
-      <c r="E163" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="164">
@@ -3465,14 +6513,29 @@
       <c r="B164" s="0">
         <v>941.89599609375</v>
       </c>
-      <c r="C164" s="0">
+      <c r="I164" s="0">
+        <v>7.29458379745483</v>
+      </c>
+      <c r="J164" s="0">
+        <v>8746202.34375</v>
+      </c>
+      <c r="K164" s="0">
+        <v>257.188903808594</v>
+      </c>
+      <c r="L164" s="0">
+        <v>1.07790781185031E-02</v>
+      </c>
+      <c r="M164" s="0">
+        <v>0.804992043413222</v>
+      </c>
+      <c r="O164" s="0">
+        <v>28.3627472817898</v>
+      </c>
+      <c r="P164" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q164" s="0">
         <v>99.0709838867188</v>
-      </c>
-      <c r="D164" s="0">
-        <v>7.29458379745483</v>
-      </c>
-      <c r="E164" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="165">
@@ -3484,14 +6547,29 @@
       <c r="B165" s="0">
         <v>974.9169921875</v>
       </c>
-      <c r="C165" s="0">
+      <c r="I165" s="0">
+        <v>6.96732139587402</v>
+      </c>
+      <c r="J165" s="0">
+        <v>9528532.8125</v>
+      </c>
+      <c r="K165" s="0">
+        <v>235.775543212891</v>
+      </c>
+      <c r="L165" s="0">
+        <v>1.08384285122156E-02</v>
+      </c>
+      <c r="M165" s="0">
+        <v>0.804956711363047</v>
+      </c>
+      <c r="O165" s="0">
+        <v>29.5506529510021</v>
+      </c>
+      <c r="P165" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q165" s="0">
         <v>132.091979980469</v>
-      </c>
-      <c r="D165" s="0">
-        <v>6.96732139587402</v>
-      </c>
-      <c r="E165" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="166">
@@ -3503,14 +6581,29 @@
       <c r="B166" s="0">
         <v>1007.94201660156</v>
       </c>
-      <c r="C166" s="0">
+      <c r="I166" s="0">
+        <v>6.64099407196045</v>
+      </c>
+      <c r="J166" s="0">
+        <v>10240642.96875</v>
+      </c>
+      <c r="K166" s="0">
+        <v>214.342193603516</v>
+      </c>
+      <c r="L166" s="0">
+        <v>6.35663280263543E-03</v>
+      </c>
+      <c r="M166" s="0">
+        <v>0.804987037554383</v>
+      </c>
+      <c r="O166" s="0">
+        <v>30.9831388294697</v>
+      </c>
+      <c r="P166" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q166" s="0">
         <v>165.117004394531</v>
-      </c>
-      <c r="D166" s="0">
-        <v>6.64099407196045</v>
-      </c>
-      <c r="E166" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="167">
@@ -3522,14 +6615,29 @@
       <c r="B167" s="0">
         <v>1040.96203613281</v>
       </c>
-      <c r="C167" s="0">
+      <c r="I167" s="0">
+        <v>6.27557182312012</v>
+      </c>
+      <c r="J167" s="0">
+        <v>10881036.71875</v>
+      </c>
+      <c r="K167" s="0">
+        <v>192.916412353516</v>
+      </c>
+      <c r="L167" s="0">
+        <v>8.7992837652564E-03</v>
+      </c>
+      <c r="M167" s="0">
+        <v>0.804992101620883</v>
+      </c>
+      <c r="O167" s="0">
+        <v>32.5300060212612</v>
+      </c>
+      <c r="P167" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q167" s="0">
         <v>198.137023925781</v>
-      </c>
-      <c r="D167" s="0">
-        <v>6.27557182312012</v>
-      </c>
-      <c r="E167" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="168">
@@ -3541,14 +6649,29 @@
       <c r="B168" s="0">
         <v>1073.99304199219</v>
       </c>
-      <c r="C168" s="0">
+      <c r="I168" s="0">
+        <v>5.95792675018311</v>
+      </c>
+      <c r="J168" s="0">
+        <v>11451153.90625</v>
+      </c>
+      <c r="K168" s="0">
+        <v>171.492980957031</v>
+      </c>
+      <c r="L168" s="0">
+        <v>8.69701243937016E-03</v>
+      </c>
+      <c r="M168" s="0">
+        <v>0.804992043413222</v>
+      </c>
+      <c r="O168" s="0">
+        <v>34.7415208816528</v>
+      </c>
+      <c r="P168" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q168" s="0">
         <v>231.168029785156</v>
-      </c>
-      <c r="D168" s="0">
-        <v>5.95792675018311</v>
-      </c>
-      <c r="E168" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="169">
@@ -3560,14 +6683,29 @@
       <c r="B169" s="0">
         <v>1107.01794433594</v>
       </c>
-      <c r="C169" s="0">
+      <c r="I169" s="0">
+        <v>5.58251237869263</v>
+      </c>
+      <c r="J169" s="0">
+        <v>11950474.21875</v>
+      </c>
+      <c r="K169" s="0">
+        <v>150.068603515625</v>
+      </c>
+      <c r="L169" s="0">
+        <v>8.57112277299166E-03</v>
+      </c>
+      <c r="M169" s="0">
+        <v>0.804990937467664</v>
+      </c>
+      <c r="O169" s="0">
+        <v>37.1997356414795</v>
+      </c>
+      <c r="P169" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q169" s="0">
         <v>264.192932128906</v>
-      </c>
-      <c r="D169" s="0">
-        <v>5.58251237869263</v>
-      </c>
-      <c r="E169" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="170">
@@ -3579,14 +6717,29 @@
       <c r="B170" s="0">
         <v>1140.03796386719</v>
       </c>
-      <c r="C170" s="0">
+      <c r="I170" s="0">
+        <v>5.21345090866089</v>
+      </c>
+      <c r="J170" s="0">
+        <v>12378932.8125</v>
+      </c>
+      <c r="K170" s="0">
+        <v>128.653121948242</v>
+      </c>
+      <c r="L170" s="0">
+        <v>5.16274524852633E-03</v>
+      </c>
+      <c r="M170" s="0">
+        <v>0.804938492365181</v>
+      </c>
+      <c r="O170" s="0">
+        <v>40.5233129858971</v>
+      </c>
+      <c r="P170" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q170" s="0">
         <v>297.212951660156</v>
-      </c>
-      <c r="D170" s="0">
-        <v>5.21345090866089</v>
-      </c>
-      <c r="E170" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="171">
@@ -3598,14 +6751,29 @@
       <c r="B171" s="0">
         <v>1173.05895996094</v>
       </c>
-      <c r="C171" s="0">
+      <c r="I171" s="0">
+        <v>4.8348069190979</v>
+      </c>
+      <c r="J171" s="0">
+        <v>12737424.21875</v>
+      </c>
+      <c r="K171" s="0">
+        <v>107.22575378418</v>
+      </c>
+      <c r="L171" s="0">
+        <v>1.32835106924176E-02</v>
+      </c>
+      <c r="M171" s="0">
+        <v>0.804950715973973</v>
+      </c>
+      <c r="O171" s="0">
+        <v>45.0899787247181</v>
+      </c>
+      <c r="P171" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q171" s="0">
         <v>330.233947753906</v>
-      </c>
-      <c r="D171" s="0">
-        <v>4.8348069190979</v>
-      </c>
-      <c r="E171" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="172">
@@ -3617,14 +6785,29 @@
       <c r="B172" s="0">
         <v>1206.07397460938</v>
       </c>
-      <c r="C172" s="0">
+      <c r="I172" s="0">
+        <v>4.34965419769287</v>
+      </c>
+      <c r="J172" s="0">
+        <v>13024078.90625</v>
+      </c>
+      <c r="K172" s="0">
+        <v>85.802131652832</v>
+      </c>
+      <c r="L172" s="0">
+        <v>3.73870437033474E-03</v>
+      </c>
+      <c r="M172" s="0">
+        <v>0.804938492365181</v>
+      </c>
+      <c r="O172" s="0">
+        <v>50.6940111517906</v>
+      </c>
+      <c r="P172" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q172" s="0">
         <v>363.248962402344</v>
-      </c>
-      <c r="D172" s="0">
-        <v>4.34965419769287</v>
-      </c>
-      <c r="E172" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="173">
@@ -3636,14 +6819,29 @@
       <c r="B173" s="0">
         <v>1239.08996582031</v>
       </c>
-      <c r="C173" s="0">
+      <c r="I173" s="0">
+        <v>3.84711098670959</v>
+      </c>
+      <c r="J173" s="0">
+        <v>13240364.0625</v>
+      </c>
+      <c r="K173" s="0">
+        <v>64.3755950927734</v>
+      </c>
+      <c r="L173" s="0">
+        <v>-2.5197291506629E-06</v>
+      </c>
+      <c r="M173" s="0">
+        <v>0.804952986072749</v>
+      </c>
+      <c r="O173" s="0">
+        <v>59.760395437479</v>
+      </c>
+      <c r="P173" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q173" s="0">
         <v>396.264953613281</v>
-      </c>
-      <c r="D173" s="0">
-        <v>3.84711098670959</v>
-      </c>
-      <c r="E173" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="174">
@@ -3655,14 +6853,29 @@
       <c r="B174" s="0">
         <v>1272.11999511719</v>
       </c>
-      <c r="C174" s="0">
+      <c r="I174" s="0">
+        <v>3.19433879852295</v>
+      </c>
+      <c r="J174" s="0">
+        <v>13385539.0625</v>
+      </c>
+      <c r="K174" s="0">
+        <v>42.9500122070313</v>
+      </c>
+      <c r="L174" s="0">
+        <v>7.29024363681674E-03</v>
+      </c>
+      <c r="M174" s="0">
+        <v>0.804956362117082</v>
+      </c>
+      <c r="O174" s="0">
+        <v>74.3734091520309</v>
+      </c>
+      <c r="P174" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q174" s="0">
         <v>429.294982910156</v>
-      </c>
-      <c r="D174" s="0">
-        <v>3.19433879852295</v>
-      </c>
-      <c r="E174" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="175">
@@ -3674,14 +6887,29 @@
       <c r="B175" s="0">
         <v>1305.13500976563</v>
       </c>
-      <c r="C175" s="0">
+      <c r="I175" s="0">
+        <v>2.32763743400574</v>
+      </c>
+      <c r="J175" s="0">
+        <v>13460001.5625</v>
+      </c>
+      <c r="K175" s="0">
+        <v>21.5255279541016</v>
+      </c>
+      <c r="L175" s="0">
+        <v>1.25327194109559E-02</v>
+      </c>
+      <c r="M175" s="0">
+        <v>0.804938434157521</v>
+      </c>
+      <c r="O175" s="0">
+        <v>108.133815228939</v>
+      </c>
+      <c r="P175" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q175" s="0">
         <v>462.309997558594</v>
-      </c>
-      <c r="D175" s="0">
-        <v>2.32763743400574</v>
-      </c>
-      <c r="E175" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="176">
@@ -3693,14 +6921,29 @@
       <c r="B176" s="0">
         <v>1338.17102050781</v>
       </c>
-      <c r="C176" s="0">
+      <c r="I176" s="0">
+        <v>2.24774051457644E-02</v>
+      </c>
+      <c r="J176" s="0">
+        <v>13464076.5625</v>
+      </c>
+      <c r="K176" s="0">
+        <v>0.100027546286583</v>
+      </c>
+      <c r="L176" s="0">
+        <v>8.64374975208193E-04</v>
+      </c>
+      <c r="M176" s="0">
+        <v>0.804953160695732</v>
+      </c>
+      <c r="O176" s="0">
+        <v>224.712148308754</v>
+      </c>
+      <c r="P176" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q176" s="0">
         <v>495.346008300781</v>
-      </c>
-      <c r="D176" s="0">
-        <v>2.24774051457644E-02</v>
-      </c>
-      <c r="E176" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="177">
@@ -3713,13 +6956,46 @@
         <v>1583.92395019531</v>
       </c>
       <c r="C177" s="0">
+        <v>0.114783011376858</v>
+      </c>
+      <c r="D177" s="0">
+        <v>8.84020421653986E-03</v>
+      </c>
+      <c r="E177" s="0">
+        <v>0.114442080259323</v>
+      </c>
+      <c r="F177" s="0">
+        <v>0.100000001490116</v>
+      </c>
+      <c r="G177" s="0">
+        <v>0.628318548202515</v>
+      </c>
+      <c r="H177" s="0">
+        <v>12.9472932815552</v>
+      </c>
+      <c r="I177" s="0">
+        <v>4.99998950958252</v>
+      </c>
+      <c r="J177" s="0">
+        <v>1813.38195800781</v>
+      </c>
+      <c r="K177" s="0">
+        <v>11.3938150405884</v>
+      </c>
+      <c r="L177" s="0">
+        <v>1.4430022565648E-04</v>
+      </c>
+      <c r="M177" s="0">
+        <v>0.80492947017774</v>
+      </c>
+      <c r="N177" s="0">
+        <v>182.682827115059</v>
+      </c>
+      <c r="P177" s="0">
+        <v>37.0009399414063</v>
+      </c>
+      <c r="Q177" s="0">
         <v>59.9989013671875</v>
-      </c>
-      <c r="D177" s="0">
-        <v>4.99998950958252</v>
-      </c>
-      <c r="E177" s="0">
-        <v>37.0009399414063</v>
       </c>
     </row>
     <row outlineLevel="0" r="178">
@@ -3732,13 +7008,46 @@
         <v>1631.57202148438</v>
       </c>
       <c r="C178" s="0">
+        <v>0.147497802972794</v>
+      </c>
+      <c r="D178" s="0">
+        <v>1.47454608231783E-02</v>
+      </c>
+      <c r="E178" s="0">
+        <v>0.146758899092674</v>
+      </c>
+      <c r="F178" s="0">
+        <v>0.125892549753189</v>
+      </c>
+      <c r="G178" s="0">
+        <v>0.791006207466125</v>
+      </c>
+      <c r="H178" s="0">
+        <v>9.94952392578125</v>
+      </c>
+      <c r="I178" s="0">
+        <v>5.00009059906006</v>
+      </c>
+      <c r="J178" s="0">
+        <v>1383.78705978394</v>
+      </c>
+      <c r="K178" s="0">
+        <v>10.9458417892456</v>
+      </c>
+      <c r="L178" s="0">
+        <v>2.25026020780206E-03</v>
+      </c>
+      <c r="M178" s="0">
+        <v>0.80488680396229</v>
+      </c>
+      <c r="N178" s="0">
+        <v>186.468586325645</v>
+      </c>
+      <c r="P178" s="0">
+        <v>36.9998718261719</v>
+      </c>
+      <c r="Q178" s="0">
         <v>107.64697265625</v>
-      </c>
-      <c r="D178" s="0">
-        <v>5.00009059906006</v>
-      </c>
-      <c r="E178" s="0">
-        <v>36.9998718261719</v>
       </c>
     </row>
     <row outlineLevel="0" r="179">
@@ -3751,13 +7060,46 @@
         <v>1669.4189453125</v>
       </c>
       <c r="C179" s="0">
+        <v>0.190538600087166</v>
+      </c>
+      <c r="D179" s="0">
+        <v>3.06892246007919E-02</v>
+      </c>
+      <c r="E179" s="0">
+        <v>0.188050866127014</v>
+      </c>
+      <c r="F179" s="0">
+        <v>0.158489316701889</v>
+      </c>
+      <c r="G179" s="0">
+        <v>0.995817720890045</v>
+      </c>
+      <c r="H179" s="0">
+        <v>6.12766456604004</v>
+      </c>
+      <c r="I179" s="0">
+        <v>5.0001163482666</v>
+      </c>
+      <c r="J179" s="0">
+        <v>1048.46210479736</v>
+      </c>
+      <c r="K179" s="0">
+        <v>10.4407711029053</v>
+      </c>
+      <c r="L179" s="0">
+        <v>-3.06001398712397E-03</v>
+      </c>
+      <c r="M179" s="0">
+        <v>0.804917304776609</v>
+      </c>
+      <c r="N179" s="0">
+        <v>191.338837146759</v>
+      </c>
+      <c r="P179" s="0">
+        <v>37.0019775390625</v>
+      </c>
+      <c r="Q179" s="0">
         <v>145.493896484375</v>
-      </c>
-      <c r="D179" s="0">
-        <v>5.0001163482666</v>
-      </c>
-      <c r="E179" s="0">
-        <v>37.0019775390625</v>
       </c>
     </row>
     <row outlineLevel="0" r="180">
@@ -3770,13 +7112,46 @@
         <v>1699.47998046875</v>
       </c>
       <c r="C180" s="0">
+        <v>0.247177913784981</v>
+      </c>
+      <c r="D180" s="0">
+        <v>6.52171224355698E-02</v>
+      </c>
+      <c r="E180" s="0">
+        <v>0.238419055938721</v>
+      </c>
+      <c r="F180" s="0">
+        <v>0.199526235461235</v>
+      </c>
+      <c r="G180" s="0">
+        <v>1.25366032123566</v>
+      </c>
+      <c r="H180" s="0">
+        <v>3.65590572357178</v>
+      </c>
+      <c r="I180" s="0">
+        <v>4.99991226196289</v>
+      </c>
+      <c r="J180" s="0">
+        <v>790.127372741699</v>
+      </c>
+      <c r="K180" s="0">
+        <v>9.90551376342773</v>
+      </c>
+      <c r="L180" s="0">
+        <v>-9.39544104039669E-03</v>
+      </c>
+      <c r="M180" s="0">
+        <v>0.804890529252589</v>
+      </c>
+      <c r="N180" s="0">
+        <v>197.164967656136</v>
+      </c>
+      <c r="P180" s="0">
+        <v>37.0009094238281</v>
+      </c>
+      <c r="Q180" s="0">
         <v>175.554931640625</v>
-      </c>
-      <c r="D180" s="0">
-        <v>4.99991226196289</v>
-      </c>
-      <c r="E180" s="0">
-        <v>37.0009094238281</v>
       </c>
     </row>
     <row outlineLevel="0" r="181">
@@ -3789,13 +7164,46 @@
         <v>1723.35705566406</v>
       </c>
       <c r="C181" s="0">
+        <v>0.32178145647049</v>
+      </c>
+      <c r="D181" s="0">
+        <v>0.113427028059959</v>
+      </c>
+      <c r="E181" s="0">
+        <v>0.301127225160599</v>
+      </c>
+      <c r="F181" s="0">
+        <v>0.251188635826111</v>
+      </c>
+      <c r="G181" s="0">
+        <v>1.57826471328735</v>
+      </c>
+      <c r="H181" s="0">
+        <v>2.65480542182922</v>
+      </c>
+      <c r="I181" s="0">
+        <v>4.99999618530273</v>
+      </c>
+      <c r="J181" s="0">
+        <v>581.374168395996</v>
+      </c>
+      <c r="K181" s="0">
+        <v>9.17562294006348</v>
+      </c>
+      <c r="L181" s="0">
+        <v>1.74616160802543E-03</v>
+      </c>
+      <c r="M181" s="0">
+        <v>0.804896641056985</v>
+      </c>
+      <c r="N181" s="0">
+        <v>203.883066773415</v>
+      </c>
+      <c r="P181" s="0">
+        <v>36.9985900878906</v>
+      </c>
+      <c r="Q181" s="0">
         <v>199.432006835938</v>
-      </c>
-      <c r="D181" s="0">
-        <v>4.99999618530273</v>
-      </c>
-      <c r="E181" s="0">
-        <v>36.9985900878906</v>
       </c>
     </row>
     <row outlineLevel="0" r="182">
@@ -3808,13 +7216,46 @@
         <v>1742.31896972656</v>
       </c>
       <c r="C182" s="0">
+        <v>0.421446084976196</v>
+      </c>
+      <c r="D182" s="0">
+        <v>0.18356542289257</v>
+      </c>
+      <c r="E182" s="0">
+        <v>0.379368603229523</v>
+      </c>
+      <c r="F182" s="0">
+        <v>0.31622776389122</v>
+      </c>
+      <c r="G182" s="0">
+        <v>1.98691761493683</v>
+      </c>
+      <c r="H182" s="0">
+        <v>2.06668901443481</v>
+      </c>
+      <c r="I182" s="0">
+        <v>4.99983835220337</v>
+      </c>
+      <c r="J182" s="0">
+        <v>416.019725799561</v>
+      </c>
+      <c r="K182" s="0">
+        <v>8.26596927642822</v>
+      </c>
+      <c r="L182" s="0">
+        <v>-3.06669971905649E-03</v>
+      </c>
+      <c r="M182" s="0">
+        <v>0.804897455964237</v>
+      </c>
+      <c r="N182" s="0">
+        <v>212.110489606857</v>
+      </c>
+      <c r="P182" s="0">
+        <v>36.997216796875</v>
+      </c>
+      <c r="Q182" s="0">
         <v>218.393920898438</v>
-      </c>
-      <c r="D182" s="0">
-        <v>4.99983835220337</v>
-      </c>
-      <c r="E182" s="0">
-        <v>36.997216796875</v>
       </c>
     </row>
     <row outlineLevel="0" r="183">
@@ -3827,13 +7268,46 @@
         <v>1757.38000488281</v>
       </c>
       <c r="C183" s="0">
+        <v>0.551163017749786</v>
+      </c>
+      <c r="D183" s="0">
+        <v>0.287576764822006</v>
+      </c>
+      <c r="E183" s="0">
+        <v>0.470191717147827</v>
+      </c>
+      <c r="F183" s="0">
+        <v>0.398107200860977</v>
+      </c>
+      <c r="G183" s="0">
+        <v>2.50138139724731</v>
+      </c>
+      <c r="H183" s="0">
+        <v>1.63502299785614</v>
+      </c>
+      <c r="I183" s="0">
+        <v>4.99997615814209</v>
+      </c>
+      <c r="J183" s="0">
+        <v>289.849781990051</v>
+      </c>
+      <c r="K183" s="0">
+        <v>7.25024843215942</v>
+      </c>
+      <c r="L183" s="0">
+        <v>2.9108349699527E-03</v>
+      </c>
+      <c r="M183" s="0">
+        <v>0.804899085778743</v>
+      </c>
+      <c r="N183" s="0">
+        <v>220.343440771103</v>
+      </c>
+      <c r="P183" s="0">
+        <v>36.9981628417969</v>
+      </c>
+      <c r="Q183" s="0">
         <v>233.454956054688</v>
-      </c>
-      <c r="D183" s="0">
-        <v>4.99997615814209</v>
-      </c>
-      <c r="E183" s="0">
-        <v>36.9981628417969</v>
       </c>
     </row>
     <row outlineLevel="0" r="184">
@@ -3846,13 +7320,46 @@
         <v>1789.2939453125</v>
       </c>
       <c r="C184" s="0">
+        <v>0.71614944934845</v>
+      </c>
+      <c r="D184" s="0">
+        <v>0.430313110351563</v>
+      </c>
+      <c r="E184" s="0">
+        <v>0.572451412677765</v>
+      </c>
+      <c r="F184" s="0">
+        <v>0.501187205314636</v>
+      </c>
+      <c r="G184" s="0">
+        <v>3.14905214309692</v>
+      </c>
+      <c r="H184" s="0">
+        <v>1.33030545711517</v>
+      </c>
+      <c r="I184" s="0">
+        <v>4.99973058700562</v>
+      </c>
+      <c r="J184" s="0">
+        <v>195.72080373764</v>
+      </c>
+      <c r="K184" s="0">
+        <v>6.16335010528564</v>
+      </c>
+      <c r="L184" s="0">
+        <v>4.14050836116076E-03</v>
+      </c>
+      <c r="M184" s="0">
+        <v>0.804891053121537</v>
+      </c>
+      <c r="N184" s="0">
+        <v>227.417454123497</v>
+      </c>
+      <c r="P184" s="0">
+        <v>37.001123046875</v>
+      </c>
+      <c r="Q184" s="0">
         <v>265.368896484375</v>
-      </c>
-      <c r="D184" s="0">
-        <v>4.99973058700562</v>
-      </c>
-      <c r="E184" s="0">
-        <v>37.001123046875</v>
       </c>
     </row>
     <row outlineLevel="0" r="185">
@@ -3865,13 +7372,46 @@
         <v>1814.64099121094</v>
       </c>
       <c r="C185" s="0">
+        <v>0.904808342456818</v>
+      </c>
+      <c r="D185" s="0">
+        <v>0.596160113811493</v>
+      </c>
+      <c r="E185" s="0">
+        <v>0.680640339851379</v>
+      </c>
+      <c r="F185" s="0">
+        <v>0.630957365036011</v>
+      </c>
+      <c r="G185" s="0">
+        <v>3.96442198753357</v>
+      </c>
+      <c r="H185" s="0">
+        <v>1.14171290397644</v>
+      </c>
+      <c r="I185" s="0">
+        <v>4.99998617172241</v>
+      </c>
+      <c r="J185" s="0">
+        <v>127.761650085449</v>
+      </c>
+      <c r="K185" s="0">
+        <v>5.0650110244751</v>
+      </c>
+      <c r="L185" s="0">
+        <v>-8.42302921228111E-04</v>
+      </c>
+      <c r="M185" s="0">
+        <v>0.804901123046875</v>
+      </c>
+      <c r="N185" s="0">
+        <v>228.232100605965</v>
+      </c>
+      <c r="P185" s="0">
+        <v>36.9998718261719</v>
+      </c>
+      <c r="Q185" s="0">
         <v>290.715942382813</v>
-      </c>
-      <c r="D185" s="0">
-        <v>4.99998617172241</v>
-      </c>
-      <c r="E185" s="0">
-        <v>36.9998718261719</v>
       </c>
     </row>
     <row outlineLevel="0" r="186">
@@ -3884,13 +7424,46 @@
         <v>1834.77404785156</v>
       </c>
       <c r="C186" s="0">
+        <v>1.10103857517242</v>
+      </c>
+      <c r="D186" s="0">
+        <v>0.774089813232422</v>
+      </c>
+      <c r="E186" s="0">
+        <v>0.782988429069519</v>
+      </c>
+      <c r="F186" s="0">
+        <v>0.794328331947327</v>
+      </c>
+      <c r="G186" s="0">
+        <v>4.99091196060181</v>
+      </c>
+      <c r="H186" s="0">
+        <v>1.01150250434875</v>
+      </c>
+      <c r="I186" s="0">
+        <v>5.00017213821411</v>
+      </c>
+      <c r="J186" s="0">
+        <v>81.3228011131287</v>
+      </c>
+      <c r="K186" s="0">
+        <v>4.05874919891357</v>
+      </c>
+      <c r="L186" s="0">
+        <v>-2.94557097367942E-03</v>
+      </c>
+      <c r="M186" s="0">
+        <v>0.804896815679967</v>
+      </c>
+      <c r="N186" s="0">
+        <v>220.608696341515</v>
+      </c>
+      <c r="P186" s="0">
+        <v>37.0007873535156</v>
+      </c>
+      <c r="Q186" s="0">
         <v>310.848999023438</v>
-      </c>
-      <c r="D186" s="0">
-        <v>5.00017213821411</v>
-      </c>
-      <c r="E186" s="0">
-        <v>37.0007873535156</v>
       </c>
     </row>
     <row outlineLevel="0" r="187">
@@ -3903,13 +7476,46 @@
         <v>1850.76403808594</v>
       </c>
       <c r="C187" s="0">
+        <v>1.30708801746368</v>
+      </c>
+      <c r="D187" s="0">
+        <v>0.960674941539764</v>
+      </c>
+      <c r="E187" s="0">
+        <v>0.886331081390381</v>
+      </c>
+      <c r="F187" s="0">
+        <v>1</v>
+      </c>
+      <c r="G187" s="0">
+        <v>6.28318548202515</v>
+      </c>
+      <c r="H187" s="0">
+        <v>0.92261528968811</v>
+      </c>
+      <c r="I187" s="0">
+        <v>4.99958992004395</v>
+      </c>
+      <c r="J187" s="0">
+        <v>51.01518034935</v>
+      </c>
+      <c r="K187" s="0">
+        <v>3.20537829399109</v>
+      </c>
+      <c r="L187" s="0">
+        <v>-2.16493429616094E-03</v>
+      </c>
+      <c r="M187" s="0">
+        <v>0.804890820290893</v>
+      </c>
+      <c r="N187" s="0">
+        <v>208.029523491859</v>
+      </c>
+      <c r="P187" s="0">
+        <v>37.0021606445313</v>
+      </c>
+      <c r="Q187" s="0">
         <v>326.838989257813</v>
-      </c>
-      <c r="D187" s="0">
-        <v>4.99958992004395</v>
-      </c>
-      <c r="E187" s="0">
-        <v>37.0021606445313</v>
       </c>
     </row>
     <row outlineLevel="0" r="188">
@@ -3922,13 +7528,46 @@
         <v>1863.46496582031</v>
       </c>
       <c r="C188" s="0">
+        <v>1.53408300876617</v>
+      </c>
+      <c r="D188" s="0">
+        <v>1.17108631134033</v>
+      </c>
+      <c r="E188" s="0">
+        <v>0.990942716598511</v>
+      </c>
+      <c r="F188" s="0">
+        <v>1.25892543792725</v>
+      </c>
+      <c r="G188" s="0">
+        <v>7.91006183624268</v>
+      </c>
+      <c r="H188" s="0">
+        <v>0.846175789833069</v>
+      </c>
+      <c r="I188" s="0">
+        <v>4.99937343597412</v>
+      </c>
+      <c r="J188" s="0">
+        <v>31.8590581417084</v>
+      </c>
+      <c r="K188" s="0">
+        <v>2.52007126808167</v>
+      </c>
+      <c r="L188" s="0">
+        <v>4.57785121398047E-04</v>
+      </c>
+      <c r="M188" s="0">
+        <v>0.804890645667911</v>
+      </c>
+      <c r="N188" s="0">
+        <v>193.940699100494</v>
+      </c>
+      <c r="P188" s="0">
+        <v>37.0010620117188</v>
+      </c>
+      <c r="Q188" s="0">
         <v>339.539916992188</v>
-      </c>
-      <c r="D188" s="0">
-        <v>4.99937343597412</v>
-      </c>
-      <c r="E188" s="0">
-        <v>37.0010620117188</v>
       </c>
     </row>
     <row outlineLevel="0" r="189">
@@ -3941,13 +7580,46 @@
         <v>1873.54895019531</v>
       </c>
       <c r="C189" s="0">
+        <v>1.79988253116608</v>
+      </c>
+      <c r="D189" s="0">
+        <v>1.42968463897705</v>
+      </c>
+      <c r="E189" s="0">
+        <v>1.09342527389526</v>
+      </c>
+      <c r="F189" s="0">
+        <v>1.58489334583282</v>
+      </c>
+      <c r="G189" s="0">
+        <v>9.95817852020264</v>
+      </c>
+      <c r="H189" s="0">
+        <v>0.764814913272858</v>
+      </c>
+      <c r="I189" s="0">
+        <v>4.99999713897705</v>
+      </c>
+      <c r="J189" s="0">
+        <v>19.9009522795677</v>
+      </c>
+      <c r="K189" s="0">
+        <v>1.98177230358124</v>
+      </c>
+      <c r="L189" s="0">
+        <v>2.12334957905114E-03</v>
+      </c>
+      <c r="M189" s="0">
+        <v>0.804896466434002</v>
+      </c>
+      <c r="N189" s="0">
+        <v>180.744141340256</v>
+      </c>
+      <c r="P189" s="0">
+        <v>36.9993530273438</v>
+      </c>
+      <c r="Q189" s="0">
         <v>349.623901367188</v>
-      </c>
-      <c r="D189" s="0">
-        <v>4.99999713897705</v>
-      </c>
-      <c r="E189" s="0">
-        <v>36.9993530273438</v>
       </c>
     </row>
     <row outlineLevel="0" r="190">
@@ -3960,13 +7632,46 @@
         <v>1881.55700683594</v>
       </c>
       <c r="C190" s="0">
+        <v>2.0787353515625</v>
+      </c>
+      <c r="D190" s="0">
+        <v>1.705322265625</v>
+      </c>
+      <c r="E190" s="0">
+        <v>1.18870365619659</v>
+      </c>
+      <c r="F190" s="0">
+        <v>1.99526262283325</v>
+      </c>
+      <c r="G190" s="0">
+        <v>12.5366048812866</v>
+      </c>
+      <c r="H190" s="0">
+        <v>0.697077095508575</v>
+      </c>
+      <c r="I190" s="0">
+        <v>4.99906826019287</v>
+      </c>
+      <c r="J190" s="0">
+        <v>12.4280005693436</v>
+      </c>
+      <c r="K190" s="0">
+        <v>1.55804932117462</v>
+      </c>
+      <c r="L190" s="0">
+        <v>8.53844976518303E-04</v>
+      </c>
+      <c r="M190" s="0">
+        <v>0.804896757472306</v>
+      </c>
+      <c r="N190" s="0">
+        <v>165.813252329826</v>
+      </c>
+      <c r="P190" s="0">
+        <v>36.9997497558594</v>
+      </c>
+      <c r="Q190" s="0">
         <v>357.631958007813</v>
-      </c>
-      <c r="D190" s="0">
-        <v>4.99906826019287</v>
-      </c>
-      <c r="E190" s="0">
-        <v>36.9997497558594</v>
       </c>
     </row>
     <row outlineLevel="0" r="191">
@@ -3979,13 +7684,46 @@
         <v>1887.9169921875</v>
       </c>
       <c r="C191" s="0">
+        <v>2.4455840587616</v>
+      </c>
+      <c r="D191" s="0">
+        <v>2.10428404808044</v>
+      </c>
+      <c r="E191" s="0">
+        <v>1.24614202976227</v>
+      </c>
+      <c r="F191" s="0">
+        <v>2.51188635826111</v>
+      </c>
+      <c r="G191" s="0">
+        <v>15.7826471328735</v>
+      </c>
+      <c r="H191" s="0">
+        <v>0.59235030412674</v>
+      </c>
+      <c r="I191" s="0">
+        <v>4.99874448776245</v>
+      </c>
+      <c r="J191" s="0">
+        <v>7.78520926833153</v>
+      </c>
+      <c r="K191" s="0">
+        <v>1.22871208190918</v>
+      </c>
+      <c r="L191" s="0">
+        <v>1.0083633242175E-03</v>
+      </c>
+      <c r="M191" s="0">
+        <v>0.804896699264646</v>
+      </c>
+      <c r="N191" s="0">
+        <v>154.953986406326</v>
+      </c>
+      <c r="P191" s="0">
+        <v>36.9990478515625</v>
+      </c>
+      <c r="Q191" s="0">
         <v>363.991943359375</v>
-      </c>
-      <c r="D191" s="0">
-        <v>4.99874448776245</v>
-      </c>
-      <c r="E191" s="0">
-        <v>36.9990478515625</v>
       </c>
     </row>
     <row outlineLevel="0" r="192">
@@ -3998,13 +7736,46 @@
         <v>1892.96594238281</v>
       </c>
       <c r="C192" s="0">
+        <v>2.95546388626099</v>
+      </c>
+      <c r="D192" s="0">
+        <v>2.6924991607666</v>
+      </c>
+      <c r="E192" s="0">
+        <v>1.2186940908432</v>
+      </c>
+      <c r="F192" s="0">
+        <v>3.16227769851685</v>
+      </c>
+      <c r="G192" s="0">
+        <v>19.869176864624</v>
+      </c>
+      <c r="H192" s="0">
+        <v>0.453180462121964</v>
+      </c>
+      <c r="I192" s="0">
+        <v>4.99849653244019</v>
+      </c>
+      <c r="J192" s="0">
+        <v>4.8872496932745</v>
+      </c>
+      <c r="K192" s="0">
+        <v>0.971056282520294</v>
+      </c>
+      <c r="L192" s="0">
+        <v>-5.39013417437673E-03</v>
+      </c>
+      <c r="M192" s="0">
+        <v>0.804897048510611</v>
+      </c>
+      <c r="N192" s="0">
+        <v>148.746162652969</v>
+      </c>
+      <c r="P192" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q192" s="0">
         <v>369.040893554688</v>
-      </c>
-      <c r="D192" s="0">
-        <v>4.99849653244019</v>
-      </c>
-      <c r="E192" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="193">
@@ -4017,13 +7788,46 @@
         <v>1896.97399902344</v>
       </c>
       <c r="C193" s="0">
+        <v>3.60384440422058</v>
+      </c>
+      <c r="D193" s="0">
+        <v>3.41071200370789</v>
+      </c>
+      <c r="E193" s="0">
+        <v>1.1639324426651</v>
+      </c>
+      <c r="F193" s="0">
+        <v>3.98107194900513</v>
+      </c>
+      <c r="G193" s="0">
+        <v>25.0138130187988</v>
+      </c>
+      <c r="H193" s="0">
+        <v>0.339898198843002</v>
+      </c>
+      <c r="I193" s="0">
+        <v>4.99806690216064</v>
+      </c>
+      <c r="J193" s="0">
+        <v>3.06928753852844</v>
+      </c>
+      <c r="K193" s="0">
+        <v>0.767745852470398</v>
+      </c>
+      <c r="L193" s="0">
+        <v>-8.78596771508455E-03</v>
+      </c>
+      <c r="M193" s="0">
+        <v>0.804896582849324</v>
+      </c>
+      <c r="N193" s="0">
+        <v>144.07417178154</v>
+      </c>
+      <c r="P193" s="0">
+        <v>37.0011840820313</v>
+      </c>
+      <c r="Q193" s="0">
         <v>373.048950195313</v>
-      </c>
-      <c r="D193" s="0">
-        <v>4.99806690216064</v>
-      </c>
-      <c r="E193" s="0">
-        <v>37.0011840820313</v>
       </c>
     </row>
     <row outlineLevel="0" r="194">
@@ -4036,13 +7840,46 @@
         <v>1904.34594726563</v>
       </c>
       <c r="C194" s="0">
+        <v>4.04188060760498</v>
+      </c>
+      <c r="D194" s="0">
+        <v>3.99253702163696</v>
+      </c>
+      <c r="E194" s="0">
+        <v>0.629640161991119</v>
+      </c>
+      <c r="F194" s="0">
+        <v>5.0118727684021</v>
+      </c>
+      <c r="G194" s="0">
+        <v>31.4905261993408</v>
+      </c>
+      <c r="H194" s="0">
+        <v>0.164854347705841</v>
+      </c>
+      <c r="I194" s="0">
+        <v>4.99756717681885</v>
+      </c>
+      <c r="J194" s="0">
+        <v>1.92670021206141</v>
+      </c>
+      <c r="K194" s="0">
+        <v>0.60672801733017</v>
+      </c>
+      <c r="L194" s="0">
+        <v>-1.00072026252747E-02</v>
+      </c>
+      <c r="M194" s="0">
+        <v>0.804895651526749</v>
+      </c>
+      <c r="N194" s="0">
+        <v>128.352269530296</v>
+      </c>
+      <c r="P194" s="0">
+        <v>37.0009399414063</v>
+      </c>
+      <c r="Q194" s="0">
         <v>380.4208984375</v>
-      </c>
-      <c r="D194" s="0">
-        <v>4.99756717681885</v>
-      </c>
-      <c r="E194" s="0">
-        <v>37.0009399414063</v>
       </c>
     </row>
     <row outlineLevel="0" r="195">
@@ -4055,13 +7892,46 @@
         <v>1910.19995117188</v>
       </c>
       <c r="C195" s="0">
+        <v>2.17165184020996</v>
+      </c>
+      <c r="D195" s="0">
+        <v>2.04580760002136</v>
+      </c>
+      <c r="E195" s="0">
+        <v>0.728521406650543</v>
+      </c>
+      <c r="F195" s="0">
+        <v>6.30957460403442</v>
+      </c>
+      <c r="G195" s="0">
+        <v>39.6442260742188</v>
+      </c>
+      <c r="H195" s="0">
+        <v>0.624929487705231</v>
+      </c>
+      <c r="I195" s="0">
+        <v>4.99689483642578</v>
+      </c>
+      <c r="J195" s="0">
+        <v>1.20289828628302</v>
+      </c>
+      <c r="K195" s="0">
+        <v>0.476879715919495</v>
+      </c>
+      <c r="L195" s="0">
+        <v>-8.00479855388403E-03</v>
+      </c>
+      <c r="M195" s="0">
+        <v>0.80488552339375</v>
+      </c>
+      <c r="N195" s="0">
+        <v>54.778516292572</v>
+      </c>
+      <c r="P195" s="0">
+        <v>37.0012756347656</v>
+      </c>
+      <c r="Q195" s="0">
         <v>386.27490234375</v>
-      </c>
-      <c r="D195" s="0">
-        <v>4.99689483642578</v>
-      </c>
-      <c r="E195" s="0">
-        <v>37.0012756347656</v>
       </c>
     </row>
     <row outlineLevel="0" r="196">
@@ -4074,13 +7944,46 @@
         <v>1914.84802246094</v>
       </c>
       <c r="C196" s="0">
+        <v>10.6579914093018</v>
+      </c>
+      <c r="D196" s="0">
+        <v>10.4174423217773</v>
+      </c>
+      <c r="E196" s="0">
+        <v>2.25159311294556</v>
+      </c>
+      <c r="F196" s="0">
+        <v>7.94328212738037</v>
+      </c>
+      <c r="G196" s="0">
+        <v>49.9091148376465</v>
+      </c>
+      <c r="H196" s="0">
+        <v>0.31129378080368</v>
+      </c>
+      <c r="I196" s="0">
+        <v>4.99598169326782</v>
+      </c>
+      <c r="J196" s="0">
+        <v>0.767007051035762</v>
+      </c>
+      <c r="K196" s="0">
+        <v>0.382806420326233</v>
+      </c>
+      <c r="L196" s="0">
+        <v>-7.36212125048041E-03</v>
+      </c>
+      <c r="M196" s="0">
+        <v>0.804898561909795</v>
+      </c>
+      <c r="N196" s="0">
+        <v>213.547989726067</v>
+      </c>
+      <c r="P196" s="0">
+        <v>36.9989562988281</v>
+      </c>
+      <c r="Q196" s="0">
         <v>390.922973632813</v>
-      </c>
-      <c r="D196" s="0">
-        <v>4.99598169326782</v>
-      </c>
-      <c r="E196" s="0">
-        <v>36.9989562988281</v>
       </c>
     </row>
     <row outlineLevel="0" r="197">
@@ -4093,13 +7996,46 @@
         <v>1918.53796386719</v>
       </c>
       <c r="C197" s="0">
+        <v>8.52205181121826</v>
+      </c>
+      <c r="D197" s="0">
+        <v>7.24170255661011</v>
+      </c>
+      <c r="E197" s="0">
+        <v>4.49256134033203</v>
+      </c>
+      <c r="F197" s="0">
+        <v>10</v>
+      </c>
+      <c r="G197" s="0">
+        <v>62.8318519592285</v>
+      </c>
+      <c r="H197" s="0">
+        <v>3.10179233551025</v>
+      </c>
+      <c r="I197" s="0">
+        <v>4.99501037597656</v>
+      </c>
+      <c r="J197" s="0">
+        <v>0.476965634152293</v>
+      </c>
+      <c r="K197" s="0">
+        <v>0.299686342477798</v>
+      </c>
+      <c r="L197" s="0">
+        <v>-8.83063580840826E-03</v>
+      </c>
+      <c r="M197" s="0">
+        <v>0.804897455964237</v>
+      </c>
+      <c r="N197" s="0">
+        <v>135.632663965225</v>
+      </c>
+      <c r="P197" s="0">
+        <v>37.0006958007813</v>
+      </c>
+      <c r="Q197" s="0">
         <v>394.612915039063</v>
-      </c>
-      <c r="D197" s="0">
-        <v>4.99501037597656</v>
-      </c>
-      <c r="E197" s="0">
-        <v>37.0006958007813</v>
       </c>
     </row>
     <row outlineLevel="0" r="198">
@@ -4112,13 +8048,46 @@
         <v>1921.46594238281</v>
       </c>
       <c r="C198" s="0">
+        <v>43.9665069580078</v>
+      </c>
+      <c r="D198" s="0">
+        <v>43.5269889831543</v>
+      </c>
+      <c r="E198" s="0">
+        <v>6.20121049880981</v>
+      </c>
+      <c r="F198" s="0">
+        <v>12.5892581939697</v>
+      </c>
+      <c r="G198" s="0">
+        <v>79.1006393432617</v>
+      </c>
+      <c r="H198" s="0">
+        <v>0.704704523086548</v>
+      </c>
+      <c r="I198" s="0">
+        <v>4.99361658096313</v>
+      </c>
+      <c r="J198" s="0">
+        <v>0.307895336300135</v>
+      </c>
+      <c r="K198" s="0">
+        <v>0.243547186255455</v>
+      </c>
+      <c r="L198" s="0">
+        <v>-9.04797203838825E-03</v>
+      </c>
+      <c r="M198" s="0">
+        <v>0.804895360488445</v>
+      </c>
+      <c r="N198" s="0">
+        <v>555.830001831055</v>
+      </c>
+      <c r="P198" s="0">
+        <v>37.0006652832031</v>
+      </c>
+      <c r="Q198" s="0">
         <v>397.540893554688</v>
-      </c>
-      <c r="D198" s="0">
-        <v>4.99361658096313</v>
-      </c>
-      <c r="E198" s="0">
-        <v>37.0006652832031</v>
       </c>
     </row>
     <row outlineLevel="0" r="199">
@@ -4131,13 +8100,46 @@
         <v>1923.7900390625</v>
       </c>
       <c r="C199" s="0">
+        <v>11.9495906829834</v>
+      </c>
+      <c r="D199" s="0">
+        <v>1.19495755061507E-02</v>
+      </c>
+      <c r="E199" s="0">
+        <v>11.9495849609375</v>
+      </c>
+      <c r="F199" s="0">
+        <v>15.8489332199097</v>
+      </c>
+      <c r="G199" s="0">
+        <v>99.581787109375</v>
+      </c>
+      <c r="H199" s="0">
+        <v>1774.00244140625</v>
+      </c>
+      <c r="I199" s="0">
+        <v>4.99193334579468</v>
+      </c>
+      <c r="J199" s="0">
+        <v>0.186327879782766</v>
+      </c>
+      <c r="K199" s="0">
+        <v>0.185548633337021</v>
+      </c>
+      <c r="L199" s="0">
+        <v>-6.15966646000743E-03</v>
+      </c>
+      <c r="M199" s="0">
+        <v>0.804893963504583</v>
+      </c>
+      <c r="N199" s="0">
+        <v>119.997754693031</v>
+      </c>
+      <c r="P199" s="0">
+        <v>37.0003601074219</v>
+      </c>
+      <c r="Q199" s="0">
         <v>399.864990234375</v>
-      </c>
-      <c r="D199" s="0">
-        <v>4.99193334579468</v>
-      </c>
-      <c r="E199" s="0">
-        <v>37.0003601074219</v>
       </c>
     </row>
     <row outlineLevel="0" r="200">
@@ -4150,13 +8152,46 @@
         <v>1925.63403320313</v>
       </c>
       <c r="C200" s="0">
+        <v>202.818344116211</v>
+      </c>
+      <c r="D200" s="0">
+        <v>196.093826293945</v>
+      </c>
+      <c r="E200" s="0">
+        <v>51.7927742004395</v>
+      </c>
+      <c r="F200" s="0">
+        <v>19.9526214599609</v>
+      </c>
+      <c r="G200" s="0">
+        <v>125.366020202637</v>
+      </c>
+      <c r="H200" s="0">
+        <v>0.235223710536957</v>
+      </c>
+      <c r="I200" s="0">
+        <v>4.98980951309204</v>
+      </c>
+      <c r="J200" s="0">
+        <v>0.12544704368338</v>
+      </c>
+      <c r="K200" s="0">
+        <v>0.157267972826958</v>
+      </c>
+      <c r="L200" s="0">
+        <v>-7.72392423823476E-03</v>
+      </c>
+      <c r="M200" s="0">
+        <v>0.804896582849324</v>
+      </c>
+      <c r="N200" s="0">
+        <v>1617.80953407288</v>
+      </c>
+      <c r="P200" s="0">
+        <v>37.0013366699219</v>
+      </c>
+      <c r="Q200" s="0">
         <v>401.708984375</v>
-      </c>
-      <c r="D200" s="0">
-        <v>4.98980951309204</v>
-      </c>
-      <c r="E200" s="0">
-        <v>37.0013366699219</v>
       </c>
     </row>
     <row outlineLevel="0" r="201">
@@ -4169,13 +8204,46 @@
         <v>1928.41101074219</v>
       </c>
       <c r="C201" s="0">
+        <v>184.433837890625</v>
+      </c>
+      <c r="D201" s="0">
+        <v>159.936233520508</v>
+      </c>
+      <c r="E201" s="0">
+        <v>91.849006652832</v>
+      </c>
+      <c r="F201" s="0">
+        <v>25.1188697814941</v>
+      </c>
+      <c r="G201" s="0">
+        <v>157.826507568359</v>
+      </c>
+      <c r="H201" s="0">
+        <v>0.529164433479309</v>
+      </c>
+      <c r="I201" s="0">
+        <v>4.98705101013184</v>
+      </c>
+      <c r="J201" s="0">
+        <v>7.72674160543829E-02</v>
+      </c>
+      <c r="K201" s="0">
+        <v>0.121948465704918</v>
+      </c>
+      <c r="L201" s="0">
+        <v>-9.08625591546297E-03</v>
+      </c>
+      <c r="M201" s="0">
+        <v>0.804895360488445</v>
+      </c>
+      <c r="N201" s="0">
+        <v>1168.585896492</v>
+      </c>
+      <c r="P201" s="0">
+        <v>37.0003601074219</v>
+      </c>
+      <c r="Q201" s="0">
         <v>404.485961914063</v>
-      </c>
-      <c r="D201" s="0">
-        <v>4.98705101013184</v>
-      </c>
-      <c r="E201" s="0">
-        <v>37.0003601074219</v>
       </c>
     </row>
     <row outlineLevel="0" r="202">
@@ -4188,13 +8256,46 @@
         <v>1930.61499023438</v>
       </c>
       <c r="C202" s="0">
+        <v>743.917907714844</v>
+      </c>
+      <c r="D202" s="0">
+        <v>509.355316162109</v>
+      </c>
+      <c r="E202" s="0">
+        <v>542.190979003906</v>
+      </c>
+      <c r="F202" s="0">
+        <v>31.6227760314941</v>
+      </c>
+      <c r="G202" s="0">
+        <v>198.691757202148</v>
+      </c>
+      <c r="H202" s="0">
+        <v>0.991070508956909</v>
+      </c>
+      <c r="I202" s="0">
+        <v>4.98358345031738</v>
+      </c>
+      <c r="J202" s="0">
+        <v>4.99026908073574E-02</v>
+      </c>
+      <c r="K202" s="0">
+        <v>0.099152535200119</v>
+      </c>
+      <c r="L202" s="0">
+        <v>-9.15563851594925E-03</v>
+      </c>
+      <c r="M202" s="0">
+        <v>0.804894138127565</v>
+      </c>
+      <c r="N202" s="0">
+        <v>3744.08054351807</v>
+      </c>
+      <c r="P202" s="0">
+        <v>36.9999938964844</v>
+      </c>
+      <c r="Q202" s="0">
         <v>406.68994140625</v>
-      </c>
-      <c r="D202" s="0">
-        <v>4.98358345031738</v>
-      </c>
-      <c r="E202" s="0">
-        <v>36.9999938964844</v>
       </c>
     </row>
     <row outlineLevel="0" r="203">
@@ -4207,13 +8308,46 @@
         <v>1932.36303710938</v>
       </c>
       <c r="C203" s="0">
+        <v>2570.50634765625</v>
+      </c>
+      <c r="D203" s="0">
+        <v>1348.65014648438</v>
+      </c>
+      <c r="E203" s="0">
+        <v>2188.29736328125</v>
+      </c>
+      <c r="F203" s="0">
+        <v>39.8107299804688</v>
+      </c>
+      <c r="G203" s="0">
+        <v>250.138198852539</v>
+      </c>
+      <c r="H203" s="0">
+        <v>1.87075507640839</v>
+      </c>
+      <c r="I203" s="0">
+        <v>4.97899627685547</v>
+      </c>
+      <c r="J203" s="0">
+        <v>3.23326152283698E-02</v>
+      </c>
+      <c r="K203" s="0">
+        <v>8.08762237429619E-02</v>
+      </c>
+      <c r="L203" s="0">
+        <v>-9.14102420210838E-03</v>
+      </c>
+      <c r="M203" s="0">
+        <v>0.804893847089261</v>
+      </c>
+      <c r="N203" s="0">
+        <v>10276.3442993164</v>
+      </c>
+      <c r="P203" s="0">
+        <v>37.0004516601563</v>
+      </c>
+      <c r="Q203" s="0">
         <v>408.43798828125</v>
-      </c>
-      <c r="D203" s="0">
-        <v>4.97899627685547</v>
-      </c>
-      <c r="E203" s="0">
-        <v>37.0004516601563</v>
       </c>
     </row>
     <row outlineLevel="0" r="204">
@@ -4226,13 +8360,46 @@
         <v>1933.7490234375</v>
       </c>
       <c r="C204" s="0">
+        <v>8150.96923828125</v>
+      </c>
+      <c r="D204" s="0">
+        <v>5815.0927734375</v>
+      </c>
+      <c r="E204" s="0">
+        <v>5711.654296875</v>
+      </c>
+      <c r="F204" s="0">
+        <v>50.1187286376953</v>
+      </c>
+      <c r="G204" s="0">
+        <v>314.9052734375</v>
+      </c>
+      <c r="H204" s="0">
+        <v>0.991350769996643</v>
+      </c>
+      <c r="I204" s="0">
+        <v>4.97307252883911</v>
+      </c>
+      <c r="J204" s="0">
+        <v>2.33146129176021E-02</v>
+      </c>
+      <c r="K204" s="0">
+        <v>7.34189450740814E-02</v>
+      </c>
+      <c r="L204" s="0">
+        <v>-1.08239762485027E-02</v>
+      </c>
+      <c r="M204" s="0">
+        <v>0.804893905296922</v>
+      </c>
+      <c r="N204" s="0">
+        <v>25883.8768005371</v>
+      </c>
+      <c r="P204" s="0">
+        <v>36.9999328613281</v>
+      </c>
+      <c r="Q204" s="0">
         <v>409.823974609375</v>
-      </c>
-      <c r="D204" s="0">
-        <v>4.97307252883911</v>
-      </c>
-      <c r="E204" s="0">
-        <v>36.9999328613281</v>
       </c>
     </row>
     <row outlineLevel="0" r="205">
@@ -4245,13 +8412,46 @@
         <v>1934.84899902344</v>
       </c>
       <c r="C205" s="0">
+        <v>23719.03125</v>
+      </c>
+      <c r="D205" s="0">
+        <v>20426.228515625</v>
+      </c>
+      <c r="E205" s="0">
+        <v>12056.6025390625</v>
+      </c>
+      <c r="F205" s="0">
+        <v>63.0957260131836</v>
+      </c>
+      <c r="G205" s="0">
+        <v>396.442138671875</v>
+      </c>
+      <c r="H205" s="0">
+        <v>0.596121847629547</v>
+      </c>
+      <c r="I205" s="0">
+        <v>4.96598100662231</v>
+      </c>
+      <c r="J205" s="0">
+        <v>2.01651826500893E-02</v>
+      </c>
+      <c r="K205" s="0">
+        <v>7.99432843923569E-02</v>
+      </c>
+      <c r="L205" s="0">
+        <v>-9.70534794032574E-03</v>
+      </c>
+      <c r="M205" s="0">
+        <v>0.80489442916587</v>
+      </c>
+      <c r="N205" s="0">
+        <v>59829.7424316406</v>
+      </c>
+      <c r="P205" s="0">
+        <v>36.9995361328125</v>
+      </c>
+      <c r="Q205" s="0">
         <v>410.923950195313</v>
-      </c>
-      <c r="D205" s="0">
-        <v>4.96598100662231</v>
-      </c>
-      <c r="E205" s="0">
-        <v>36.9995361328125</v>
       </c>
     </row>
     <row outlineLevel="0" r="206">
@@ -4264,13 +8464,46 @@
         <v>1935.71899414063</v>
       </c>
       <c r="C206" s="0">
+        <v>51273.65234375</v>
+      </c>
+      <c r="D206" s="0">
+        <v>49182.078125</v>
+      </c>
+      <c r="E206" s="0">
+        <v>14495.189453125</v>
+      </c>
+      <c r="F206" s="0">
+        <v>79.4328384399414</v>
+      </c>
+      <c r="G206" s="0">
+        <v>499.091247558594</v>
+      </c>
+      <c r="H206" s="0">
+        <v>0.295585334300995</v>
+      </c>
+      <c r="I206" s="0">
+        <v>4.95599603652954</v>
+      </c>
+      <c r="J206" s="0">
+        <v>2.12798331631348E-02</v>
+      </c>
+      <c r="K206" s="0">
+        <v>0.106205783784389</v>
+      </c>
+      <c r="L206" s="0">
+        <v>-1.19929313659668E-02</v>
+      </c>
+      <c r="M206" s="0">
+        <v>0.804894720204175</v>
+      </c>
+      <c r="N206" s="0">
+        <v>102734.024047852</v>
+      </c>
+      <c r="P206" s="0">
+        <v>36.9998413085938</v>
+      </c>
+      <c r="Q206" s="0">
         <v>411.7939453125</v>
-      </c>
-      <c r="D206" s="0">
-        <v>4.95599603652954</v>
-      </c>
-      <c r="E206" s="0">
-        <v>36.9998413085938</v>
       </c>
     </row>
     <row outlineLevel="0" r="207">
@@ -4283,13 +8516,46 @@
         <v>1936.40905761719</v>
       </c>
       <c r="C207" s="0">
+        <v>94554.703125</v>
+      </c>
+      <c r="D207" s="0">
+        <v>93428.4765625</v>
+      </c>
+      <c r="E207" s="0">
+        <v>14550.29296875</v>
+      </c>
+      <c r="F207" s="0">
+        <v>100</v>
+      </c>
+      <c r="G207" s="0">
+        <v>628.318542480469</v>
+      </c>
+      <c r="H207" s="0">
+        <v>0.15579454600811</v>
+      </c>
+      <c r="I207" s="0">
+        <v>4.9445538520813</v>
+      </c>
+      <c r="J207" s="0">
+        <v>2.28095916099846E-02</v>
+      </c>
+      <c r="K207" s="0">
+        <v>0.143316894769669</v>
+      </c>
+      <c r="L207" s="0">
+        <v>-1.29117174074054E-02</v>
+      </c>
+      <c r="M207" s="0">
+        <v>0.804895011242479</v>
+      </c>
+      <c r="N207" s="0">
+        <v>150488.464355469</v>
+      </c>
+      <c r="P207" s="0">
+        <v>36.99990234375</v>
+      </c>
+      <c r="Q207" s="0">
         <v>412.484008789063</v>
-      </c>
-      <c r="D207" s="0">
-        <v>4.9445538520813</v>
-      </c>
-      <c r="E207" s="0">
-        <v>36.99990234375</v>
       </c>
     </row>
   </sheetData>
